--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -1221,13 +1221,17 @@
         <v>43.91833333333338</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="K24" t="n">
+        <v>43.53</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1256,14 +1260,22 @@
         <v>43.92016666666671</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1309,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1326,14 +1344,22 @@
         <v>43.94116666666671</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1393,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1396,18 +1428,20 @@
         <v>43.96616666666671</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>44.1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
+        <v>43.53</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1469,18 @@
         <v>43.98033333333338</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>44.1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>44.1</v>
+        <v>43.53</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1485,11 +1517,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>44.1</v>
+        <v>43.53</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1525,8 +1557,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1560,8 +1598,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1595,8 +1639,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1630,8 +1680,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1665,8 +1721,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1700,8 +1762,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1735,8 +1803,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1805,8 +1885,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1926,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1875,8 +1967,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1910,8 +2008,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1945,8 +2049,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1980,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2015,8 +2131,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2050,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2085,8 +2213,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2254,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2155,8 +2295,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2190,8 +2336,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2225,8 +2377,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2254,18 +2412,20 @@
         <v>44.24250000000005</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>44.02</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>44.02</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
+        <v>43.53</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2293,20 +2453,18 @@
         <v>44.24283333333338</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>44.02</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>44.02</v>
+        <v>43.53</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2336,20 +2494,18 @@
         <v>44.24866666666671</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>44.02</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>44.02</v>
+        <v>43.53</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -2385,8 +2541,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2414,18 +2576,20 @@
         <v>44.26366666666672</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>44.31</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
+        <v>43.53</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2460,11 +2624,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>44.31</v>
+        <v>43.53</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2501,11 +2665,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>44.31</v>
+        <v>43.53</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2541,8 +2705,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2576,8 +2746,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2611,8 +2787,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2646,8 +2828,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2681,8 +2869,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2716,8 +2910,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2751,8 +2951,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2786,8 +2992,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2821,8 +3033,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2856,8 +3074,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2891,8 +3115,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2926,8 +3156,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2961,8 +3197,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2996,8 +3238,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3031,8 +3279,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,8 +3320,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3101,8 +3361,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3136,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3171,8 +3443,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3200,18 +3478,20 @@
         <v>44.42483333333337</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>44.5</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
+        <v>43.53</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3239,20 +3519,18 @@
         <v>44.43983333333338</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>44.5</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>44.5</v>
+        <v>43.53</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3282,20 +3560,18 @@
         <v>44.46133333333338</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>44.5</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>44.5</v>
+        <v>43.53</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -3331,8 +3607,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3366,8 +3648,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3401,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3436,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3471,8 +3771,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3506,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3541,8 +3853,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3576,8 +3894,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3611,8 +3935,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3646,8 +3976,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3681,8 +4017,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3716,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3751,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3786,8 +4140,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4181,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3856,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3891,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3926,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3961,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3996,8 +4386,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4031,8 +4427,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3384.7152</v>
       </c>
       <c r="G2" t="n">
+        <v>43.98999999999997</v>
+      </c>
+      <c r="H2" t="n">
         <v>43.57816666666671</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1090.1174</v>
       </c>
       <c r="G3" t="n">
+        <v>44.04999999999997</v>
+      </c>
+      <c r="H3" t="n">
         <v>43.60350000000005</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2365.6389</v>
       </c>
       <c r="G4" t="n">
+        <v>44.1113333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>43.62933333333338</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>865.2595</v>
       </c>
       <c r="G5" t="n">
+        <v>44.15133333333331</v>
+      </c>
+      <c r="H5" t="n">
         <v>43.65650000000005</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>709</v>
       </c>
       <c r="G6" t="n">
+        <v>44.2033333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>43.67516666666672</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>89.4563</v>
       </c>
       <c r="G7" t="n">
+        <v>44.2353333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>43.69983333333338</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>415.2134</v>
       </c>
       <c r="G8" t="n">
+        <v>44.25266666666663</v>
+      </c>
+      <c r="H8" t="n">
         <v>43.71616666666672</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>13962.4336</v>
       </c>
       <c r="G9" t="n">
+        <v>44.2633333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>43.73100000000004</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>12.329</v>
       </c>
       <c r="G10" t="n">
+        <v>44.28866666666663</v>
+      </c>
+      <c r="H10" t="n">
         <v>43.74950000000005</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>17503</v>
       </c>
       <c r="G11" t="n">
+        <v>44.29933333333329</v>
+      </c>
+      <c r="H11" t="n">
         <v>43.76450000000004</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>108742.7897</v>
       </c>
       <c r="G12" t="n">
+        <v>44.32466666666663</v>
+      </c>
+      <c r="H12" t="n">
         <v>43.78316666666671</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>589.5</v>
       </c>
       <c r="G13" t="n">
+        <v>44.34066666666663</v>
+      </c>
+      <c r="H13" t="n">
         <v>43.80183333333337</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>202.895</v>
       </c>
       <c r="G14" t="n">
+        <v>44.35733333333329</v>
+      </c>
+      <c r="H14" t="n">
         <v>43.82166666666671</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>131</v>
       </c>
       <c r="G15" t="n">
+        <v>44.35599999999997</v>
+      </c>
+      <c r="H15" t="n">
         <v>43.84016666666671</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>70.89</v>
       </c>
       <c r="G16" t="n">
+        <v>44.35466666666663</v>
+      </c>
+      <c r="H16" t="n">
         <v>43.85733333333338</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>701.9999</v>
       </c>
       <c r="G17" t="n">
+        <v>44.33799999999997</v>
+      </c>
+      <c r="H17" t="n">
         <v>43.87066666666671</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5897.2477</v>
       </c>
       <c r="G18" t="n">
+        <v>44.3113333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>43.88133333333338</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>12.357</v>
       </c>
       <c r="G19" t="n">
+        <v>44.3073333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>43.89800000000005</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>8088</v>
       </c>
       <c r="G20" t="n">
+        <v>44.24733333333331</v>
+      </c>
+      <c r="H20" t="n">
         <v>43.90000000000005</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2818.90497737</v>
       </c>
       <c r="G21" t="n">
+        <v>44.1913333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>43.90233333333337</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>19139.9507</v>
       </c>
       <c r="G22" t="n">
+        <v>44.13466666666663</v>
+      </c>
+      <c r="H22" t="n">
         <v>43.90450000000005</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>4833.265</v>
       </c>
       <c r="G23" t="n">
+        <v>44.09266666666664</v>
+      </c>
+      <c r="H23" t="n">
         <v>43.90666666666672</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,22 +1289,21 @@
         <v>1309.9999</v>
       </c>
       <c r="G24" t="n">
+        <v>44.08866666666664</v>
+      </c>
+      <c r="H24" t="n">
         <v>43.91833333333338</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="K24" t="n">
-        <v>43.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1257,26 +1327,27 @@
         <v>13923.5584</v>
       </c>
       <c r="G25" t="n">
+        <v>44.03066666666664</v>
+      </c>
+      <c r="H25" t="n">
         <v>43.92016666666671</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>44.1</v>
       </c>
-      <c r="K25" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,24 +1371,27 @@
         <v>37.0584</v>
       </c>
       <c r="G26" t="n">
+        <v>44.01866666666664</v>
+      </c>
+      <c r="H26" t="n">
         <v>43.92983333333338</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,26 +1415,27 @@
         <v>6963.3588</v>
       </c>
       <c r="G27" t="n">
+        <v>43.99866666666664</v>
+      </c>
+      <c r="H27" t="n">
         <v>43.94116666666671</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>43.98</v>
       </c>
-      <c r="K27" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,24 +1459,27 @@
         <v>49.316</v>
       </c>
       <c r="G28" t="n">
+        <v>43.97999999999998</v>
+      </c>
+      <c r="H28" t="n">
         <v>43.95366666666671</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+        <v>44.08</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1425,24 +1503,27 @@
         <v>1788.5416</v>
       </c>
       <c r="G29" t="n">
+        <v>43.95599999999998</v>
+      </c>
+      <c r="H29" t="n">
         <v>43.96616666666671</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,24 +1547,27 @@
         <v>3875.8965</v>
       </c>
       <c r="G30" t="n">
+        <v>43.94399999999998</v>
+      </c>
+      <c r="H30" t="n">
         <v>43.98033333333338</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1507,24 +1591,27 @@
         <v>4309.2627</v>
       </c>
       <c r="G31" t="n">
+        <v>43.93199999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>43.99216666666671</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1548,24 +1635,25 @@
         <v>4672.0128</v>
       </c>
       <c r="G32" t="n">
+        <v>43.93533333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>44.00400000000004</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1589,24 +1677,25 @@
         <v>2682</v>
       </c>
       <c r="G33" t="n">
+        <v>43.94066666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>44.00866666666671</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,24 +1719,25 @@
         <v>57897.9713</v>
       </c>
       <c r="G34" t="n">
+        <v>43.95</v>
+      </c>
+      <c r="H34" t="n">
         <v>44.02033333333337</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1671,24 +1761,25 @@
         <v>29178.8638</v>
       </c>
       <c r="G35" t="n">
+        <v>44.00533333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>44.0341666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,24 +1803,25 @@
         <v>3934.7786</v>
       </c>
       <c r="G36" t="n">
+        <v>44.04466666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>44.03650000000004</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,24 +1845,25 @@
         <v>3247.161</v>
       </c>
       <c r="G37" t="n">
+        <v>44.11266666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>44.04566666666671</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,24 +1887,25 @@
         <v>1394.6624</v>
       </c>
       <c r="G38" t="n">
+        <v>44.18066666666665</v>
+      </c>
+      <c r="H38" t="n">
         <v>44.05483333333338</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1835,24 +1929,25 @@
         <v>950.7661000000001</v>
       </c>
       <c r="G39" t="n">
+        <v>44.19199999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>44.05933333333338</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,24 +1971,25 @@
         <v>1246.3739</v>
       </c>
       <c r="G40" t="n">
+        <v>44.26266666666665</v>
+      </c>
+      <c r="H40" t="n">
         <v>44.06883333333338</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1917,24 +2013,25 @@
         <v>1339.2467</v>
       </c>
       <c r="G41" t="n">
+        <v>44.30199999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>44.08666666666672</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,24 +2055,25 @@
         <v>121761.8574</v>
       </c>
       <c r="G42" t="n">
+        <v>44.34333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>44.10500000000005</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1999,24 +2097,25 @@
         <v>459</v>
       </c>
       <c r="G43" t="n">
+        <v>44.37399999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>44.12100000000005</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2040,24 +2139,25 @@
         <v>12.5576</v>
       </c>
       <c r="G44" t="n">
+        <v>44.41933333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>44.14066666666672</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2081,24 +2181,25 @@
         <v>7100</v>
       </c>
       <c r="G45" t="n">
+        <v>44.42199999999998</v>
+      </c>
+      <c r="H45" t="n">
         <v>44.15133333333338</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,24 +2223,25 @@
         <v>124.02321946</v>
       </c>
       <c r="G46" t="n">
+        <v>44.46133333333331</v>
+      </c>
+      <c r="H46" t="n">
         <v>44.17116666666672</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,24 +2265,25 @@
         <v>3348.0854</v>
       </c>
       <c r="G47" t="n">
+        <v>44.49399999999998</v>
+      </c>
+      <c r="H47" t="n">
         <v>44.18933333333339</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,24 +2307,25 @@
         <v>336</v>
       </c>
       <c r="G48" t="n">
+        <v>44.51199999999997</v>
+      </c>
+      <c r="H48" t="n">
         <v>44.20350000000006</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2245,24 +2349,25 @@
         <v>12.6082</v>
       </c>
       <c r="G49" t="n">
+        <v>44.51199999999997</v>
+      </c>
+      <c r="H49" t="n">
         <v>44.22016666666672</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,24 +2391,25 @@
         <v>0.3462</v>
       </c>
       <c r="G50" t="n">
+        <v>44.50666666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>44.22766666666671</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2327,24 +2433,25 @@
         <v>53108.3032</v>
       </c>
       <c r="G51" t="n">
+        <v>44.51466666666665</v>
+      </c>
+      <c r="H51" t="n">
         <v>44.23850000000005</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2368,24 +2475,25 @@
         <v>251.002</v>
       </c>
       <c r="G52" t="n">
+        <v>44.47933333333332</v>
+      </c>
+      <c r="H52" t="n">
         <v>44.24050000000005</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,24 +2517,25 @@
         <v>687.2061</v>
       </c>
       <c r="G53" t="n">
+        <v>44.44399999999998</v>
+      </c>
+      <c r="H53" t="n">
         <v>44.24250000000005</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,24 +2559,25 @@
         <v>64.3986</v>
       </c>
       <c r="G54" t="n">
+        <v>44.42733333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>44.24283333333338</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2491,24 +2601,25 @@
         <v>36.3652</v>
       </c>
       <c r="G55" t="n">
+        <v>44.41266666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>44.24866666666671</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,24 +2643,25 @@
         <v>6617.3785</v>
       </c>
       <c r="G56" t="n">
+        <v>44.39533333333331</v>
+      </c>
+      <c r="H56" t="n">
         <v>44.25383333333338</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2573,24 +2685,25 @@
         <v>2268.7024</v>
       </c>
       <c r="G57" t="n">
+        <v>44.38799999999998</v>
+      </c>
+      <c r="H57" t="n">
         <v>44.26366666666672</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,24 +2727,25 @@
         <v>500</v>
       </c>
       <c r="G58" t="n">
+        <v>44.38999999999998</v>
+      </c>
+      <c r="H58" t="n">
         <v>44.27116666666672</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2655,24 +2769,25 @@
         <v>945.3964</v>
       </c>
       <c r="G59" t="n">
+        <v>44.38466666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>44.27933333333338</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,24 +2811,25 @@
         <v>11.9317</v>
       </c>
       <c r="G60" t="n">
+        <v>44.42133333333332</v>
+      </c>
+      <c r="H60" t="n">
         <v>44.28583333333338</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2737,24 +2853,25 @@
         <v>11376.4129</v>
       </c>
       <c r="G61" t="n">
+        <v>44.42199999999998</v>
+      </c>
+      <c r="H61" t="n">
         <v>44.29250000000005</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,24 +2895,25 @@
         <v>21737.398</v>
       </c>
       <c r="G62" t="n">
+        <v>44.42799999999998</v>
+      </c>
+      <c r="H62" t="n">
         <v>44.29883333333338</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2819,24 +2937,25 @@
         <v>11.9925</v>
       </c>
       <c r="G63" t="n">
+        <v>44.45799999999997</v>
+      </c>
+      <c r="H63" t="n">
         <v>44.30550000000005</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,24 +2979,25 @@
         <v>2564.3488</v>
       </c>
       <c r="G64" t="n">
+        <v>44.47799999999997</v>
+      </c>
+      <c r="H64" t="n">
         <v>44.31183333333339</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2901,24 +3021,25 @@
         <v>12.1356</v>
       </c>
       <c r="G65" t="n">
+        <v>44.50999999999997</v>
+      </c>
+      <c r="H65" t="n">
         <v>44.31733333333339</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2942,24 +3063,25 @@
         <v>1267.4686</v>
       </c>
       <c r="G66" t="n">
+        <v>44.5493333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>44.32500000000005</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2983,24 +3105,25 @@
         <v>2810.1696</v>
       </c>
       <c r="G67" t="n">
+        <v>44.60466666666664</v>
+      </c>
+      <c r="H67" t="n">
         <v>44.33283333333338</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,24 +3147,25 @@
         <v>2277.2789</v>
       </c>
       <c r="G68" t="n">
+        <v>44.6653333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>44.34566666666672</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3065,24 +3189,25 @@
         <v>959.809</v>
       </c>
       <c r="G69" t="n">
+        <v>44.72066666666664</v>
+      </c>
+      <c r="H69" t="n">
         <v>44.35716666666671</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3106,24 +3231,25 @@
         <v>11.9021</v>
       </c>
       <c r="G70" t="n">
+        <v>44.75999999999997</v>
+      </c>
+      <c r="H70" t="n">
         <v>44.36650000000005</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3147,24 +3273,25 @@
         <v>20631.1884</v>
       </c>
       <c r="G71" t="n">
+        <v>44.79599999999997</v>
+      </c>
+      <c r="H71" t="n">
         <v>44.37800000000005</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,24 +3315,25 @@
         <v>11.927</v>
       </c>
       <c r="G72" t="n">
+        <v>44.81866666666664</v>
+      </c>
+      <c r="H72" t="n">
         <v>44.38716666666672</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,24 +3357,25 @@
         <v>11878.1474</v>
       </c>
       <c r="G73" t="n">
+        <v>44.8313333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>44.39383333333338</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,24 +3399,25 @@
         <v>500</v>
       </c>
       <c r="G74" t="n">
+        <v>44.82933333333329</v>
+      </c>
+      <c r="H74" t="n">
         <v>44.39733333333338</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3311,24 +3441,25 @@
         <v>967.9571999999999</v>
       </c>
       <c r="G75" t="n">
+        <v>44.8313333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>44.40466666666671</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,24 +3483,25 @@
         <v>894.5414</v>
       </c>
       <c r="G76" t="n">
+        <v>44.81799999999997</v>
+      </c>
+      <c r="H76" t="n">
         <v>44.40833333333338</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3393,24 +3525,25 @@
         <v>38716</v>
       </c>
       <c r="G77" t="n">
+        <v>44.7993333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>44.41416666666671</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,24 +3567,25 @@
         <v>1419</v>
       </c>
       <c r="G78" t="n">
+        <v>44.77933333333331</v>
+      </c>
+      <c r="H78" t="n">
         <v>44.42250000000004</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,24 +3609,25 @@
         <v>2282</v>
       </c>
       <c r="G79" t="n">
+        <v>44.75933333333331</v>
+      </c>
+      <c r="H79" t="n">
         <v>44.42483333333337</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,24 +3651,25 @@
         <v>3630</v>
       </c>
       <c r="G80" t="n">
+        <v>44.7373333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>44.43983333333338</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,24 +3693,25 @@
         <v>2500</v>
       </c>
       <c r="G81" t="n">
+        <v>44.73666666666664</v>
+      </c>
+      <c r="H81" t="n">
         <v>44.46133333333338</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,24 +3735,25 @@
         <v>41556.3142</v>
       </c>
       <c r="G82" t="n">
+        <v>44.7133333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>44.47750000000004</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3639,24 +3777,25 @@
         <v>11.7425</v>
       </c>
       <c r="G83" t="n">
+        <v>44.70799999999998</v>
+      </c>
+      <c r="H83" t="n">
         <v>44.49950000000003</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,24 +3819,25 @@
         <v>784.2586</v>
       </c>
       <c r="G84" t="n">
+        <v>44.70799999999998</v>
+      </c>
+      <c r="H84" t="n">
         <v>44.51200000000004</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,24 +3861,25 @@
         <v>11.9349</v>
       </c>
       <c r="G85" t="n">
+        <v>44.70533333333331</v>
+      </c>
+      <c r="H85" t="n">
         <v>44.5351666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,24 +3903,25 @@
         <v>4479.7733</v>
       </c>
       <c r="G86" t="n">
+        <v>44.70199999999998</v>
+      </c>
+      <c r="H86" t="n">
         <v>44.54883333333337</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,24 +3945,25 @@
         <v>11.1456</v>
       </c>
       <c r="G87" t="n">
+        <v>44.69999999999997</v>
+      </c>
+      <c r="H87" t="n">
         <v>44.56250000000004</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,24 +3987,25 @@
         <v>26466.7949</v>
       </c>
       <c r="G88" t="n">
+        <v>44.71333333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>44.57716666666671</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,24 +4029,25 @@
         <v>266.1677</v>
       </c>
       <c r="G89" t="n">
+        <v>44.73399999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>44.59183333333338</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,24 +4071,25 @@
         <v>3399</v>
       </c>
       <c r="G90" t="n">
+        <v>44.74466666666665</v>
+      </c>
+      <c r="H90" t="n">
         <v>44.60483333333338</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,24 +4113,25 @@
         <v>174638.3288</v>
       </c>
       <c r="G91" t="n">
+        <v>44.77133333333332</v>
+      </c>
+      <c r="H91" t="n">
         <v>44.61816666666672</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4008,26 +4155,25 @@
         <v>2619.9998</v>
       </c>
       <c r="G92" t="n">
+        <v>44.80466666666665</v>
+      </c>
+      <c r="H92" t="n">
         <v>44.63150000000005</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4049,24 +4195,21 @@
         <v>40.853</v>
       </c>
       <c r="G93" t="n">
+        <v>44.84466666666665</v>
+      </c>
+      <c r="H93" t="n">
         <v>44.64850000000005</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,24 +4233,21 @@
         <v>15.5719</v>
       </c>
       <c r="G94" t="n">
+        <v>44.88666666666665</v>
+      </c>
+      <c r="H94" t="n">
         <v>44.65900000000006</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,24 +4271,21 @@
         <v>39.0576</v>
       </c>
       <c r="G95" t="n">
+        <v>44.92799999999998</v>
+      </c>
+      <c r="H95" t="n">
         <v>44.67050000000005</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4172,24 +4309,21 @@
         <v>512.811</v>
       </c>
       <c r="G96" t="n">
+        <v>44.94733333333331</v>
+      </c>
+      <c r="H96" t="n">
         <v>44.68700000000005</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,24 +4347,21 @@
         <v>1178.1314</v>
       </c>
       <c r="G97" t="n">
+        <v>44.98599999999998</v>
+      </c>
+      <c r="H97" t="n">
         <v>44.69583333333338</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,24 +4385,21 @@
         <v>486.4483</v>
       </c>
       <c r="G98" t="n">
+        <v>45.00466666666664</v>
+      </c>
+      <c r="H98" t="n">
         <v>44.70550000000004</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4295,24 +4423,21 @@
         <v>1089.7423</v>
       </c>
       <c r="G99" t="n">
+        <v>45.02333333333331</v>
+      </c>
+      <c r="H99" t="n">
         <v>44.71983333333338</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,24 +4461,21 @@
         <v>264.8308</v>
       </c>
       <c r="G100" t="n">
+        <v>45.03866666666665</v>
+      </c>
+      <c r="H100" t="n">
         <v>44.72916666666671</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,24 +4499,21 @@
         <v>78.0718</v>
       </c>
       <c r="G101" t="n">
+        <v>45.06066666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>44.73850000000004</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,24 +4537,401 @@
         <v>15500</v>
       </c>
       <c r="G102" t="n">
+        <v>45.06599999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>44.74316666666672</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C103" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D103" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E103" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F103" t="n">
+        <v>74.1846</v>
+      </c>
+      <c r="G103" t="n">
+        <v>45.07533333333332</v>
+      </c>
+      <c r="H103" t="n">
+        <v>44.75250000000005</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="C104" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D104" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E104" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3409.9999</v>
+      </c>
+      <c r="G104" t="n">
+        <v>45.07533333333332</v>
+      </c>
+      <c r="H104" t="n">
+        <v>44.75583333333338</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C105" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D105" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E105" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F105" t="n">
+        <v>60.2073</v>
+      </c>
+      <c r="G105" t="n">
+        <v>45.08466666666665</v>
+      </c>
+      <c r="H105" t="n">
+        <v>44.77050000000005</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C106" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D106" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E106" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F106" t="n">
+        <v>57.197</v>
+      </c>
+      <c r="G106" t="n">
+        <v>45.09266666666665</v>
+      </c>
+      <c r="H106" t="n">
+        <v>44.77600000000005</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C107" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D107" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E107" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F107" t="n">
+        <v>382.5957</v>
+      </c>
+      <c r="G107" t="n">
+        <v>45.10066666666665</v>
+      </c>
+      <c r="H107" t="n">
+        <v>44.78316666666671</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C108" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D108" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E108" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F108" t="n">
+        <v>33</v>
+      </c>
+      <c r="G108" t="n">
+        <v>45.10199999999998</v>
+      </c>
+      <c r="H108" t="n">
+        <v>44.79600000000004</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C109" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D109" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E109" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2215.82096166</v>
+      </c>
+      <c r="G109" t="n">
+        <v>45.10199999999998</v>
+      </c>
+      <c r="H109" t="n">
+        <v>44.80650000000004</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C110" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E110" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2411</v>
+      </c>
+      <c r="G110" t="n">
+        <v>45.10199999999998</v>
+      </c>
+      <c r="H110" t="n">
+        <v>44.81933333333338</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C111" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D111" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E111" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F111" t="n">
+        <v>54.3251</v>
+      </c>
+      <c r="G111" t="n">
+        <v>45.10266666666665</v>
+      </c>
+      <c r="H111" t="n">
+        <v>44.83400000000005</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C112" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E112" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1208.54768083</v>
+      </c>
+      <c r="G112" t="n">
+        <v>45.10599999999998</v>
+      </c>
+      <c r="H112" t="n">
+        <v>44.85250000000005</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="C2" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="D2" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="E2" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="F2" t="n">
-        <v>3384.7152</v>
+        <v>49744</v>
       </c>
       <c r="G2" t="n">
-        <v>43.98999999999997</v>
+        <v>-87375.78249777999</v>
       </c>
       <c r="H2" t="n">
-        <v>43.57816666666671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="C3" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="D3" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="E3" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1090.1174</v>
+        <v>2476.1494</v>
       </c>
       <c r="G3" t="n">
-        <v>44.04999999999997</v>
+        <v>-87375.78249777999</v>
       </c>
       <c r="H3" t="n">
-        <v>43.60350000000005</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44.41</v>
+        <v>43.5</v>
       </c>
       <c r="C4" t="n">
-        <v>44.42</v>
+        <v>43.6</v>
       </c>
       <c r="D4" t="n">
-        <v>44.42</v>
+        <v>43.99</v>
       </c>
       <c r="E4" t="n">
-        <v>44.41</v>
+        <v>43.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2365.6389</v>
+        <v>12252.23378724</v>
       </c>
       <c r="G4" t="n">
-        <v>44.1113333333333</v>
+        <v>-99628.01628501998</v>
       </c>
       <c r="H4" t="n">
-        <v>43.62933333333338</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44.42</v>
+        <v>43.89</v>
       </c>
       <c r="C5" t="n">
-        <v>44.5</v>
+        <v>43.99</v>
       </c>
       <c r="D5" t="n">
-        <v>44.5</v>
+        <v>43.99</v>
       </c>
       <c r="E5" t="n">
-        <v>44.42</v>
+        <v>43.89</v>
       </c>
       <c r="F5" t="n">
-        <v>865.2595</v>
+        <v>6756.1204</v>
       </c>
       <c r="G5" t="n">
-        <v>44.15133333333331</v>
+        <v>-92871.89588501999</v>
       </c>
       <c r="H5" t="n">
-        <v>43.65650000000005</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>709</v>
+        <v>2930</v>
       </c>
       <c r="G6" t="n">
-        <v>44.2033333333333</v>
+        <v>-89941.89588501999</v>
       </c>
       <c r="H6" t="n">
-        <v>43.67516666666672</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>89.4563</v>
+        <v>482.3305</v>
       </c>
       <c r="G7" t="n">
-        <v>44.2353333333333</v>
+        <v>-89941.89588501999</v>
       </c>
       <c r="H7" t="n">
-        <v>43.69983333333338</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="D8" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>44.16</v>
+        <v>43.99</v>
       </c>
       <c r="F8" t="n">
-        <v>415.2134</v>
+        <v>25564.6568</v>
       </c>
       <c r="G8" t="n">
-        <v>44.25266666666663</v>
+        <v>-89941.89588501999</v>
       </c>
       <c r="H8" t="n">
-        <v>43.71616666666672</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="D9" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="F9" t="n">
-        <v>13962.4336</v>
+        <v>14903.6188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.2633333333333</v>
+        <v>-89941.89588501999</v>
       </c>
       <c r="H9" t="n">
-        <v>43.73100000000004</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44.38</v>
+        <v>43.5</v>
       </c>
       <c r="C10" t="n">
-        <v>44.38</v>
+        <v>43.5</v>
       </c>
       <c r="D10" t="n">
-        <v>44.38</v>
+        <v>43.5</v>
       </c>
       <c r="E10" t="n">
-        <v>44.38</v>
+        <v>43.45</v>
       </c>
       <c r="F10" t="n">
-        <v>12.329</v>
+        <v>3406.1414</v>
       </c>
       <c r="G10" t="n">
-        <v>44.28866666666663</v>
+        <v>-93348.03728501998</v>
       </c>
       <c r="H10" t="n">
-        <v>43.74950000000005</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="C11" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="D11" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="E11" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="F11" t="n">
-        <v>17503</v>
+        <v>1310</v>
       </c>
       <c r="G11" t="n">
-        <v>44.29933333333329</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H11" t="n">
-        <v>43.76450000000004</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="C12" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="D12" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E12" t="n">
-        <v>44.15</v>
+        <v>43.6</v>
       </c>
       <c r="F12" t="n">
-        <v>108742.7897</v>
+        <v>550</v>
       </c>
       <c r="G12" t="n">
-        <v>44.32466666666663</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H12" t="n">
-        <v>43.78316666666671</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="C13" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="D13" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E13" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="F13" t="n">
-        <v>589.5</v>
+        <v>2668.168</v>
       </c>
       <c r="G13" t="n">
-        <v>44.34066666666663</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H13" t="n">
-        <v>43.80183333333337</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="C14" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="D14" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="E14" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="F14" t="n">
-        <v>202.895</v>
+        <v>2402.4</v>
       </c>
       <c r="G14" t="n">
-        <v>44.35733333333329</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H14" t="n">
-        <v>43.82166666666671</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="C15" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="D15" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E15" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="F15" t="n">
-        <v>131</v>
+        <v>5744.3218</v>
       </c>
       <c r="G15" t="n">
-        <v>44.35599999999997</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H15" t="n">
-        <v>43.84016666666671</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="C16" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="D16" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E16" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="F16" t="n">
-        <v>70.89</v>
+        <v>1427</v>
       </c>
       <c r="G16" t="n">
-        <v>44.35466666666663</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H16" t="n">
-        <v>43.85733333333338</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="C17" t="n">
-        <v>44.15</v>
+        <v>43.5</v>
       </c>
       <c r="D17" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E17" t="n">
-        <v>44.15</v>
+        <v>43.5</v>
       </c>
       <c r="F17" t="n">
-        <v>701.9999</v>
+        <v>23537.1709</v>
       </c>
       <c r="G17" t="n">
-        <v>44.33799999999997</v>
+        <v>-115575.20818502</v>
       </c>
       <c r="H17" t="n">
-        <v>43.87066666666671</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44.15</v>
+        <v>43.5</v>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="D18" t="n">
-        <v>44.15</v>
+        <v>43.5</v>
       </c>
       <c r="E18" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="F18" t="n">
-        <v>5897.2477</v>
+        <v>14424</v>
       </c>
       <c r="G18" t="n">
-        <v>44.3113333333333</v>
+        <v>-115575.20818502</v>
       </c>
       <c r="H18" t="n">
-        <v>43.88133333333338</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.36</v>
+        <v>43.53</v>
       </c>
       <c r="C19" t="n">
-        <v>44.36</v>
+        <v>43.9</v>
       </c>
       <c r="D19" t="n">
-        <v>44.36</v>
+        <v>43.9</v>
       </c>
       <c r="E19" t="n">
-        <v>44.36</v>
+        <v>43.53</v>
       </c>
       <c r="F19" t="n">
-        <v>12.357</v>
+        <v>6020</v>
       </c>
       <c r="G19" t="n">
-        <v>44.3073333333333</v>
+        <v>-109555.20818502</v>
       </c>
       <c r="H19" t="n">
-        <v>43.89800000000005</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.07</v>
+        <v>43.6</v>
       </c>
       <c r="C20" t="n">
         <v>43.6</v>
       </c>
       <c r="D20" t="n">
-        <v>44.07</v>
+        <v>43.6</v>
       </c>
       <c r="E20" t="n">
         <v>43.6</v>
       </c>
       <c r="F20" t="n">
-        <v>8088</v>
+        <v>240.4648</v>
       </c>
       <c r="G20" t="n">
-        <v>44.24733333333331</v>
+        <v>-109795.67298502</v>
       </c>
       <c r="H20" t="n">
-        <v>43.90000000000005</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="C21" t="n">
-        <v>43.54</v>
+        <v>43.9</v>
       </c>
       <c r="D21" t="n">
-        <v>44.2</v>
+        <v>43.9</v>
       </c>
       <c r="E21" t="n">
-        <v>43.54</v>
+        <v>43.9</v>
       </c>
       <c r="F21" t="n">
-        <v>2818.90497737</v>
+        <v>1043.3129</v>
       </c>
       <c r="G21" t="n">
-        <v>44.1913333333333</v>
+        <v>-108752.36008502</v>
       </c>
       <c r="H21" t="n">
-        <v>43.90233333333337</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>43.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>43.6</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1137,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.99</v>
+        <v>43.9</v>
       </c>
       <c r="C22" t="n">
-        <v>43.53</v>
+        <v>43.9</v>
       </c>
       <c r="D22" t="n">
-        <v>43.99</v>
+        <v>43.9</v>
       </c>
       <c r="E22" t="n">
-        <v>43.53</v>
+        <v>43.9</v>
       </c>
       <c r="F22" t="n">
-        <v>19139.9507</v>
+        <v>624.3268</v>
       </c>
       <c r="G22" t="n">
-        <v>44.13466666666663</v>
+        <v>-108752.36008502</v>
       </c>
       <c r="H22" t="n">
-        <v>43.90450000000005</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1180,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>43.89</v>
+        <v>44</v>
       </c>
       <c r="C23" t="n">
-        <v>43.53</v>
+        <v>44</v>
       </c>
       <c r="D23" t="n">
-        <v>43.89</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
-        <v>43.53</v>
+        <v>44</v>
       </c>
       <c r="F23" t="n">
-        <v>4833.265</v>
+        <v>824.2472</v>
       </c>
       <c r="G23" t="n">
-        <v>44.09266666666664</v>
+        <v>-107928.11288502</v>
       </c>
       <c r="H23" t="n">
-        <v>43.90666666666672</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1223,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="D24" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="F24" t="n">
-        <v>1309.9999</v>
+        <v>9130.8585</v>
       </c>
       <c r="G24" t="n">
-        <v>44.08866666666664</v>
+        <v>-107928.11288502</v>
       </c>
       <c r="H24" t="n">
-        <v>43.91833333333338</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="K24" t="n">
+        <v>44</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,42 +1262,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>43.91</v>
+        <v>44</v>
       </c>
       <c r="C25" t="n">
-        <v>43.51</v>
+        <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>43.91</v>
+        <v>44</v>
       </c>
       <c r="E25" t="n">
-        <v>43.51</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
-        <v>13923.5584</v>
+        <v>373.9803</v>
       </c>
       <c r="G25" t="n">
-        <v>44.03066666666664</v>
+        <v>-107928.11288502</v>
       </c>
       <c r="H25" t="n">
-        <v>43.92016666666671</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K25" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>44</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1356,42 +1305,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
-        <v>43.98</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
-        <v>43.98</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>37.0584</v>
+        <v>2854.8231</v>
       </c>
       <c r="G26" t="n">
-        <v>44.01866666666664</v>
+        <v>-107928.11288502</v>
       </c>
       <c r="H26" t="n">
-        <v>43.92983333333338</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K26" t="n">
-        <v>43.51</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>44</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1400,42 +1348,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>43.98</v>
+        <v>44.14</v>
       </c>
       <c r="C27" t="n">
-        <v>44.08</v>
+        <v>44.14</v>
       </c>
       <c r="D27" t="n">
-        <v>44.08</v>
+        <v>44.14</v>
       </c>
       <c r="E27" t="n">
-        <v>43.79</v>
+        <v>44.14</v>
       </c>
       <c r="F27" t="n">
-        <v>6963.3588</v>
+        <v>161</v>
       </c>
       <c r="G27" t="n">
-        <v>43.99866666666664</v>
+        <v>-107767.11288502</v>
       </c>
       <c r="H27" t="n">
-        <v>43.94116666666671</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>43.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,42 +1383,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>44.08</v>
+        <v>44.14</v>
       </c>
       <c r="C28" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="D28" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="E28" t="n">
-        <v>44.08</v>
+        <v>44.14</v>
       </c>
       <c r="F28" t="n">
-        <v>49.316</v>
+        <v>5333.9766</v>
       </c>
       <c r="G28" t="n">
-        <v>43.97999999999998</v>
+        <v>-102433.13628502</v>
       </c>
       <c r="H28" t="n">
-        <v>43.95366666666671</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>44.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1488,42 +1418,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="C29" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="D29" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="E29" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="F29" t="n">
-        <v>1788.5416</v>
+        <v>42037.6688</v>
       </c>
       <c r="G29" t="n">
-        <v>43.95599999999998</v>
+        <v>-60395.46748501998</v>
       </c>
       <c r="H29" t="n">
-        <v>43.96616666666671</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>44.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1532,42 +1453,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="C30" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="D30" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="E30" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="F30" t="n">
-        <v>3875.8965</v>
+        <v>1664.1594</v>
       </c>
       <c r="G30" t="n">
-        <v>43.94399999999998</v>
+        <v>-60395.46748501998</v>
       </c>
       <c r="H30" t="n">
-        <v>43.98033333333338</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>44.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,42 +1488,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="C31" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="D31" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="E31" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="F31" t="n">
-        <v>4309.2627</v>
+        <v>3384.7152</v>
       </c>
       <c r="G31" t="n">
-        <v>43.93199999999999</v>
+        <v>-60395.46748501998</v>
       </c>
       <c r="H31" t="n">
-        <v>43.99216666666671</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>44.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,40 +1523,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="C32" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="D32" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="E32" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="F32" t="n">
-        <v>4672.0128</v>
+        <v>1090.1174</v>
       </c>
       <c r="G32" t="n">
-        <v>43.93533333333333</v>
+        <v>-60395.46748501998</v>
       </c>
       <c r="H32" t="n">
-        <v>44.00400000000004</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,40 +1558,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>44.08</v>
+        <v>44.41</v>
       </c>
       <c r="C33" t="n">
-        <v>44.08</v>
+        <v>44.42</v>
       </c>
       <c r="D33" t="n">
-        <v>44.08</v>
+        <v>44.42</v>
       </c>
       <c r="E33" t="n">
-        <v>44.08</v>
+        <v>44.41</v>
       </c>
       <c r="F33" t="n">
-        <v>2682</v>
+        <v>2365.6389</v>
       </c>
       <c r="G33" t="n">
-        <v>43.94066666666666</v>
+        <v>-58029.82858501998</v>
       </c>
       <c r="H33" t="n">
-        <v>44.00866666666671</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1704,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44.08</v>
+        <v>44.42</v>
       </c>
       <c r="C34" t="n">
         <v>44.5</v>
@@ -1713,31 +1602,24 @@
         <v>44.5</v>
       </c>
       <c r="E34" t="n">
-        <v>44.08</v>
+        <v>44.42</v>
       </c>
       <c r="F34" t="n">
-        <v>57897.9713</v>
+        <v>865.2595</v>
       </c>
       <c r="G34" t="n">
-        <v>43.95</v>
+        <v>-57164.56908501998</v>
       </c>
       <c r="H34" t="n">
-        <v>44.02033333333337</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1746,40 +1628,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>44.2</v>
+        <v>44.38</v>
       </c>
       <c r="C35" t="n">
-        <v>44.43</v>
+        <v>44.38</v>
       </c>
       <c r="D35" t="n">
-        <v>44.52</v>
+        <v>44.38</v>
       </c>
       <c r="E35" t="n">
-        <v>43.8</v>
+        <v>44.38</v>
       </c>
       <c r="F35" t="n">
-        <v>29178.8638</v>
+        <v>709</v>
       </c>
       <c r="G35" t="n">
-        <v>44.00533333333332</v>
+        <v>-57873.56908501998</v>
       </c>
       <c r="H35" t="n">
-        <v>44.0341666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,40 +1663,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>44.43</v>
+        <v>44.38</v>
       </c>
       <c r="C36" t="n">
-        <v>44.13</v>
+        <v>44.38</v>
       </c>
       <c r="D36" t="n">
-        <v>44.53</v>
+        <v>44.38</v>
       </c>
       <c r="E36" t="n">
-        <v>44.13</v>
+        <v>44.38</v>
       </c>
       <c r="F36" t="n">
-        <v>3934.7786</v>
+        <v>89.4563</v>
       </c>
       <c r="G36" t="n">
-        <v>44.04466666666666</v>
+        <v>-57873.56908501998</v>
       </c>
       <c r="H36" t="n">
-        <v>44.03650000000004</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1830,40 +1698,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44.1</v>
+        <v>44.16</v>
       </c>
       <c r="C37" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="D37" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="E37" t="n">
-        <v>44.1</v>
+        <v>44.16</v>
       </c>
       <c r="F37" t="n">
-        <v>3247.161</v>
+        <v>415.2134</v>
       </c>
       <c r="G37" t="n">
-        <v>44.11266666666666</v>
+        <v>-58288.78248501998</v>
       </c>
       <c r="H37" t="n">
-        <v>44.04566666666671</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1872,40 +1733,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="C38" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="D38" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="E38" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="F38" t="n">
-        <v>1394.6624</v>
+        <v>13962.4336</v>
       </c>
       <c r="G38" t="n">
-        <v>44.18066666666665</v>
+        <v>-58288.78248501998</v>
       </c>
       <c r="H38" t="n">
-        <v>44.05483333333338</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1914,40 +1768,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>44.27</v>
+        <v>44.38</v>
       </c>
       <c r="C39" t="n">
-        <v>44.27</v>
+        <v>44.38</v>
       </c>
       <c r="D39" t="n">
-        <v>44.27</v>
+        <v>44.38</v>
       </c>
       <c r="E39" t="n">
-        <v>44.27</v>
+        <v>44.38</v>
       </c>
       <c r="F39" t="n">
-        <v>950.7661000000001</v>
+        <v>12.329</v>
       </c>
       <c r="G39" t="n">
-        <v>44.19199999999999</v>
+        <v>-58276.45348501999</v>
       </c>
       <c r="H39" t="n">
-        <v>44.05933333333338</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,40 +1803,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="C40" t="n">
-        <v>44.57</v>
+        <v>44.16</v>
       </c>
       <c r="D40" t="n">
-        <v>44.57</v>
+        <v>44.16</v>
       </c>
       <c r="E40" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="F40" t="n">
-        <v>1246.3739</v>
+        <v>17503</v>
       </c>
       <c r="G40" t="n">
-        <v>44.26266666666665</v>
+        <v>-75779.45348501999</v>
       </c>
       <c r="H40" t="n">
-        <v>44.06883333333338</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,40 +1838,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44.14</v>
+        <v>44.16</v>
       </c>
       <c r="C41" t="n">
-        <v>44.57</v>
+        <v>44.38</v>
       </c>
       <c r="D41" t="n">
-        <v>44.57</v>
+        <v>44.38</v>
       </c>
       <c r="E41" t="n">
-        <v>44.14</v>
+        <v>44.15</v>
       </c>
       <c r="F41" t="n">
-        <v>1339.2467</v>
+        <v>108742.7897</v>
       </c>
       <c r="G41" t="n">
-        <v>44.30199999999999</v>
+        <v>32963.33621498001</v>
       </c>
       <c r="H41" t="n">
-        <v>44.08666666666672</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2040,40 +1873,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>44.57</v>
+        <v>44.38</v>
       </c>
       <c r="C42" t="n">
-        <v>44.7</v>
+        <v>44.38</v>
       </c>
       <c r="D42" t="n">
-        <v>44.7</v>
+        <v>44.38</v>
       </c>
       <c r="E42" t="n">
-        <v>44.57</v>
+        <v>44.38</v>
       </c>
       <c r="F42" t="n">
-        <v>121761.8574</v>
+        <v>589.5</v>
       </c>
       <c r="G42" t="n">
-        <v>44.34333333333333</v>
+        <v>32963.33621498001</v>
       </c>
       <c r="H42" t="n">
-        <v>44.10500000000005</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2082,40 +1908,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>44.56</v>
+        <v>44.46</v>
       </c>
       <c r="C43" t="n">
-        <v>44.56</v>
+        <v>44.46</v>
       </c>
       <c r="D43" t="n">
-        <v>44.56</v>
+        <v>44.46</v>
       </c>
       <c r="E43" t="n">
-        <v>44.56</v>
+        <v>44.46</v>
       </c>
       <c r="F43" t="n">
-        <v>459</v>
+        <v>202.895</v>
       </c>
       <c r="G43" t="n">
-        <v>44.37399999999999</v>
+        <v>33166.23121498001</v>
       </c>
       <c r="H43" t="n">
-        <v>44.12100000000005</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,40 +1943,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>44.7</v>
+        <v>44.38</v>
       </c>
       <c r="C44" t="n">
-        <v>44.78</v>
+        <v>44.38</v>
       </c>
       <c r="D44" t="n">
-        <v>44.78</v>
+        <v>44.38</v>
       </c>
       <c r="E44" t="n">
-        <v>44.7</v>
+        <v>44.38</v>
       </c>
       <c r="F44" t="n">
-        <v>12.5576</v>
+        <v>131</v>
       </c>
       <c r="G44" t="n">
-        <v>44.41933333333331</v>
+        <v>33035.23121498001</v>
       </c>
       <c r="H44" t="n">
-        <v>44.14066666666672</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,40 +1978,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>44.78</v>
+        <v>44.38</v>
       </c>
       <c r="C45" t="n">
-        <v>44.24</v>
+        <v>44.38</v>
       </c>
       <c r="D45" t="n">
-        <v>44.78</v>
+        <v>44.38</v>
       </c>
       <c r="E45" t="n">
-        <v>44.24</v>
+        <v>44.38</v>
       </c>
       <c r="F45" t="n">
-        <v>7100</v>
+        <v>70.89</v>
       </c>
       <c r="G45" t="n">
-        <v>44.42199999999998</v>
+        <v>33035.23121498001</v>
       </c>
       <c r="H45" t="n">
-        <v>44.15133333333338</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,40 +2013,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44.79</v>
+        <v>44.38</v>
       </c>
       <c r="C46" t="n">
-        <v>44.79</v>
+        <v>44.15</v>
       </c>
       <c r="D46" t="n">
-        <v>44.79</v>
+        <v>44.38</v>
       </c>
       <c r="E46" t="n">
-        <v>44.79</v>
+        <v>44.15</v>
       </c>
       <c r="F46" t="n">
-        <v>124.02321946</v>
+        <v>701.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>44.46133333333331</v>
+        <v>32333.23131498001</v>
       </c>
       <c r="H46" t="n">
-        <v>44.17116666666672</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,40 +2048,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44.66</v>
+        <v>44.15</v>
       </c>
       <c r="C47" t="n">
-        <v>44.69</v>
+        <v>44</v>
       </c>
       <c r="D47" t="n">
-        <v>44.69</v>
+        <v>44.15</v>
       </c>
       <c r="E47" t="n">
-        <v>44.66</v>
+        <v>44</v>
       </c>
       <c r="F47" t="n">
-        <v>3348.0854</v>
+        <v>5897.2477</v>
       </c>
       <c r="G47" t="n">
-        <v>44.49399999999998</v>
+        <v>26435.98361498001</v>
       </c>
       <c r="H47" t="n">
-        <v>44.18933333333339</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2292,40 +2083,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>44.35</v>
+        <v>44.36</v>
       </c>
       <c r="C48" t="n">
-        <v>44.35</v>
+        <v>44.36</v>
       </c>
       <c r="D48" t="n">
-        <v>44.35</v>
+        <v>44.36</v>
       </c>
       <c r="E48" t="n">
-        <v>44.35</v>
+        <v>44.36</v>
       </c>
       <c r="F48" t="n">
-        <v>336</v>
+        <v>12.357</v>
       </c>
       <c r="G48" t="n">
-        <v>44.51199999999997</v>
+        <v>26448.34061498001</v>
       </c>
       <c r="H48" t="n">
-        <v>44.20350000000006</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2334,40 +2118,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44.5</v>
+        <v>44.07</v>
       </c>
       <c r="C49" t="n">
-        <v>44.5</v>
+        <v>43.6</v>
       </c>
       <c r="D49" t="n">
-        <v>44.5</v>
+        <v>44.07</v>
       </c>
       <c r="E49" t="n">
-        <v>44.5</v>
+        <v>43.6</v>
       </c>
       <c r="F49" t="n">
-        <v>12.6082</v>
+        <v>8088</v>
       </c>
       <c r="G49" t="n">
-        <v>44.51199999999997</v>
+        <v>18360.34061498001</v>
       </c>
       <c r="H49" t="n">
-        <v>44.22016666666672</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,40 +2153,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44.35</v>
+        <v>44.1</v>
       </c>
       <c r="C50" t="n">
-        <v>44.35</v>
+        <v>43.54</v>
       </c>
       <c r="D50" t="n">
-        <v>44.35</v>
+        <v>44.2</v>
       </c>
       <c r="E50" t="n">
-        <v>44.35</v>
+        <v>43.54</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3462</v>
+        <v>2818.90497737</v>
       </c>
       <c r="G50" t="n">
-        <v>44.50666666666665</v>
+        <v>15541.43563761001</v>
       </c>
       <c r="H50" t="n">
-        <v>44.22766666666671</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,40 +2188,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>43.95</v>
+        <v>43.99</v>
       </c>
       <c r="C51" t="n">
-        <v>44.25</v>
+        <v>43.53</v>
       </c>
       <c r="D51" t="n">
-        <v>44.25</v>
+        <v>43.99</v>
       </c>
       <c r="E51" t="n">
-        <v>43.7</v>
+        <v>43.53</v>
       </c>
       <c r="F51" t="n">
-        <v>53108.3032</v>
+        <v>19139.9507</v>
       </c>
       <c r="G51" t="n">
-        <v>44.51466666666665</v>
+        <v>-3598.515062389994</v>
       </c>
       <c r="H51" t="n">
-        <v>44.23850000000005</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,40 +2223,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>44.02</v>
+        <v>43.89</v>
       </c>
       <c r="C52" t="n">
-        <v>44.02</v>
+        <v>43.53</v>
       </c>
       <c r="D52" t="n">
-        <v>44.02</v>
+        <v>43.89</v>
       </c>
       <c r="E52" t="n">
-        <v>44.02</v>
+        <v>43.53</v>
       </c>
       <c r="F52" t="n">
-        <v>251.002</v>
+        <v>4833.265</v>
       </c>
       <c r="G52" t="n">
-        <v>44.47933333333332</v>
+        <v>-3598.515062389994</v>
       </c>
       <c r="H52" t="n">
-        <v>44.24050000000005</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>43.53</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2502,40 +2264,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44.02</v>
+        <v>44.1</v>
       </c>
       <c r="C53" t="n">
-        <v>44.02</v>
+        <v>44.1</v>
       </c>
       <c r="D53" t="n">
-        <v>44.02</v>
+        <v>44.1</v>
       </c>
       <c r="E53" t="n">
-        <v>44.02</v>
+        <v>44.1</v>
       </c>
       <c r="F53" t="n">
-        <v>687.2061</v>
+        <v>1309.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>44.44399999999998</v>
+        <v>-2288.515162389994</v>
       </c>
       <c r="H53" t="n">
-        <v>44.24250000000005</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>43.53</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,40 +2305,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>44.02</v>
+        <v>43.91</v>
       </c>
       <c r="C54" t="n">
-        <v>44.02</v>
+        <v>43.51</v>
       </c>
       <c r="D54" t="n">
-        <v>44.02</v>
+        <v>43.91</v>
       </c>
       <c r="E54" t="n">
-        <v>44.02</v>
+        <v>43.51</v>
       </c>
       <c r="F54" t="n">
-        <v>64.3986</v>
+        <v>13923.5584</v>
       </c>
       <c r="G54" t="n">
-        <v>44.42733333333332</v>
+        <v>-16212.07356238999</v>
       </c>
       <c r="H54" t="n">
-        <v>44.24283333333338</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,40 +2344,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44.11</v>
+        <v>43.7</v>
       </c>
       <c r="C55" t="n">
-        <v>44.35</v>
+        <v>43.98</v>
       </c>
       <c r="D55" t="n">
-        <v>44.35</v>
+        <v>43.98</v>
       </c>
       <c r="E55" t="n">
-        <v>44.11</v>
+        <v>43.7</v>
       </c>
       <c r="F55" t="n">
-        <v>36.3652</v>
+        <v>37.0584</v>
       </c>
       <c r="G55" t="n">
-        <v>44.41266666666665</v>
+        <v>-16175.01516238999</v>
       </c>
       <c r="H55" t="n">
-        <v>44.24866666666671</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2628,40 +2383,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44.11</v>
+        <v>43.98</v>
       </c>
       <c r="C56" t="n">
-        <v>44.31</v>
+        <v>44.08</v>
       </c>
       <c r="D56" t="n">
-        <v>44.31</v>
+        <v>44.08</v>
       </c>
       <c r="E56" t="n">
-        <v>43.91</v>
+        <v>43.79</v>
       </c>
       <c r="F56" t="n">
-        <v>6617.3785</v>
+        <v>6963.3588</v>
       </c>
       <c r="G56" t="n">
-        <v>44.39533333333331</v>
+        <v>-9211.656362389993</v>
       </c>
       <c r="H56" t="n">
-        <v>44.25383333333338</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>43.98</v>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,40 +2424,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44.35</v>
+        <v>44.08</v>
       </c>
       <c r="C57" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="D57" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="E57" t="n">
-        <v>44.35</v>
+        <v>44.08</v>
       </c>
       <c r="F57" t="n">
-        <v>2268.7024</v>
+        <v>49.316</v>
       </c>
       <c r="G57" t="n">
-        <v>44.38799999999998</v>
+        <v>-9162.340362389992</v>
       </c>
       <c r="H57" t="n">
-        <v>44.26366666666672</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,40 +2463,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="C58" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="D58" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="E58" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>1788.5416</v>
       </c>
       <c r="G58" t="n">
-        <v>44.38999999999998</v>
+        <v>-9162.340362389992</v>
       </c>
       <c r="H58" t="n">
-        <v>44.27116666666672</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,40 +2504,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="C59" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="D59" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="E59" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="F59" t="n">
-        <v>945.3964</v>
+        <v>3875.8965</v>
       </c>
       <c r="G59" t="n">
-        <v>44.38466666666665</v>
+        <v>-5286.443862389992</v>
       </c>
       <c r="H59" t="n">
-        <v>44.27933333333338</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,40 +2543,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="C60" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="D60" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="E60" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="F60" t="n">
-        <v>11.9317</v>
+        <v>4309.2627</v>
       </c>
       <c r="G60" t="n">
-        <v>44.42133333333332</v>
+        <v>-5286.443862389992</v>
       </c>
       <c r="H60" t="n">
-        <v>44.28583333333338</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,40 +2582,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="C61" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="D61" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="E61" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="F61" t="n">
-        <v>11376.4129</v>
+        <v>4672.0128</v>
       </c>
       <c r="G61" t="n">
-        <v>44.42199999999998</v>
+        <v>-5286.443862389992</v>
       </c>
       <c r="H61" t="n">
-        <v>44.29250000000005</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,40 +2621,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>44.78</v>
+        <v>44.08</v>
       </c>
       <c r="C62" t="n">
-        <v>44.78</v>
+        <v>44.08</v>
       </c>
       <c r="D62" t="n">
-        <v>44.78</v>
+        <v>44.08</v>
       </c>
       <c r="E62" t="n">
-        <v>44.78</v>
+        <v>44.08</v>
       </c>
       <c r="F62" t="n">
-        <v>21737.398</v>
+        <v>2682</v>
       </c>
       <c r="G62" t="n">
-        <v>44.42799999999998</v>
+        <v>-7968.443862389992</v>
       </c>
       <c r="H62" t="n">
-        <v>44.29883333333338</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,40 +2660,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>44.8</v>
+        <v>44.08</v>
       </c>
       <c r="C63" t="n">
-        <v>44.8</v>
+        <v>44.5</v>
       </c>
       <c r="D63" t="n">
-        <v>44.8</v>
+        <v>44.5</v>
       </c>
       <c r="E63" t="n">
-        <v>44.8</v>
+        <v>44.08</v>
       </c>
       <c r="F63" t="n">
-        <v>11.9925</v>
+        <v>57897.9713</v>
       </c>
       <c r="G63" t="n">
-        <v>44.45799999999997</v>
+        <v>49929.52743761001</v>
       </c>
       <c r="H63" t="n">
-        <v>44.30550000000005</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,40 +2699,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="C64" t="n">
-        <v>44.8</v>
+        <v>44.43</v>
       </c>
       <c r="D64" t="n">
-        <v>44.8</v>
+        <v>44.52</v>
       </c>
       <c r="E64" t="n">
-        <v>44.8</v>
+        <v>43.8</v>
       </c>
       <c r="F64" t="n">
-        <v>2564.3488</v>
+        <v>29178.8638</v>
       </c>
       <c r="G64" t="n">
-        <v>44.47799999999997</v>
+        <v>20750.66363761001</v>
       </c>
       <c r="H64" t="n">
-        <v>44.31183333333339</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3006,40 +2738,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>44.8</v>
+        <v>44.43</v>
       </c>
       <c r="C65" t="n">
-        <v>44.83</v>
+        <v>44.13</v>
       </c>
       <c r="D65" t="n">
-        <v>44.83</v>
+        <v>44.53</v>
       </c>
       <c r="E65" t="n">
-        <v>44.8</v>
+        <v>44.13</v>
       </c>
       <c r="F65" t="n">
-        <v>12.1356</v>
+        <v>3934.7786</v>
       </c>
       <c r="G65" t="n">
-        <v>44.50999999999997</v>
+        <v>16815.88503761001</v>
       </c>
       <c r="H65" t="n">
-        <v>44.31733333333339</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,40 +2777,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>44.83</v>
+        <v>44.1</v>
       </c>
       <c r="C66" t="n">
-        <v>44.84</v>
+        <v>44.55</v>
       </c>
       <c r="D66" t="n">
-        <v>44.84</v>
+        <v>44.55</v>
       </c>
       <c r="E66" t="n">
-        <v>44.83</v>
+        <v>44.1</v>
       </c>
       <c r="F66" t="n">
-        <v>1267.4686</v>
+        <v>3247.161</v>
       </c>
       <c r="G66" t="n">
-        <v>44.5493333333333</v>
+        <v>20063.04603761001</v>
       </c>
       <c r="H66" t="n">
-        <v>44.32500000000005</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,40 +2816,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>44.84</v>
+        <v>44.55</v>
       </c>
       <c r="C67" t="n">
-        <v>44.85</v>
+        <v>44.55</v>
       </c>
       <c r="D67" t="n">
-        <v>44.85</v>
+        <v>44.55</v>
       </c>
       <c r="E67" t="n">
-        <v>44.84</v>
+        <v>44.55</v>
       </c>
       <c r="F67" t="n">
-        <v>2810.1696</v>
+        <v>1394.6624</v>
       </c>
       <c r="G67" t="n">
-        <v>44.60466666666664</v>
+        <v>20063.04603761001</v>
       </c>
       <c r="H67" t="n">
-        <v>44.33283333333338</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3132,40 +2855,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>44.85</v>
+        <v>44.27</v>
       </c>
       <c r="C68" t="n">
-        <v>44.93</v>
+        <v>44.27</v>
       </c>
       <c r="D68" t="n">
-        <v>44.93</v>
+        <v>44.27</v>
       </c>
       <c r="E68" t="n">
-        <v>44.85</v>
+        <v>44.27</v>
       </c>
       <c r="F68" t="n">
-        <v>2277.2789</v>
+        <v>950.7661000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>44.6653333333333</v>
+        <v>19112.27993761</v>
       </c>
       <c r="H68" t="n">
-        <v>44.34566666666672</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,40 +2894,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>44.93</v>
+        <v>44.55</v>
       </c>
       <c r="C69" t="n">
-        <v>44.85</v>
+        <v>44.57</v>
       </c>
       <c r="D69" t="n">
-        <v>44.93</v>
+        <v>44.57</v>
       </c>
       <c r="E69" t="n">
-        <v>44.85</v>
+        <v>44.55</v>
       </c>
       <c r="F69" t="n">
-        <v>959.809</v>
+        <v>1246.3739</v>
       </c>
       <c r="G69" t="n">
-        <v>44.72066666666664</v>
+        <v>20358.65383761</v>
       </c>
       <c r="H69" t="n">
-        <v>44.35716666666671</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,40 +2933,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>44.94</v>
+        <v>44.14</v>
       </c>
       <c r="C70" t="n">
-        <v>44.94</v>
+        <v>44.57</v>
       </c>
       <c r="D70" t="n">
-        <v>44.94</v>
+        <v>44.57</v>
       </c>
       <c r="E70" t="n">
-        <v>44.94</v>
+        <v>44.14</v>
       </c>
       <c r="F70" t="n">
-        <v>11.9021</v>
+        <v>1339.2467</v>
       </c>
       <c r="G70" t="n">
-        <v>44.75999999999997</v>
+        <v>20358.65383761</v>
       </c>
       <c r="H70" t="n">
-        <v>44.36650000000005</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,40 +2972,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>44.85</v>
+        <v>44.57</v>
       </c>
       <c r="C71" t="n">
-        <v>44.85</v>
+        <v>44.7</v>
       </c>
       <c r="D71" t="n">
-        <v>44.85</v>
+        <v>44.7</v>
       </c>
       <c r="E71" t="n">
-        <v>44.85</v>
+        <v>44.57</v>
       </c>
       <c r="F71" t="n">
-        <v>20631.1884</v>
+        <v>121761.8574</v>
       </c>
       <c r="G71" t="n">
-        <v>44.79599999999997</v>
+        <v>142120.51123761</v>
       </c>
       <c r="H71" t="n">
-        <v>44.37800000000005</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,40 +3011,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>44.93</v>
+        <v>44.56</v>
       </c>
       <c r="C72" t="n">
-        <v>44.93</v>
+        <v>44.56</v>
       </c>
       <c r="D72" t="n">
-        <v>44.93</v>
+        <v>44.56</v>
       </c>
       <c r="E72" t="n">
-        <v>44.93</v>
+        <v>44.56</v>
       </c>
       <c r="F72" t="n">
-        <v>11.927</v>
+        <v>459</v>
       </c>
       <c r="G72" t="n">
-        <v>44.81866666666664</v>
+        <v>141661.51123761</v>
       </c>
       <c r="H72" t="n">
-        <v>44.38716666666672</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,7 +3050,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>44.78</v>
+        <v>44.7</v>
       </c>
       <c r="C73" t="n">
         <v>44.78</v>
@@ -3351,31 +3059,28 @@
         <v>44.78</v>
       </c>
       <c r="E73" t="n">
-        <v>44.78</v>
+        <v>44.7</v>
       </c>
       <c r="F73" t="n">
-        <v>11878.1474</v>
+        <v>12.5576</v>
       </c>
       <c r="G73" t="n">
-        <v>44.8313333333333</v>
+        <v>141674.06883761</v>
       </c>
       <c r="H73" t="n">
-        <v>44.39383333333338</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,40 +3089,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>44.67</v>
+        <v>44.78</v>
       </c>
       <c r="C74" t="n">
-        <v>44.67</v>
+        <v>44.24</v>
       </c>
       <c r="D74" t="n">
-        <v>44.67</v>
+        <v>44.78</v>
       </c>
       <c r="E74" t="n">
-        <v>44.67</v>
+        <v>44.24</v>
       </c>
       <c r="F74" t="n">
-        <v>500</v>
+        <v>7100</v>
       </c>
       <c r="G74" t="n">
-        <v>44.82933333333329</v>
+        <v>134574.06883761</v>
       </c>
       <c r="H74" t="n">
-        <v>44.39733333333338</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,40 +3128,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>44.67</v>
+        <v>44.79</v>
       </c>
       <c r="C75" t="n">
-        <v>44.82</v>
+        <v>44.79</v>
       </c>
       <c r="D75" t="n">
-        <v>44.82</v>
+        <v>44.79</v>
       </c>
       <c r="E75" t="n">
-        <v>44.6</v>
+        <v>44.79</v>
       </c>
       <c r="F75" t="n">
-        <v>967.9571999999999</v>
+        <v>124.02321946</v>
       </c>
       <c r="G75" t="n">
-        <v>44.8313333333333</v>
+        <v>134698.09205707</v>
       </c>
       <c r="H75" t="n">
-        <v>44.40466666666671</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,40 +3167,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>44.6</v>
+        <v>44.66</v>
       </c>
       <c r="C76" t="n">
-        <v>44.6</v>
+        <v>44.69</v>
       </c>
       <c r="D76" t="n">
-        <v>44.6</v>
+        <v>44.69</v>
       </c>
       <c r="E76" t="n">
-        <v>44.6</v>
+        <v>44.66</v>
       </c>
       <c r="F76" t="n">
-        <v>894.5414</v>
+        <v>3348.0854</v>
       </c>
       <c r="G76" t="n">
-        <v>44.81799999999997</v>
+        <v>131350.00665707</v>
       </c>
       <c r="H76" t="n">
-        <v>44.40833333333338</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,40 +3206,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="C77" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="D77" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="E77" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="F77" t="n">
-        <v>38716</v>
+        <v>336</v>
       </c>
       <c r="G77" t="n">
-        <v>44.7993333333333</v>
+        <v>131014.00665707</v>
       </c>
       <c r="H77" t="n">
-        <v>44.41416666666671</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,28 +3257,25 @@
         <v>44.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1419</v>
+        <v>12.6082</v>
       </c>
       <c r="G78" t="n">
-        <v>44.77933333333331</v>
+        <v>131026.61485707</v>
       </c>
       <c r="H78" t="n">
-        <v>44.42250000000004</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,40 +3284,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="C79" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="D79" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="E79" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="F79" t="n">
-        <v>2282</v>
+        <v>0.3462</v>
       </c>
       <c r="G79" t="n">
-        <v>44.75933333333331</v>
+        <v>131026.26865707</v>
       </c>
       <c r="H79" t="n">
-        <v>44.42483333333337</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,40 +3323,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>44.5</v>
+        <v>43.95</v>
       </c>
       <c r="C80" t="n">
-        <v>44.5</v>
+        <v>44.25</v>
       </c>
       <c r="D80" t="n">
-        <v>44.5</v>
+        <v>44.25</v>
       </c>
       <c r="E80" t="n">
-        <v>44.5</v>
+        <v>43.7</v>
       </c>
       <c r="F80" t="n">
-        <v>3630</v>
+        <v>53108.3032</v>
       </c>
       <c r="G80" t="n">
-        <v>44.7373333333333</v>
+        <v>77917.96545706998</v>
       </c>
       <c r="H80" t="n">
-        <v>44.43983333333338</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,40 +3362,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44.82</v>
+        <v>44.02</v>
       </c>
       <c r="C81" t="n">
-        <v>44.83</v>
+        <v>44.02</v>
       </c>
       <c r="D81" t="n">
-        <v>44.83</v>
+        <v>44.02</v>
       </c>
       <c r="E81" t="n">
-        <v>44.82</v>
+        <v>44.02</v>
       </c>
       <c r="F81" t="n">
-        <v>2500</v>
+        <v>251.002</v>
       </c>
       <c r="G81" t="n">
-        <v>44.73666666666664</v>
+        <v>77666.96345706999</v>
       </c>
       <c r="H81" t="n">
-        <v>44.46133333333338</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,40 +3401,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>44.5</v>
+        <v>44.02</v>
       </c>
       <c r="C82" t="n">
-        <v>44.5</v>
+        <v>44.02</v>
       </c>
       <c r="D82" t="n">
-        <v>44.5</v>
+        <v>44.02</v>
       </c>
       <c r="E82" t="n">
-        <v>44.5</v>
+        <v>44.02</v>
       </c>
       <c r="F82" t="n">
-        <v>41556.3142</v>
+        <v>687.2061</v>
       </c>
       <c r="G82" t="n">
-        <v>44.7133333333333</v>
+        <v>77666.96345706999</v>
       </c>
       <c r="H82" t="n">
-        <v>44.47750000000004</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,40 +3440,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>44.85</v>
+        <v>44.02</v>
       </c>
       <c r="C83" t="n">
-        <v>44.85</v>
+        <v>44.02</v>
       </c>
       <c r="D83" t="n">
-        <v>44.85</v>
+        <v>44.02</v>
       </c>
       <c r="E83" t="n">
-        <v>44.85</v>
+        <v>44.02</v>
       </c>
       <c r="F83" t="n">
-        <v>11.7425</v>
+        <v>64.3986</v>
       </c>
       <c r="G83" t="n">
-        <v>44.70799999999998</v>
+        <v>77666.96345706999</v>
       </c>
       <c r="H83" t="n">
-        <v>44.49950000000003</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,40 +3479,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>44.85</v>
+        <v>44.11</v>
       </c>
       <c r="C84" t="n">
-        <v>44.85</v>
+        <v>44.35</v>
       </c>
       <c r="D84" t="n">
-        <v>44.85</v>
+        <v>44.35</v>
       </c>
       <c r="E84" t="n">
-        <v>44.85</v>
+        <v>44.11</v>
       </c>
       <c r="F84" t="n">
-        <v>784.2586</v>
+        <v>36.3652</v>
       </c>
       <c r="G84" t="n">
-        <v>44.70799999999998</v>
+        <v>77703.32865706999</v>
       </c>
       <c r="H84" t="n">
-        <v>44.51200000000004</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,40 +3518,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44.9</v>
+        <v>44.11</v>
       </c>
       <c r="C85" t="n">
-        <v>44.9</v>
+        <v>44.31</v>
       </c>
       <c r="D85" t="n">
-        <v>44.9</v>
+        <v>44.31</v>
       </c>
       <c r="E85" t="n">
-        <v>44.9</v>
+        <v>43.91</v>
       </c>
       <c r="F85" t="n">
-        <v>11.9349</v>
+        <v>6617.3785</v>
       </c>
       <c r="G85" t="n">
-        <v>44.70533333333331</v>
+        <v>71085.95015706998</v>
       </c>
       <c r="H85" t="n">
-        <v>44.5351666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,40 +3557,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44.85</v>
+        <v>44.35</v>
       </c>
       <c r="C86" t="n">
-        <v>44.8</v>
+        <v>44.59</v>
       </c>
       <c r="D86" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="E86" t="n">
-        <v>44.8</v>
+        <v>44.35</v>
       </c>
       <c r="F86" t="n">
-        <v>4479.7733</v>
+        <v>2268.7024</v>
       </c>
       <c r="G86" t="n">
-        <v>44.70199999999998</v>
+        <v>73354.65255706997</v>
       </c>
       <c r="H86" t="n">
-        <v>44.54883333333337</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,40 +3596,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="C87" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="D87" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="E87" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="F87" t="n">
-        <v>11.1456</v>
+        <v>500</v>
       </c>
       <c r="G87" t="n">
-        <v>44.69999999999997</v>
+        <v>73354.65255706997</v>
       </c>
       <c r="H87" t="n">
-        <v>44.56250000000004</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,40 +3635,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>44.89</v>
+        <v>44.7</v>
       </c>
       <c r="C88" t="n">
-        <v>44.98</v>
+        <v>44.7</v>
       </c>
       <c r="D88" t="n">
-        <v>44.98</v>
+        <v>44.7</v>
       </c>
       <c r="E88" t="n">
-        <v>44.89</v>
+        <v>44.7</v>
       </c>
       <c r="F88" t="n">
-        <v>26466.7949</v>
+        <v>945.3964</v>
       </c>
       <c r="G88" t="n">
-        <v>44.71333333333332</v>
+        <v>74300.04895706997</v>
       </c>
       <c r="H88" t="n">
-        <v>44.57716666666671</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,40 +3674,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>44.98</v>
+        <v>44.7</v>
       </c>
       <c r="C89" t="n">
-        <v>44.98</v>
+        <v>44.79</v>
       </c>
       <c r="D89" t="n">
-        <v>44.98</v>
+        <v>44.79</v>
       </c>
       <c r="E89" t="n">
-        <v>44.98</v>
+        <v>44.7</v>
       </c>
       <c r="F89" t="n">
-        <v>266.1677</v>
+        <v>11.9317</v>
       </c>
       <c r="G89" t="n">
-        <v>44.73399999999999</v>
+        <v>74311.98065706997</v>
       </c>
       <c r="H89" t="n">
-        <v>44.59183333333338</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,40 +3713,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>44.98</v>
+        <v>44.79</v>
       </c>
       <c r="C90" t="n">
-        <v>44.98</v>
+        <v>44.8</v>
       </c>
       <c r="D90" t="n">
-        <v>44.98</v>
+        <v>44.8</v>
       </c>
       <c r="E90" t="n">
-        <v>44.98</v>
+        <v>44.79</v>
       </c>
       <c r="F90" t="n">
-        <v>3399</v>
+        <v>11376.4129</v>
       </c>
       <c r="G90" t="n">
-        <v>44.74466666666665</v>
+        <v>85688.39355706997</v>
       </c>
       <c r="H90" t="n">
-        <v>44.60483333333338</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,40 +3752,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>44.99</v>
+        <v>44.78</v>
       </c>
       <c r="C91" t="n">
-        <v>45</v>
+        <v>44.78</v>
       </c>
       <c r="D91" t="n">
-        <v>45</v>
+        <v>44.78</v>
       </c>
       <c r="E91" t="n">
-        <v>44.99</v>
+        <v>44.78</v>
       </c>
       <c r="F91" t="n">
-        <v>174638.3288</v>
+        <v>21737.398</v>
       </c>
       <c r="G91" t="n">
-        <v>44.77133333333332</v>
+        <v>63950.99555706997</v>
       </c>
       <c r="H91" t="n">
-        <v>44.61816666666672</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,76 +3791,76 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="C92" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="D92" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="E92" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="F92" t="n">
-        <v>2619.9998</v>
+        <v>11.9925</v>
       </c>
       <c r="G92" t="n">
-        <v>44.80466666666665</v>
+        <v>63962.98805706997</v>
       </c>
       <c r="H92" t="n">
-        <v>44.63150000000005</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>45.02</v>
+        <v>44.8</v>
       </c>
       <c r="C93" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="D93" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="E93" t="n">
-        <v>45.02</v>
+        <v>44.8</v>
       </c>
       <c r="F93" t="n">
-        <v>40.853</v>
+        <v>2564.3488</v>
       </c>
       <c r="G93" t="n">
-        <v>44.84466666666665</v>
+        <v>63962.98805706997</v>
       </c>
       <c r="H93" t="n">
-        <v>44.64850000000005</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,36 +3869,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="C94" t="n">
-        <v>45.13</v>
+        <v>44.83</v>
       </c>
       <c r="D94" t="n">
-        <v>45.13</v>
+        <v>44.83</v>
       </c>
       <c r="E94" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="F94" t="n">
-        <v>15.5719</v>
+        <v>12.1356</v>
       </c>
       <c r="G94" t="n">
-        <v>44.88666666666665</v>
+        <v>63975.12365706997</v>
       </c>
       <c r="H94" t="n">
-        <v>44.65900000000006</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,36 +3908,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>45.12</v>
+        <v>44.83</v>
       </c>
       <c r="C95" t="n">
-        <v>45.12</v>
+        <v>44.84</v>
       </c>
       <c r="D95" t="n">
-        <v>45.12</v>
+        <v>44.84</v>
       </c>
       <c r="E95" t="n">
-        <v>45.12</v>
+        <v>44.83</v>
       </c>
       <c r="F95" t="n">
-        <v>39.0576</v>
+        <v>1267.4686</v>
       </c>
       <c r="G95" t="n">
-        <v>44.92799999999998</v>
+        <v>65242.59225706997</v>
       </c>
       <c r="H95" t="n">
-        <v>44.67050000000005</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,36 +3947,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>45.12</v>
+        <v>44.84</v>
       </c>
       <c r="C96" t="n">
-        <v>45.12</v>
+        <v>44.85</v>
       </c>
       <c r="D96" t="n">
-        <v>45.12</v>
+        <v>44.85</v>
       </c>
       <c r="E96" t="n">
-        <v>45.12</v>
+        <v>44.84</v>
       </c>
       <c r="F96" t="n">
-        <v>512.811</v>
+        <v>2810.1696</v>
       </c>
       <c r="G96" t="n">
-        <v>44.94733333333331</v>
+        <v>68052.76185706997</v>
       </c>
       <c r="H96" t="n">
-        <v>44.68700000000005</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,36 +3986,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>45.12</v>
+        <v>44.85</v>
       </c>
       <c r="C97" t="n">
-        <v>45.08</v>
+        <v>44.93</v>
       </c>
       <c r="D97" t="n">
-        <v>45.12</v>
+        <v>44.93</v>
       </c>
       <c r="E97" t="n">
-        <v>45.08</v>
+        <v>44.85</v>
       </c>
       <c r="F97" t="n">
-        <v>1178.1314</v>
+        <v>2277.2789</v>
       </c>
       <c r="G97" t="n">
-        <v>44.98599999999998</v>
+        <v>70330.04075706998</v>
       </c>
       <c r="H97" t="n">
-        <v>44.69583333333338</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,36 +4025,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="C98" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="D98" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="E98" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="F98" t="n">
-        <v>486.4483</v>
+        <v>959.809</v>
       </c>
       <c r="G98" t="n">
-        <v>45.00466666666664</v>
+        <v>69370.23175706998</v>
       </c>
       <c r="H98" t="n">
-        <v>44.70550000000004</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,36 +4064,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>45.08</v>
+        <v>44.94</v>
       </c>
       <c r="C99" t="n">
-        <v>45.13</v>
+        <v>44.94</v>
       </c>
       <c r="D99" t="n">
-        <v>45.13</v>
+        <v>44.94</v>
       </c>
       <c r="E99" t="n">
-        <v>45.08</v>
+        <v>44.94</v>
       </c>
       <c r="F99" t="n">
-        <v>1089.7423</v>
+        <v>11.9021</v>
       </c>
       <c r="G99" t="n">
-        <v>45.02333333333331</v>
+        <v>69382.13385706999</v>
       </c>
       <c r="H99" t="n">
-        <v>44.71983333333338</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,36 +4103,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="C100" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="D100" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="E100" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="F100" t="n">
-        <v>264.8308</v>
+        <v>20631.1884</v>
       </c>
       <c r="G100" t="n">
-        <v>45.03866666666665</v>
+        <v>48750.94545706999</v>
       </c>
       <c r="H100" t="n">
-        <v>44.72916666666671</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,36 +4142,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="C101" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="D101" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="E101" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="F101" t="n">
-        <v>78.0718</v>
+        <v>11.927</v>
       </c>
       <c r="G101" t="n">
-        <v>45.06066666666665</v>
+        <v>48762.87245706999</v>
       </c>
       <c r="H101" t="n">
-        <v>44.73850000000004</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,36 +4181,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>45</v>
+        <v>44.78</v>
       </c>
       <c r="C102" t="n">
-        <v>44.98</v>
+        <v>44.78</v>
       </c>
       <c r="D102" t="n">
-        <v>45</v>
+        <v>44.78</v>
       </c>
       <c r="E102" t="n">
-        <v>44.98</v>
+        <v>44.78</v>
       </c>
       <c r="F102" t="n">
-        <v>15500</v>
+        <v>11878.1474</v>
       </c>
       <c r="G102" t="n">
-        <v>45.06599999999999</v>
+        <v>36884.72505706999</v>
       </c>
       <c r="H102" t="n">
-        <v>44.74316666666672</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,36 +4220,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>45.12</v>
+        <v>44.67</v>
       </c>
       <c r="C103" t="n">
-        <v>45.12</v>
+        <v>44.67</v>
       </c>
       <c r="D103" t="n">
-        <v>45.12</v>
+        <v>44.67</v>
       </c>
       <c r="E103" t="n">
-        <v>45.12</v>
+        <v>44.67</v>
       </c>
       <c r="F103" t="n">
-        <v>74.1846</v>
+        <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>45.07533333333332</v>
+        <v>36384.72505706999</v>
       </c>
       <c r="H103" t="n">
-        <v>44.75250000000005</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,36 +4259,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>44.98</v>
+        <v>44.67</v>
       </c>
       <c r="C104" t="n">
-        <v>44.98</v>
+        <v>44.82</v>
       </c>
       <c r="D104" t="n">
-        <v>44.98</v>
+        <v>44.82</v>
       </c>
       <c r="E104" t="n">
-        <v>44.98</v>
+        <v>44.6</v>
       </c>
       <c r="F104" t="n">
-        <v>3409.9999</v>
+        <v>967.9571999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>45.07533333333332</v>
+        <v>37352.68225706999</v>
       </c>
       <c r="H104" t="n">
-        <v>44.75583333333338</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,36 +4298,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>45.12</v>
+        <v>44.6</v>
       </c>
       <c r="C105" t="n">
-        <v>45.12</v>
+        <v>44.6</v>
       </c>
       <c r="D105" t="n">
-        <v>45.12</v>
+        <v>44.6</v>
       </c>
       <c r="E105" t="n">
-        <v>45.12</v>
+        <v>44.6</v>
       </c>
       <c r="F105" t="n">
-        <v>60.2073</v>
+        <v>894.5414</v>
       </c>
       <c r="G105" t="n">
-        <v>45.08466666666665</v>
+        <v>36458.14085706999</v>
       </c>
       <c r="H105" t="n">
-        <v>44.77050000000005</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,36 +4337,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="C106" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="D106" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="E106" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="F106" t="n">
-        <v>57.197</v>
+        <v>38716</v>
       </c>
       <c r="G106" t="n">
-        <v>45.09266666666665</v>
+        <v>-2257.859142930014</v>
       </c>
       <c r="H106" t="n">
-        <v>44.77600000000005</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,36 +4376,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="C107" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="D107" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="E107" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="F107" t="n">
-        <v>382.5957</v>
+        <v>1419</v>
       </c>
       <c r="G107" t="n">
-        <v>45.10066666666665</v>
+        <v>-2257.859142930014</v>
       </c>
       <c r="H107" t="n">
-        <v>44.78316666666671</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,36 +4415,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="C108" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="D108" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="E108" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="F108" t="n">
-        <v>33</v>
+        <v>2282</v>
       </c>
       <c r="G108" t="n">
-        <v>45.10199999999998</v>
+        <v>-2257.859142930014</v>
       </c>
       <c r="H108" t="n">
-        <v>44.79600000000004</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,36 +4454,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="C109" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="D109" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="E109" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="F109" t="n">
-        <v>2215.82096166</v>
+        <v>3630</v>
       </c>
       <c r="G109" t="n">
-        <v>45.10199999999998</v>
+        <v>-2257.859142930014</v>
       </c>
       <c r="H109" t="n">
-        <v>44.80650000000004</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,36 +4493,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>45.12</v>
+        <v>44.82</v>
       </c>
       <c r="C110" t="n">
-        <v>45.12</v>
+        <v>44.83</v>
       </c>
       <c r="D110" t="n">
-        <v>45.12</v>
+        <v>44.83</v>
       </c>
       <c r="E110" t="n">
-        <v>45.12</v>
+        <v>44.82</v>
       </c>
       <c r="F110" t="n">
-        <v>2411</v>
+        <v>2500</v>
       </c>
       <c r="G110" t="n">
-        <v>45.10199999999998</v>
+        <v>242.1408570699859</v>
       </c>
       <c r="H110" t="n">
-        <v>44.81933333333338</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,36 +4532,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="C111" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="D111" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="E111" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="F111" t="n">
-        <v>54.3251</v>
+        <v>41556.3142</v>
       </c>
       <c r="G111" t="n">
-        <v>45.10266666666665</v>
+        <v>-41314.17334293001</v>
       </c>
       <c r="H111" t="n">
-        <v>44.83400000000005</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,36 +4571,1118 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="C112" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="D112" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="E112" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11.7425</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-41302.43084293001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="C113" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="D113" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="E113" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="F113" t="n">
+        <v>784.2586</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-41302.43084293001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F114" t="n">
+        <v>11.9349</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-41290.49594293001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="C115" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4479.7733</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-45770.26924293002</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>11.1456</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-45759.12364293001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="C117" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D117" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E117" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="F117" t="n">
+        <v>26466.7949</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-19292.32874293001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="C118" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D118" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E118" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F118" t="n">
+        <v>266.1677</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-19292.32874293001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="C119" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D119" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E119" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3399</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-19292.32874293001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="C120" t="n">
+        <v>45</v>
+      </c>
+      <c r="D120" t="n">
+        <v>45</v>
+      </c>
+      <c r="E120" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="F120" t="n">
+        <v>174638.3288</v>
+      </c>
+      <c r="G120" t="n">
+        <v>155346.00005707</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>45</v>
+      </c>
+      <c r="C121" t="n">
+        <v>45</v>
+      </c>
+      <c r="D121" t="n">
+        <v>45</v>
+      </c>
+      <c r="E121" t="n">
+        <v>45</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2619.9998</v>
+      </c>
+      <c r="G121" t="n">
+        <v>155346.00005707</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="C122" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="F122" t="n">
+        <v>40.853</v>
+      </c>
+      <c r="G122" t="n">
+        <v>155386.85305707</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C123" t="n">
         <v>45.13</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D123" t="n">
         <v>45.13</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E123" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15.5719</v>
+      </c>
+      <c r="G123" t="n">
+        <v>155402.42495707</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C124" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D124" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E124" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F124" t="n">
+        <v>39.0576</v>
+      </c>
+      <c r="G124" t="n">
+        <v>155363.36735707</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C125" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D125" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E125" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F125" t="n">
+        <v>512.811</v>
+      </c>
+      <c r="G125" t="n">
+        <v>155363.36735707</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C126" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="D126" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E126" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1178.1314</v>
+      </c>
+      <c r="G126" t="n">
+        <v>154185.23595707</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>45.13</v>
       </c>
-      <c r="E112" t="n">
+      <c r="C127" t="n">
         <v>45.13</v>
       </c>
-      <c r="F112" t="n">
+      <c r="D127" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E127" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F127" t="n">
+        <v>486.4483</v>
+      </c>
+      <c r="G127" t="n">
+        <v>154671.68425707</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="C128" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D128" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E128" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1089.7423</v>
+      </c>
+      <c r="G128" t="n">
+        <v>154671.68425707</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C129" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D129" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E129" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>264.8308</v>
+      </c>
+      <c r="G129" t="n">
+        <v>154671.68425707</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C130" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D130" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E130" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F130" t="n">
+        <v>78.0718</v>
+      </c>
+      <c r="G130" t="n">
+        <v>154671.68425707</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>45</v>
+      </c>
+      <c r="C131" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D131" t="n">
+        <v>45</v>
+      </c>
+      <c r="E131" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G131" t="n">
+        <v>139171.68425707</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C132" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D132" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E132" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F132" t="n">
+        <v>74.1846</v>
+      </c>
+      <c r="G132" t="n">
+        <v>139245.86885707</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="C133" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D133" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E133" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3409.9999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>135835.86895707</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C134" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D134" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E134" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F134" t="n">
+        <v>60.2073</v>
+      </c>
+      <c r="G134" t="n">
+        <v>135896.07625707</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C135" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D135" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E135" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F135" t="n">
+        <v>57.197</v>
+      </c>
+      <c r="G135" t="n">
+        <v>135896.07625707</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C136" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D136" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E136" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F136" t="n">
+        <v>382.5957</v>
+      </c>
+      <c r="G136" t="n">
+        <v>135896.07625707</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C137" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D137" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E137" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F137" t="n">
+        <v>33</v>
+      </c>
+      <c r="G137" t="n">
+        <v>135896.07625707</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C138" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D138" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E138" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2215.82096166</v>
+      </c>
+      <c r="G138" t="n">
+        <v>138111.89721873</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C139" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D139" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E139" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2411</v>
+      </c>
+      <c r="G139" t="n">
+        <v>135700.89721873</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C140" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D140" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E140" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F140" t="n">
+        <v>54.3251</v>
+      </c>
+      <c r="G140" t="n">
+        <v>135755.22231873</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C141" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D141" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E141" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F141" t="n">
         <v>1208.54768083</v>
       </c>
-      <c r="G112" t="n">
-        <v>45.10599999999998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>44.85250000000005</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="G141" t="n">
+        <v>135755.22231873</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1131,6 +1155,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1174,6 +1199,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1217,6 +1243,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1256,6 +1283,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1299,6 +1327,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,6 +1371,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1377,6 +1407,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,6 +1443,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1447,6 +1479,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1482,6 +1515,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1517,6 +1551,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1552,6 +1587,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1587,6 +1623,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1622,6 +1659,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1657,6 +1695,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1692,6 +1731,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1727,6 +1767,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1762,6 +1803,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1797,6 +1839,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1832,6 +1875,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1867,6 +1911,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1902,6 +1947,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1937,6 +1983,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1972,6 +2019,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2007,6 +2055,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,6 +2091,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2077,6 +2127,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,6 +2163,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2147,6 +2199,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2182,6 +2235,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2217,6 +2271,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,6 +2313,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2299,6 +2355,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2338,6 +2395,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2377,6 +2435,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,6 +2477,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2457,6 +2517,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2498,6 +2559,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2537,6 +2599,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2576,6 +2639,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2615,6 +2679,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2654,6 +2719,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2693,6 +2759,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2732,6 +2799,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2771,6 +2839,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2810,6 +2879,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2849,6 +2919,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2888,6 +2959,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2927,6 +2999,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2966,6 +3039,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3005,6 +3079,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3044,6 +3119,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3083,6 +3159,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3122,6 +3199,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3161,6 +3239,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3200,6 +3279,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3239,6 +3319,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3278,6 +3359,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3317,6 +3399,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3356,6 +3439,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3395,6 +3479,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3434,6 +3519,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3473,6 +3559,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3512,6 +3599,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3551,6 +3639,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3590,6 +3679,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3629,6 +3719,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3656,17 +3747,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>1.024165707710011</v>
       </c>
     </row>
     <row r="89">
@@ -3695,18 +3787,15 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3734,18 +3823,15 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3773,18 +3859,15 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3812,18 +3895,15 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3851,18 +3931,15 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3890,18 +3967,15 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3929,18 +4003,15 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3968,18 +4039,15 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4007,18 +4075,15 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4046,18 +4111,15 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4085,18 +4147,15 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4124,18 +4183,15 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4163,18 +4219,15 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4202,18 +4255,15 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4241,18 +4291,15 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4280,18 +4327,15 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4319,18 +4363,15 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4358,18 +4399,15 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4401,14 +4439,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4440,14 +4475,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4479,14 +4511,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4518,14 +4547,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4557,14 +4583,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4596,14 +4619,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4635,14 +4655,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4674,14 +4691,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4713,14 +4727,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4752,14 +4763,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4791,14 +4799,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4830,14 +4835,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4869,14 +4871,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4908,14 +4907,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4943,18 +4939,15 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4982,18 +4975,15 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5021,18 +5011,15 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5064,14 +5051,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5099,18 +5083,15 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5138,18 +5119,15 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5177,18 +5155,15 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5216,18 +5191,15 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5259,12 +5231,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5300,6 +5271,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5335,6 +5307,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5370,6 +5343,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5405,6 +5379,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5440,6 +5415,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5475,6 +5451,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5510,6 +5487,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5545,6 +5523,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5580,6 +5559,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5615,6 +5595,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5650,6 +5631,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5685,6 +5667,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>43.49</v>
+        <v>42.87</v>
       </c>
       <c r="C2" t="n">
-        <v>43.8</v>
+        <v>42.87</v>
       </c>
       <c r="D2" t="n">
-        <v>43.8</v>
+        <v>42.87</v>
       </c>
       <c r="E2" t="n">
-        <v>43.49</v>
+        <v>42.87</v>
       </c>
       <c r="F2" t="n">
-        <v>49744</v>
+        <v>32328.588</v>
       </c>
       <c r="G2" t="n">
-        <v>-87375.78249777999</v>
+        <v>-152761.55760793</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>43.8</v>
+        <v>42.87</v>
       </c>
       <c r="C3" t="n">
-        <v>43.8</v>
+        <v>42.87</v>
       </c>
       <c r="D3" t="n">
-        <v>43.8</v>
+        <v>42.88</v>
       </c>
       <c r="E3" t="n">
-        <v>43.8</v>
+        <v>42.87</v>
       </c>
       <c r="F3" t="n">
-        <v>2476.1494</v>
+        <v>4200</v>
       </c>
       <c r="G3" t="n">
-        <v>-87375.78249777999</v>
+        <v>-152761.55760793</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>42.87</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43.5</v>
+        <v>42.99</v>
       </c>
       <c r="C4" t="n">
-        <v>43.6</v>
+        <v>43.26</v>
       </c>
       <c r="D4" t="n">
-        <v>43.99</v>
+        <v>43.26</v>
       </c>
       <c r="E4" t="n">
-        <v>43.5</v>
+        <v>42.91</v>
       </c>
       <c r="F4" t="n">
-        <v>12252.23378724</v>
+        <v>4443</v>
       </c>
       <c r="G4" t="n">
-        <v>-99628.01628501998</v>
+        <v>-148318.55760793</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>42.87</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43.89</v>
+        <v>42.96</v>
       </c>
       <c r="C5" t="n">
-        <v>43.99</v>
+        <v>42.9</v>
       </c>
       <c r="D5" t="n">
-        <v>43.99</v>
+        <v>42.97</v>
       </c>
       <c r="E5" t="n">
-        <v>43.89</v>
+        <v>42.9</v>
       </c>
       <c r="F5" t="n">
-        <v>6756.1204</v>
+        <v>19234.1318</v>
       </c>
       <c r="G5" t="n">
-        <v>-92871.89588501999</v>
+        <v>-167552.68940793</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>43.26</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>43.18</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>43.18</v>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>43.18</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43.18</v>
       </c>
       <c r="F6" t="n">
-        <v>2930</v>
+        <v>1176.0799</v>
       </c>
       <c r="G6" t="n">
-        <v>-89941.89588501999</v>
+        <v>-166376.60950793</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>42.9</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>43.2</v>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>43.27</v>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>43.27</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>43.2</v>
       </c>
       <c r="F7" t="n">
-        <v>482.3305</v>
+        <v>738.36542281</v>
       </c>
       <c r="G7" t="n">
-        <v>-89941.89588501999</v>
+        <v>-165638.24408512</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>43.18</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +684,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>43.27</v>
       </c>
       <c r="C8" t="n">
-        <v>44</v>
+        <v>43.27</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>43.27</v>
       </c>
       <c r="E8" t="n">
-        <v>43.99</v>
+        <v>43.27</v>
       </c>
       <c r="F8" t="n">
-        <v>25564.6568</v>
+        <v>244.3176</v>
       </c>
       <c r="G8" t="n">
-        <v>-89941.89588501999</v>
+        <v>-165638.24408512</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>43.27</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +726,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>43.27</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>43.26</v>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>43.27</v>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>43.25</v>
       </c>
       <c r="F9" t="n">
-        <v>14903.6188</v>
+        <v>7316.07002542</v>
       </c>
       <c r="G9" t="n">
-        <v>-89941.89588501999</v>
+        <v>-172954.31411054</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>43.27</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +768,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43.5</v>
+        <v>43.26</v>
       </c>
       <c r="C10" t="n">
-        <v>43.5</v>
+        <v>43.26</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5</v>
+        <v>43.26</v>
       </c>
       <c r="E10" t="n">
-        <v>43.45</v>
+        <v>43.26</v>
       </c>
       <c r="F10" t="n">
-        <v>3406.1414</v>
+        <v>3389</v>
       </c>
       <c r="G10" t="n">
-        <v>-93348.03728501998</v>
+        <v>-172954.31411054</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>43.26</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +810,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43.6</v>
+        <v>43.25</v>
       </c>
       <c r="C11" t="n">
-        <v>43.6</v>
+        <v>43.26</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6</v>
+        <v>43.26</v>
       </c>
       <c r="E11" t="n">
-        <v>43.6</v>
+        <v>43.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1310</v>
+        <v>1395</v>
       </c>
       <c r="G11" t="n">
-        <v>-92038.03728501998</v>
+        <v>-172954.31411054</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>43.26</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +852,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>43.6</v>
+        <v>43.27</v>
       </c>
       <c r="C12" t="n">
-        <v>43.6</v>
+        <v>43.27</v>
       </c>
       <c r="D12" t="n">
-        <v>43.6</v>
+        <v>43.27</v>
       </c>
       <c r="E12" t="n">
-        <v>43.6</v>
+        <v>43.27</v>
       </c>
       <c r="F12" t="n">
-        <v>550</v>
+        <v>4733</v>
       </c>
       <c r="G12" t="n">
-        <v>-92038.03728501998</v>
+        <v>-168221.31411054</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>43.26</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +894,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43.6</v>
+        <v>43.27</v>
       </c>
       <c r="C13" t="n">
-        <v>43.6</v>
+        <v>43.27</v>
       </c>
       <c r="D13" t="n">
-        <v>43.6</v>
+        <v>43.27</v>
       </c>
       <c r="E13" t="n">
-        <v>43.6</v>
+        <v>43.27</v>
       </c>
       <c r="F13" t="n">
-        <v>2668.168</v>
+        <v>2317.13045177</v>
       </c>
       <c r="G13" t="n">
-        <v>-92038.03728501998</v>
+        <v>-168221.31411054</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>43.27</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +936,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>43.6</v>
+        <v>43.35</v>
       </c>
       <c r="C14" t="n">
-        <v>43.6</v>
+        <v>43.35</v>
       </c>
       <c r="D14" t="n">
-        <v>43.6</v>
+        <v>43.35</v>
       </c>
       <c r="E14" t="n">
-        <v>43.6</v>
+        <v>43.35</v>
       </c>
       <c r="F14" t="n">
-        <v>2402.4</v>
+        <v>4282</v>
       </c>
       <c r="G14" t="n">
-        <v>-92038.03728501998</v>
+        <v>-163939.31411054</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>43.27</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +978,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>43.6</v>
+        <v>43.35</v>
       </c>
       <c r="C15" t="n">
-        <v>43.6</v>
+        <v>43.35</v>
       </c>
       <c r="D15" t="n">
-        <v>43.6</v>
+        <v>43.35</v>
       </c>
       <c r="E15" t="n">
-        <v>43.6</v>
+        <v>43.35</v>
       </c>
       <c r="F15" t="n">
-        <v>5744.3218</v>
+        <v>68827.1822</v>
       </c>
       <c r="G15" t="n">
-        <v>-92038.03728501998</v>
+        <v>-163939.31411054</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +1003,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1018,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>43.6</v>
+        <v>43.36</v>
       </c>
       <c r="C16" t="n">
-        <v>43.6</v>
+        <v>43.36</v>
       </c>
       <c r="D16" t="n">
-        <v>43.6</v>
+        <v>43.36</v>
       </c>
       <c r="E16" t="n">
-        <v>43.6</v>
+        <v>43.36</v>
       </c>
       <c r="F16" t="n">
-        <v>1427</v>
+        <v>7200</v>
       </c>
       <c r="G16" t="n">
-        <v>-92038.03728501998</v>
+        <v>-156739.31411054</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,7 +1043,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1058,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>43.6</v>
+        <v>43.36</v>
       </c>
       <c r="C17" t="n">
-        <v>43.5</v>
+        <v>43.36</v>
       </c>
       <c r="D17" t="n">
-        <v>43.6</v>
+        <v>43.36</v>
       </c>
       <c r="E17" t="n">
-        <v>43.5</v>
+        <v>43.36</v>
       </c>
       <c r="F17" t="n">
-        <v>23537.1709</v>
+        <v>1200</v>
       </c>
       <c r="G17" t="n">
-        <v>-115575.20818502</v>
+        <v>-156739.31411054</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1083,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1098,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>43.5</v>
+        <v>43.36</v>
       </c>
       <c r="C18" t="n">
-        <v>43.5</v>
+        <v>43.48</v>
       </c>
       <c r="D18" t="n">
-        <v>43.5</v>
+        <v>43.48</v>
       </c>
       <c r="E18" t="n">
-        <v>43.5</v>
+        <v>43.36</v>
       </c>
       <c r="F18" t="n">
-        <v>14424</v>
+        <v>26134.0978</v>
       </c>
       <c r="G18" t="n">
-        <v>-115575.20818502</v>
+        <v>-130605.21631054</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1123,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1138,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>43.53</v>
+        <v>43.4</v>
       </c>
       <c r="C19" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="D19" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="E19" t="n">
-        <v>43.53</v>
+        <v>43.4</v>
       </c>
       <c r="F19" t="n">
-        <v>6020</v>
+        <v>5848.2967</v>
       </c>
       <c r="G19" t="n">
-        <v>-109555.20818502</v>
+        <v>-136453.51301054</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1163,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1178,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="C20" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="D20" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="E20" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="F20" t="n">
-        <v>240.4648</v>
+        <v>9242.3524</v>
       </c>
       <c r="G20" t="n">
-        <v>-109795.67298502</v>
+        <v>-136453.51301054</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1203,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,36 +1218,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="C21" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="D21" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="E21" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="F21" t="n">
-        <v>1043.3129</v>
+        <v>64580.7211</v>
       </c>
       <c r="G21" t="n">
-        <v>-108752.36008502</v>
+        <v>-136453.51301054</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1162,38 +1258,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="C22" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="D22" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="E22" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="F22" t="n">
-        <v>624.3268</v>
+        <v>51640.65</v>
       </c>
       <c r="G22" t="n">
-        <v>-108752.36008502</v>
+        <v>-136453.51301054</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>43.6</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1206,38 +1298,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="C23" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="E23" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="F23" t="n">
-        <v>824.2472</v>
+        <v>108969.6922</v>
       </c>
       <c r="G23" t="n">
-        <v>-107928.11288502</v>
+        <v>-136453.51301054</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>43.6</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1250,36 +1338,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="C24" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="E24" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="F24" t="n">
-        <v>9130.8585</v>
+        <v>41545</v>
       </c>
       <c r="G24" t="n">
-        <v>-107928.11288502</v>
+        <v>-136453.51301054</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>44</v>
-      </c>
-      <c r="K24" t="n">
-        <v>44</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1290,38 +1378,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="D25" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="E25" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="F25" t="n">
-        <v>373.9803</v>
+        <v>803.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>-107928.11288502</v>
+        <v>-136453.51301054</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>44</v>
-      </c>
-      <c r="K25" t="n">
-        <v>44</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1334,38 +1418,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="C26" t="n">
-        <v>44</v>
+        <v>43.35</v>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="E26" t="n">
-        <v>44</v>
+        <v>43.35</v>
       </c>
       <c r="F26" t="n">
-        <v>2854.8231</v>
+        <v>794</v>
       </c>
       <c r="G26" t="n">
-        <v>-107928.11288502</v>
+        <v>-137247.51301054</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>44</v>
-      </c>
-      <c r="K26" t="n">
-        <v>44</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1378,22 +1458,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44.14</v>
+        <v>43.35</v>
       </c>
       <c r="C27" t="n">
-        <v>44.14</v>
+        <v>43.35</v>
       </c>
       <c r="D27" t="n">
-        <v>44.14</v>
+        <v>43.35</v>
       </c>
       <c r="E27" t="n">
-        <v>44.14</v>
+        <v>43.35</v>
       </c>
       <c r="F27" t="n">
-        <v>161</v>
+        <v>1200</v>
       </c>
       <c r="G27" t="n">
-        <v>-107767.11288502</v>
+        <v>-137247.51301054</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1403,7 +1483,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1414,22 +1498,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>44.14</v>
+        <v>43.35</v>
       </c>
       <c r="C28" t="n">
-        <v>44.21</v>
+        <v>43.35</v>
       </c>
       <c r="D28" t="n">
-        <v>44.21</v>
+        <v>43.35</v>
       </c>
       <c r="E28" t="n">
-        <v>44.14</v>
+        <v>43.35</v>
       </c>
       <c r="F28" t="n">
-        <v>5333.9766</v>
+        <v>709</v>
       </c>
       <c r="G28" t="n">
-        <v>-102433.13628502</v>
+        <v>-137247.51301054</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1439,7 +1523,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1450,32 +1538,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44.21</v>
+        <v>43.49</v>
       </c>
       <c r="C29" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="D29" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="E29" t="n">
-        <v>44.21</v>
+        <v>43.49</v>
       </c>
       <c r="F29" t="n">
-        <v>42037.6688</v>
+        <v>127.73051276</v>
       </c>
       <c r="G29" t="n">
-        <v>-60395.46748501998</v>
+        <v>-137119.78249778</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>43.35</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1486,22 +1580,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="C30" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="D30" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="E30" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="F30" t="n">
-        <v>1664.1594</v>
+        <v>196.2432</v>
       </c>
       <c r="G30" t="n">
-        <v>-60395.46748501998</v>
+        <v>-137119.78249778</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1511,7 +1605,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="C31" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="D31" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="E31" t="n">
-        <v>44.4</v>
+        <v>43.49</v>
       </c>
       <c r="F31" t="n">
-        <v>3384.7152</v>
+        <v>49744</v>
       </c>
       <c r="G31" t="n">
-        <v>-60395.46748501998</v>
+        <v>-87375.78249777999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1547,7 +1645,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1558,22 +1660,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="C32" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="D32" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="E32" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="F32" t="n">
-        <v>1090.1174</v>
+        <v>2476.1494</v>
       </c>
       <c r="G32" t="n">
-        <v>-60395.46748501998</v>
+        <v>-87375.78249777999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1583,7 +1685,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1594,22 +1700,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>44.41</v>
+        <v>43.5</v>
       </c>
       <c r="C33" t="n">
-        <v>44.42</v>
+        <v>43.6</v>
       </c>
       <c r="D33" t="n">
-        <v>44.42</v>
+        <v>43.99</v>
       </c>
       <c r="E33" t="n">
-        <v>44.41</v>
+        <v>43.5</v>
       </c>
       <c r="F33" t="n">
-        <v>2365.6389</v>
+        <v>12252.23378724</v>
       </c>
       <c r="G33" t="n">
-        <v>-58029.82858501998</v>
+        <v>-99628.01628501998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1619,7 +1725,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1630,22 +1740,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44.42</v>
+        <v>43.89</v>
       </c>
       <c r="C34" t="n">
-        <v>44.5</v>
+        <v>43.99</v>
       </c>
       <c r="D34" t="n">
-        <v>44.5</v>
+        <v>43.99</v>
       </c>
       <c r="E34" t="n">
-        <v>44.42</v>
+        <v>43.89</v>
       </c>
       <c r="F34" t="n">
-        <v>865.2595</v>
+        <v>6756.1204</v>
       </c>
       <c r="G34" t="n">
-        <v>-57164.56908501998</v>
+        <v>-92871.89588501999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1655,7 +1765,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1666,22 +1780,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="C35" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="D35" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="E35" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="F35" t="n">
-        <v>709</v>
+        <v>2930</v>
       </c>
       <c r="G35" t="n">
-        <v>-57873.56908501998</v>
+        <v>-89941.89588501999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1691,7 +1805,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1702,22 +1820,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="C36" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="D36" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="E36" t="n">
-        <v>44.38</v>
+        <v>44</v>
       </c>
       <c r="F36" t="n">
-        <v>89.4563</v>
+        <v>482.3305</v>
       </c>
       <c r="G36" t="n">
-        <v>-57873.56908501998</v>
+        <v>-89941.89588501999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1727,7 +1845,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1738,22 +1860,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="C37" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="E37" t="n">
-        <v>44.16</v>
+        <v>43.99</v>
       </c>
       <c r="F37" t="n">
-        <v>415.2134</v>
+        <v>25564.6568</v>
       </c>
       <c r="G37" t="n">
-        <v>-58288.78248501998</v>
+        <v>-89941.89588501999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1763,7 +1885,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1774,22 +1900,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="D38" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="E38" t="n">
-        <v>44.16</v>
+        <v>44</v>
       </c>
       <c r="F38" t="n">
-        <v>13962.4336</v>
+        <v>14903.6188</v>
       </c>
       <c r="G38" t="n">
-        <v>-58288.78248501998</v>
+        <v>-89941.89588501999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1799,7 +1925,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1810,22 +1940,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>44.38</v>
+        <v>43.5</v>
       </c>
       <c r="C39" t="n">
-        <v>44.38</v>
+        <v>43.5</v>
       </c>
       <c r="D39" t="n">
-        <v>44.38</v>
+        <v>43.5</v>
       </c>
       <c r="E39" t="n">
-        <v>44.38</v>
+        <v>43.45</v>
       </c>
       <c r="F39" t="n">
-        <v>12.329</v>
+        <v>3406.1414</v>
       </c>
       <c r="G39" t="n">
-        <v>-58276.45348501999</v>
+        <v>-93348.03728501998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1835,7 +1965,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1846,22 +1980,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="C40" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="D40" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="E40" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="F40" t="n">
-        <v>17503</v>
+        <v>1310</v>
       </c>
       <c r="G40" t="n">
-        <v>-75779.45348501999</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1871,7 +2005,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1882,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44.16</v>
+        <v>43.6</v>
       </c>
       <c r="C41" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="D41" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E41" t="n">
-        <v>44.15</v>
+        <v>43.6</v>
       </c>
       <c r="F41" t="n">
-        <v>108742.7897</v>
+        <v>550</v>
       </c>
       <c r="G41" t="n">
-        <v>32963.33621498001</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1907,7 +2045,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1918,22 +2060,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="C42" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="D42" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E42" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="F42" t="n">
-        <v>589.5</v>
+        <v>2668.168</v>
       </c>
       <c r="G42" t="n">
-        <v>32963.33621498001</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1943,7 +2085,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1954,22 +2100,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="C43" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="D43" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="E43" t="n">
-        <v>44.46</v>
+        <v>43.6</v>
       </c>
       <c r="F43" t="n">
-        <v>202.895</v>
+        <v>2402.4</v>
       </c>
       <c r="G43" t="n">
-        <v>33166.23121498001</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1979,7 +2125,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1990,22 +2140,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="C44" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="D44" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E44" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="F44" t="n">
-        <v>131</v>
+        <v>5744.3218</v>
       </c>
       <c r="G44" t="n">
-        <v>33035.23121498001</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2015,7 +2165,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2026,22 +2180,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="C45" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="D45" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E45" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="F45" t="n">
-        <v>70.89</v>
+        <v>1427</v>
       </c>
       <c r="G45" t="n">
-        <v>33035.23121498001</v>
+        <v>-92038.03728501998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2051,7 +2205,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2062,22 +2220,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="C46" t="n">
-        <v>44.15</v>
+        <v>43.5</v>
       </c>
       <c r="D46" t="n">
-        <v>44.38</v>
+        <v>43.6</v>
       </c>
       <c r="E46" t="n">
-        <v>44.15</v>
+        <v>43.5</v>
       </c>
       <c r="F46" t="n">
-        <v>701.9999</v>
+        <v>23537.1709</v>
       </c>
       <c r="G46" t="n">
-        <v>32333.23131498001</v>
+        <v>-115575.20818502</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2087,7 +2245,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2098,22 +2260,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44.15</v>
+        <v>43.5</v>
       </c>
       <c r="C47" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="D47" t="n">
-        <v>44.15</v>
+        <v>43.5</v>
       </c>
       <c r="E47" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="F47" t="n">
-        <v>5897.2477</v>
+        <v>14424</v>
       </c>
       <c r="G47" t="n">
-        <v>26435.98361498001</v>
+        <v>-115575.20818502</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2123,7 +2285,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2134,22 +2300,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>44.36</v>
+        <v>43.53</v>
       </c>
       <c r="C48" t="n">
-        <v>44.36</v>
+        <v>43.9</v>
       </c>
       <c r="D48" t="n">
-        <v>44.36</v>
+        <v>43.9</v>
       </c>
       <c r="E48" t="n">
-        <v>44.36</v>
+        <v>43.53</v>
       </c>
       <c r="F48" t="n">
-        <v>12.357</v>
+        <v>6020</v>
       </c>
       <c r="G48" t="n">
-        <v>26448.34061498001</v>
+        <v>-109555.20818502</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2159,7 +2325,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2170,22 +2340,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44.07</v>
+        <v>43.6</v>
       </c>
       <c r="C49" t="n">
         <v>43.6</v>
       </c>
       <c r="D49" t="n">
-        <v>44.07</v>
+        <v>43.6</v>
       </c>
       <c r="E49" t="n">
         <v>43.6</v>
       </c>
       <c r="F49" t="n">
-        <v>8088</v>
+        <v>240.4648</v>
       </c>
       <c r="G49" t="n">
-        <v>18360.34061498001</v>
+        <v>-109795.67298502</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2195,7 +2365,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2206,32 +2380,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="C50" t="n">
-        <v>43.54</v>
+        <v>43.9</v>
       </c>
       <c r="D50" t="n">
-        <v>44.2</v>
+        <v>43.9</v>
       </c>
       <c r="E50" t="n">
-        <v>43.54</v>
+        <v>43.9</v>
       </c>
       <c r="F50" t="n">
-        <v>2818.90497737</v>
+        <v>1043.3129</v>
       </c>
       <c r="G50" t="n">
-        <v>15541.43563761001</v>
+        <v>-108752.36008502</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>43.6</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2242,22 +2422,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>43.99</v>
+        <v>43.9</v>
       </c>
       <c r="C51" t="n">
-        <v>43.53</v>
+        <v>43.9</v>
       </c>
       <c r="D51" t="n">
-        <v>43.99</v>
+        <v>43.9</v>
       </c>
       <c r="E51" t="n">
-        <v>43.53</v>
+        <v>43.9</v>
       </c>
       <c r="F51" t="n">
-        <v>19139.9507</v>
+        <v>624.3268</v>
       </c>
       <c r="G51" t="n">
-        <v>-3598.515062389994</v>
+        <v>-108752.36008502</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2267,7 +2447,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2278,36 +2462,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>43.89</v>
+        <v>44</v>
       </c>
       <c r="C52" t="n">
-        <v>43.53</v>
+        <v>44</v>
       </c>
       <c r="D52" t="n">
-        <v>43.89</v>
+        <v>44</v>
       </c>
       <c r="E52" t="n">
-        <v>43.53</v>
+        <v>44</v>
       </c>
       <c r="F52" t="n">
-        <v>4833.265</v>
+        <v>824.2472</v>
       </c>
       <c r="G52" t="n">
-        <v>-3598.515062389994</v>
+        <v>-107928.11288502</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>43.53</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2320,32 +2502,30 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="C53" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="D53" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="E53" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="F53" t="n">
-        <v>1309.9999</v>
+        <v>9130.8585</v>
       </c>
       <c r="G53" t="n">
-        <v>-2288.515162389994</v>
+        <v>-107928.11288502</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>43.53</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2362,22 +2542,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>43.91</v>
+        <v>44</v>
       </c>
       <c r="C54" t="n">
-        <v>43.51</v>
+        <v>44</v>
       </c>
       <c r="D54" t="n">
-        <v>43.91</v>
+        <v>44</v>
       </c>
       <c r="E54" t="n">
-        <v>43.51</v>
+        <v>44</v>
       </c>
       <c r="F54" t="n">
-        <v>13923.5584</v>
+        <v>373.9803</v>
       </c>
       <c r="G54" t="n">
-        <v>-16212.07356238999</v>
+        <v>-107928.11288502</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2402,22 +2582,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="C55" t="n">
-        <v>43.98</v>
+        <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>43.98</v>
+        <v>44</v>
       </c>
       <c r="E55" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="F55" t="n">
-        <v>37.0584</v>
+        <v>2854.8231</v>
       </c>
       <c r="G55" t="n">
-        <v>-16175.01516238999</v>
+        <v>-107928.11288502</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2442,32 +2622,30 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>43.98</v>
+        <v>44.14</v>
       </c>
       <c r="C56" t="n">
-        <v>44.08</v>
+        <v>44.14</v>
       </c>
       <c r="D56" t="n">
-        <v>44.08</v>
+        <v>44.14</v>
       </c>
       <c r="E56" t="n">
-        <v>43.79</v>
+        <v>44.14</v>
       </c>
       <c r="F56" t="n">
-        <v>6963.3588</v>
+        <v>161</v>
       </c>
       <c r="G56" t="n">
-        <v>-9211.656362389993</v>
+        <v>-107767.11288502</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>43.98</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2484,22 +2662,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44.08</v>
+        <v>44.14</v>
       </c>
       <c r="C57" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="D57" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="E57" t="n">
-        <v>44.08</v>
+        <v>44.14</v>
       </c>
       <c r="F57" t="n">
-        <v>49.316</v>
+        <v>5333.9766</v>
       </c>
       <c r="G57" t="n">
-        <v>-9162.340362389992</v>
+        <v>-102433.13628502</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2524,32 +2702,30 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="C58" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="D58" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="E58" t="n">
-        <v>44.1</v>
+        <v>44.21</v>
       </c>
       <c r="F58" t="n">
-        <v>1788.5416</v>
+        <v>42037.6688</v>
       </c>
       <c r="G58" t="n">
-        <v>-9162.340362389992</v>
+        <v>-60395.46748501998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>44.1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2566,22 +2742,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="C59" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="D59" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="E59" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="F59" t="n">
-        <v>3875.8965</v>
+        <v>1664.1594</v>
       </c>
       <c r="G59" t="n">
-        <v>-5286.443862389992</v>
+        <v>-60395.46748501998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2606,22 +2782,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="C60" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="D60" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="E60" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="F60" t="n">
-        <v>4309.2627</v>
+        <v>3384.7152</v>
       </c>
       <c r="G60" t="n">
-        <v>-5286.443862389992</v>
+        <v>-60395.46748501998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2646,22 +2822,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="C61" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="D61" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="E61" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="F61" t="n">
-        <v>4672.0128</v>
+        <v>1090.1174</v>
       </c>
       <c r="G61" t="n">
-        <v>-5286.443862389992</v>
+        <v>-60395.46748501998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2686,22 +2862,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>44.08</v>
+        <v>44.41</v>
       </c>
       <c r="C62" t="n">
-        <v>44.08</v>
+        <v>44.42</v>
       </c>
       <c r="D62" t="n">
-        <v>44.08</v>
+        <v>44.42</v>
       </c>
       <c r="E62" t="n">
-        <v>44.08</v>
+        <v>44.41</v>
       </c>
       <c r="F62" t="n">
-        <v>2682</v>
+        <v>2365.6389</v>
       </c>
       <c r="G62" t="n">
-        <v>-7968.443862389992</v>
+        <v>-58029.82858501998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2726,7 +2902,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>44.08</v>
+        <v>44.42</v>
       </c>
       <c r="C63" t="n">
         <v>44.5</v>
@@ -2735,13 +2911,13 @@
         <v>44.5</v>
       </c>
       <c r="E63" t="n">
-        <v>44.08</v>
+        <v>44.42</v>
       </c>
       <c r="F63" t="n">
-        <v>57897.9713</v>
+        <v>865.2595</v>
       </c>
       <c r="G63" t="n">
-        <v>49929.52743761001</v>
+        <v>-57164.56908501998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2766,22 +2942,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>44.2</v>
+        <v>44.38</v>
       </c>
       <c r="C64" t="n">
-        <v>44.43</v>
+        <v>44.38</v>
       </c>
       <c r="D64" t="n">
-        <v>44.52</v>
+        <v>44.38</v>
       </c>
       <c r="E64" t="n">
-        <v>43.8</v>
+        <v>44.38</v>
       </c>
       <c r="F64" t="n">
-        <v>29178.8638</v>
+        <v>709</v>
       </c>
       <c r="G64" t="n">
-        <v>20750.66363761001</v>
+        <v>-57873.56908501998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2806,22 +2982,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>44.43</v>
+        <v>44.38</v>
       </c>
       <c r="C65" t="n">
-        <v>44.13</v>
+        <v>44.38</v>
       </c>
       <c r="D65" t="n">
-        <v>44.53</v>
+        <v>44.38</v>
       </c>
       <c r="E65" t="n">
-        <v>44.13</v>
+        <v>44.38</v>
       </c>
       <c r="F65" t="n">
-        <v>3934.7786</v>
+        <v>89.4563</v>
       </c>
       <c r="G65" t="n">
-        <v>16815.88503761001</v>
+        <v>-57873.56908501998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2846,22 +3022,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>44.1</v>
+        <v>44.16</v>
       </c>
       <c r="C66" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="D66" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="E66" t="n">
-        <v>44.1</v>
+        <v>44.16</v>
       </c>
       <c r="F66" t="n">
-        <v>3247.161</v>
+        <v>415.2134</v>
       </c>
       <c r="G66" t="n">
-        <v>20063.04603761001</v>
+        <v>-58288.78248501998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2886,22 +3062,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="C67" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="D67" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="E67" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="F67" t="n">
-        <v>1394.6624</v>
+        <v>13962.4336</v>
       </c>
       <c r="G67" t="n">
-        <v>20063.04603761001</v>
+        <v>-58288.78248501998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2926,22 +3102,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>44.27</v>
+        <v>44.38</v>
       </c>
       <c r="C68" t="n">
-        <v>44.27</v>
+        <v>44.38</v>
       </c>
       <c r="D68" t="n">
-        <v>44.27</v>
+        <v>44.38</v>
       </c>
       <c r="E68" t="n">
-        <v>44.27</v>
+        <v>44.38</v>
       </c>
       <c r="F68" t="n">
-        <v>950.7661000000001</v>
+        <v>12.329</v>
       </c>
       <c r="G68" t="n">
-        <v>19112.27993761</v>
+        <v>-58276.45348501999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2966,22 +3142,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="C69" t="n">
-        <v>44.57</v>
+        <v>44.16</v>
       </c>
       <c r="D69" t="n">
-        <v>44.57</v>
+        <v>44.16</v>
       </c>
       <c r="E69" t="n">
-        <v>44.55</v>
+        <v>44.16</v>
       </c>
       <c r="F69" t="n">
-        <v>1246.3739</v>
+        <v>17503</v>
       </c>
       <c r="G69" t="n">
-        <v>20358.65383761</v>
+        <v>-75779.45348501999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3006,22 +3182,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>44.14</v>
+        <v>44.16</v>
       </c>
       <c r="C70" t="n">
-        <v>44.57</v>
+        <v>44.38</v>
       </c>
       <c r="D70" t="n">
-        <v>44.57</v>
+        <v>44.38</v>
       </c>
       <c r="E70" t="n">
-        <v>44.14</v>
+        <v>44.15</v>
       </c>
       <c r="F70" t="n">
-        <v>1339.2467</v>
+        <v>108742.7897</v>
       </c>
       <c r="G70" t="n">
-        <v>20358.65383761</v>
+        <v>32963.33621498001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3046,22 +3222,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>44.57</v>
+        <v>44.38</v>
       </c>
       <c r="C71" t="n">
-        <v>44.7</v>
+        <v>44.38</v>
       </c>
       <c r="D71" t="n">
-        <v>44.7</v>
+        <v>44.38</v>
       </c>
       <c r="E71" t="n">
-        <v>44.57</v>
+        <v>44.38</v>
       </c>
       <c r="F71" t="n">
-        <v>121761.8574</v>
+        <v>589.5</v>
       </c>
       <c r="G71" t="n">
-        <v>142120.51123761</v>
+        <v>32963.33621498001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3086,22 +3262,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>44.56</v>
+        <v>44.46</v>
       </c>
       <c r="C72" t="n">
-        <v>44.56</v>
+        <v>44.46</v>
       </c>
       <c r="D72" t="n">
-        <v>44.56</v>
+        <v>44.46</v>
       </c>
       <c r="E72" t="n">
-        <v>44.56</v>
+        <v>44.46</v>
       </c>
       <c r="F72" t="n">
-        <v>459</v>
+        <v>202.895</v>
       </c>
       <c r="G72" t="n">
-        <v>141661.51123761</v>
+        <v>33166.23121498001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3126,22 +3302,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>44.7</v>
+        <v>44.38</v>
       </c>
       <c r="C73" t="n">
-        <v>44.78</v>
+        <v>44.38</v>
       </c>
       <c r="D73" t="n">
-        <v>44.78</v>
+        <v>44.38</v>
       </c>
       <c r="E73" t="n">
-        <v>44.7</v>
+        <v>44.38</v>
       </c>
       <c r="F73" t="n">
-        <v>12.5576</v>
+        <v>131</v>
       </c>
       <c r="G73" t="n">
-        <v>141674.06883761</v>
+        <v>33035.23121498001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3166,22 +3342,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>44.78</v>
+        <v>44.38</v>
       </c>
       <c r="C74" t="n">
-        <v>44.24</v>
+        <v>44.38</v>
       </c>
       <c r="D74" t="n">
-        <v>44.78</v>
+        <v>44.38</v>
       </c>
       <c r="E74" t="n">
-        <v>44.24</v>
+        <v>44.38</v>
       </c>
       <c r="F74" t="n">
-        <v>7100</v>
+        <v>70.89</v>
       </c>
       <c r="G74" t="n">
-        <v>134574.06883761</v>
+        <v>33035.23121498001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3206,22 +3382,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>44.79</v>
+        <v>44.38</v>
       </c>
       <c r="C75" t="n">
-        <v>44.79</v>
+        <v>44.15</v>
       </c>
       <c r="D75" t="n">
-        <v>44.79</v>
+        <v>44.38</v>
       </c>
       <c r="E75" t="n">
-        <v>44.79</v>
+        <v>44.15</v>
       </c>
       <c r="F75" t="n">
-        <v>124.02321946</v>
+        <v>701.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>134698.09205707</v>
+        <v>32333.23131498001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3246,22 +3422,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>44.66</v>
+        <v>44.15</v>
       </c>
       <c r="C76" t="n">
-        <v>44.69</v>
+        <v>44</v>
       </c>
       <c r="D76" t="n">
-        <v>44.69</v>
+        <v>44.15</v>
       </c>
       <c r="E76" t="n">
-        <v>44.66</v>
+        <v>44</v>
       </c>
       <c r="F76" t="n">
-        <v>3348.0854</v>
+        <v>5897.2477</v>
       </c>
       <c r="G76" t="n">
-        <v>131350.00665707</v>
+        <v>26435.98361498001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3286,22 +3462,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44.35</v>
+        <v>44.36</v>
       </c>
       <c r="C77" t="n">
-        <v>44.35</v>
+        <v>44.36</v>
       </c>
       <c r="D77" t="n">
-        <v>44.35</v>
+        <v>44.36</v>
       </c>
       <c r="E77" t="n">
-        <v>44.35</v>
+        <v>44.36</v>
       </c>
       <c r="F77" t="n">
-        <v>336</v>
+        <v>12.357</v>
       </c>
       <c r="G77" t="n">
-        <v>131014.00665707</v>
+        <v>26448.34061498001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3326,22 +3502,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>44.5</v>
+        <v>44.07</v>
       </c>
       <c r="C78" t="n">
-        <v>44.5</v>
+        <v>43.6</v>
       </c>
       <c r="D78" t="n">
-        <v>44.5</v>
+        <v>44.07</v>
       </c>
       <c r="E78" t="n">
-        <v>44.5</v>
+        <v>43.6</v>
       </c>
       <c r="F78" t="n">
-        <v>12.6082</v>
+        <v>8088</v>
       </c>
       <c r="G78" t="n">
-        <v>131026.61485707</v>
+        <v>18360.34061498001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3366,22 +3542,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44.35</v>
+        <v>44.1</v>
       </c>
       <c r="C79" t="n">
-        <v>44.35</v>
+        <v>43.54</v>
       </c>
       <c r="D79" t="n">
-        <v>44.35</v>
+        <v>44.2</v>
       </c>
       <c r="E79" t="n">
-        <v>44.35</v>
+        <v>43.54</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3462</v>
+        <v>2818.90497737</v>
       </c>
       <c r="G79" t="n">
-        <v>131026.26865707</v>
+        <v>15541.43563761001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3406,22 +3582,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>43.95</v>
+        <v>43.99</v>
       </c>
       <c r="C80" t="n">
-        <v>44.25</v>
+        <v>43.53</v>
       </c>
       <c r="D80" t="n">
-        <v>44.25</v>
+        <v>43.99</v>
       </c>
       <c r="E80" t="n">
-        <v>43.7</v>
+        <v>43.53</v>
       </c>
       <c r="F80" t="n">
-        <v>53108.3032</v>
+        <v>19139.9507</v>
       </c>
       <c r="G80" t="n">
-        <v>77917.96545706998</v>
+        <v>-3598.515062389994</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3446,22 +3622,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44.02</v>
+        <v>43.89</v>
       </c>
       <c r="C81" t="n">
-        <v>44.02</v>
+        <v>43.53</v>
       </c>
       <c r="D81" t="n">
-        <v>44.02</v>
+        <v>43.89</v>
       </c>
       <c r="E81" t="n">
-        <v>44.02</v>
+        <v>43.53</v>
       </c>
       <c r="F81" t="n">
-        <v>251.002</v>
+        <v>4833.265</v>
       </c>
       <c r="G81" t="n">
-        <v>77666.96345706999</v>
+        <v>-3598.515062389994</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3486,22 +3662,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>44.02</v>
+        <v>44.1</v>
       </c>
       <c r="C82" t="n">
-        <v>44.02</v>
+        <v>44.1</v>
       </c>
       <c r="D82" t="n">
-        <v>44.02</v>
+        <v>44.1</v>
       </c>
       <c r="E82" t="n">
-        <v>44.02</v>
+        <v>44.1</v>
       </c>
       <c r="F82" t="n">
-        <v>687.2061</v>
+        <v>1309.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>77666.96345706999</v>
+        <v>-2288.515162389994</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3526,22 +3702,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>44.02</v>
+        <v>43.91</v>
       </c>
       <c r="C83" t="n">
-        <v>44.02</v>
+        <v>43.51</v>
       </c>
       <c r="D83" t="n">
-        <v>44.02</v>
+        <v>43.91</v>
       </c>
       <c r="E83" t="n">
-        <v>44.02</v>
+        <v>43.51</v>
       </c>
       <c r="F83" t="n">
-        <v>64.3986</v>
+        <v>13923.5584</v>
       </c>
       <c r="G83" t="n">
-        <v>77666.96345706999</v>
+        <v>-16212.07356238999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3566,22 +3742,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>44.11</v>
+        <v>43.7</v>
       </c>
       <c r="C84" t="n">
-        <v>44.35</v>
+        <v>43.98</v>
       </c>
       <c r="D84" t="n">
-        <v>44.35</v>
+        <v>43.98</v>
       </c>
       <c r="E84" t="n">
-        <v>44.11</v>
+        <v>43.7</v>
       </c>
       <c r="F84" t="n">
-        <v>36.3652</v>
+        <v>37.0584</v>
       </c>
       <c r="G84" t="n">
-        <v>77703.32865706999</v>
+        <v>-16175.01516238999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3606,22 +3782,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44.11</v>
+        <v>43.98</v>
       </c>
       <c r="C85" t="n">
-        <v>44.31</v>
+        <v>44.08</v>
       </c>
       <c r="D85" t="n">
-        <v>44.31</v>
+        <v>44.08</v>
       </c>
       <c r="E85" t="n">
-        <v>43.91</v>
+        <v>43.79</v>
       </c>
       <c r="F85" t="n">
-        <v>6617.3785</v>
+        <v>6963.3588</v>
       </c>
       <c r="G85" t="n">
-        <v>71085.95015706998</v>
+        <v>-9211.656362389993</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3646,22 +3822,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44.35</v>
+        <v>44.08</v>
       </c>
       <c r="C86" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="D86" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="E86" t="n">
-        <v>44.35</v>
+        <v>44.08</v>
       </c>
       <c r="F86" t="n">
-        <v>2268.7024</v>
+        <v>49.316</v>
       </c>
       <c r="G86" t="n">
-        <v>73354.65255706997</v>
+        <v>-9162.340362389992</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3686,22 +3862,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="C87" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="D87" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="E87" t="n">
-        <v>44.59</v>
+        <v>44.1</v>
       </c>
       <c r="F87" t="n">
-        <v>500</v>
+        <v>1788.5416</v>
       </c>
       <c r="G87" t="n">
-        <v>73354.65255706997</v>
+        <v>-9162.340362389992</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3726,72 +3902,76 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="C88" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="D88" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="E88" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="F88" t="n">
-        <v>945.3964</v>
+        <v>3875.8965</v>
       </c>
       <c r="G88" t="n">
-        <v>74300.04895706997</v>
+        <v>-5286.443862389992</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
-        <v>1.024165707710011</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="C89" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="D89" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="E89" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="F89" t="n">
-        <v>11.9317</v>
+        <v>4309.2627</v>
       </c>
       <c r="G89" t="n">
-        <v>74311.98065706997</v>
+        <v>-5286.443862389992</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3802,32 +3982,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="C90" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="D90" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="E90" t="n">
-        <v>44.79</v>
+        <v>44.2</v>
       </c>
       <c r="F90" t="n">
-        <v>11376.4129</v>
+        <v>4672.0128</v>
       </c>
       <c r="G90" t="n">
-        <v>85688.39355706997</v>
+        <v>-5286.443862389992</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3838,32 +4022,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>44.78</v>
+        <v>44.08</v>
       </c>
       <c r="C91" t="n">
-        <v>44.78</v>
+        <v>44.08</v>
       </c>
       <c r="D91" t="n">
-        <v>44.78</v>
+        <v>44.08</v>
       </c>
       <c r="E91" t="n">
-        <v>44.78</v>
+        <v>44.08</v>
       </c>
       <c r="F91" t="n">
-        <v>21737.398</v>
+        <v>2682</v>
       </c>
       <c r="G91" t="n">
-        <v>63950.99555706997</v>
+        <v>-7968.443862389992</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3874,32 +4062,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>44.8</v>
+        <v>44.08</v>
       </c>
       <c r="C92" t="n">
-        <v>44.8</v>
+        <v>44.5</v>
       </c>
       <c r="D92" t="n">
-        <v>44.8</v>
+        <v>44.5</v>
       </c>
       <c r="E92" t="n">
-        <v>44.8</v>
+        <v>44.08</v>
       </c>
       <c r="F92" t="n">
-        <v>11.9925</v>
+        <v>57897.9713</v>
       </c>
       <c r="G92" t="n">
-        <v>63962.98805706997</v>
+        <v>49929.52743761001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3910,32 +4102,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="C93" t="n">
-        <v>44.8</v>
+        <v>44.43</v>
       </c>
       <c r="D93" t="n">
-        <v>44.8</v>
+        <v>44.52</v>
       </c>
       <c r="E93" t="n">
-        <v>44.8</v>
+        <v>43.8</v>
       </c>
       <c r="F93" t="n">
-        <v>2564.3488</v>
+        <v>29178.8638</v>
       </c>
       <c r="G93" t="n">
-        <v>63962.98805706997</v>
+        <v>20750.66363761001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3946,32 +4142,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>44.8</v>
+        <v>44.43</v>
       </c>
       <c r="C94" t="n">
-        <v>44.83</v>
+        <v>44.13</v>
       </c>
       <c r="D94" t="n">
-        <v>44.83</v>
+        <v>44.53</v>
       </c>
       <c r="E94" t="n">
-        <v>44.8</v>
+        <v>44.13</v>
       </c>
       <c r="F94" t="n">
-        <v>12.1356</v>
+        <v>3934.7786</v>
       </c>
       <c r="G94" t="n">
-        <v>63975.12365706997</v>
+        <v>16815.88503761001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3982,32 +4182,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>44.83</v>
+        <v>44.1</v>
       </c>
       <c r="C95" t="n">
-        <v>44.84</v>
+        <v>44.55</v>
       </c>
       <c r="D95" t="n">
-        <v>44.84</v>
+        <v>44.55</v>
       </c>
       <c r="E95" t="n">
-        <v>44.83</v>
+        <v>44.1</v>
       </c>
       <c r="F95" t="n">
-        <v>1267.4686</v>
+        <v>3247.161</v>
       </c>
       <c r="G95" t="n">
-        <v>65242.59225706997</v>
+        <v>20063.04603761001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4018,32 +4222,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>44.84</v>
+        <v>44.55</v>
       </c>
       <c r="C96" t="n">
-        <v>44.85</v>
+        <v>44.55</v>
       </c>
       <c r="D96" t="n">
-        <v>44.85</v>
+        <v>44.55</v>
       </c>
       <c r="E96" t="n">
-        <v>44.84</v>
+        <v>44.55</v>
       </c>
       <c r="F96" t="n">
-        <v>2810.1696</v>
+        <v>1394.6624</v>
       </c>
       <c r="G96" t="n">
-        <v>68052.76185706997</v>
+        <v>20063.04603761001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4054,32 +4262,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>44.85</v>
+        <v>44.27</v>
       </c>
       <c r="C97" t="n">
-        <v>44.93</v>
+        <v>44.27</v>
       </c>
       <c r="D97" t="n">
-        <v>44.93</v>
+        <v>44.27</v>
       </c>
       <c r="E97" t="n">
-        <v>44.85</v>
+        <v>44.27</v>
       </c>
       <c r="F97" t="n">
-        <v>2277.2789</v>
+        <v>950.7661000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>70330.04075706998</v>
+        <v>19112.27993761</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4090,32 +4302,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44.93</v>
+        <v>44.55</v>
       </c>
       <c r="C98" t="n">
-        <v>44.85</v>
+        <v>44.57</v>
       </c>
       <c r="D98" t="n">
-        <v>44.93</v>
+        <v>44.57</v>
       </c>
       <c r="E98" t="n">
-        <v>44.85</v>
+        <v>44.55</v>
       </c>
       <c r="F98" t="n">
-        <v>959.809</v>
+        <v>1246.3739</v>
       </c>
       <c r="G98" t="n">
-        <v>69370.23175706998</v>
+        <v>20358.65383761</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4126,32 +4342,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>44.94</v>
+        <v>44.14</v>
       </c>
       <c r="C99" t="n">
-        <v>44.94</v>
+        <v>44.57</v>
       </c>
       <c r="D99" t="n">
-        <v>44.94</v>
+        <v>44.57</v>
       </c>
       <c r="E99" t="n">
-        <v>44.94</v>
+        <v>44.14</v>
       </c>
       <c r="F99" t="n">
-        <v>11.9021</v>
+        <v>1339.2467</v>
       </c>
       <c r="G99" t="n">
-        <v>69382.13385706999</v>
+        <v>20358.65383761</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4162,32 +4382,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>44.85</v>
+        <v>44.57</v>
       </c>
       <c r="C100" t="n">
-        <v>44.85</v>
+        <v>44.7</v>
       </c>
       <c r="D100" t="n">
-        <v>44.85</v>
+        <v>44.7</v>
       </c>
       <c r="E100" t="n">
-        <v>44.85</v>
+        <v>44.57</v>
       </c>
       <c r="F100" t="n">
-        <v>20631.1884</v>
+        <v>121761.8574</v>
       </c>
       <c r="G100" t="n">
-        <v>48750.94545706999</v>
+        <v>142120.51123761</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4198,32 +4422,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>44.93</v>
+        <v>44.56</v>
       </c>
       <c r="C101" t="n">
-        <v>44.93</v>
+        <v>44.56</v>
       </c>
       <c r="D101" t="n">
-        <v>44.93</v>
+        <v>44.56</v>
       </c>
       <c r="E101" t="n">
-        <v>44.93</v>
+        <v>44.56</v>
       </c>
       <c r="F101" t="n">
-        <v>11.927</v>
+        <v>459</v>
       </c>
       <c r="G101" t="n">
-        <v>48762.87245706999</v>
+        <v>141661.51123761</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4234,7 +4462,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>44.78</v>
+        <v>44.7</v>
       </c>
       <c r="C102" t="n">
         <v>44.78</v>
@@ -4243,13 +4471,13 @@
         <v>44.78</v>
       </c>
       <c r="E102" t="n">
-        <v>44.78</v>
+        <v>44.7</v>
       </c>
       <c r="F102" t="n">
-        <v>11878.1474</v>
+        <v>12.5576</v>
       </c>
       <c r="G102" t="n">
-        <v>36884.72505706999</v>
+        <v>141674.06883761</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4259,10 +4487,12 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -4270,22 +4500,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>44.67</v>
+        <v>44.78</v>
       </c>
       <c r="C103" t="n">
-        <v>44.67</v>
+        <v>44.24</v>
       </c>
       <c r="D103" t="n">
-        <v>44.67</v>
+        <v>44.78</v>
       </c>
       <c r="E103" t="n">
-        <v>44.67</v>
+        <v>44.24</v>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>7100</v>
       </c>
       <c r="G103" t="n">
-        <v>36384.72505706999</v>
+        <v>134574.06883761</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4306,28 +4536,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>44.67</v>
+        <v>44.79</v>
       </c>
       <c r="C104" t="n">
-        <v>44.82</v>
+        <v>44.79</v>
       </c>
       <c r="D104" t="n">
-        <v>44.82</v>
+        <v>44.79</v>
       </c>
       <c r="E104" t="n">
-        <v>44.6</v>
+        <v>44.79</v>
       </c>
       <c r="F104" t="n">
-        <v>967.9571999999999</v>
+        <v>124.02321946</v>
       </c>
       <c r="G104" t="n">
-        <v>37352.68225706999</v>
+        <v>134698.09205707</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4342,28 +4572,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>44.6</v>
+        <v>44.66</v>
       </c>
       <c r="C105" t="n">
-        <v>44.6</v>
+        <v>44.69</v>
       </c>
       <c r="D105" t="n">
-        <v>44.6</v>
+        <v>44.69</v>
       </c>
       <c r="E105" t="n">
-        <v>44.6</v>
+        <v>44.66</v>
       </c>
       <c r="F105" t="n">
-        <v>894.5414</v>
+        <v>3348.0854</v>
       </c>
       <c r="G105" t="n">
-        <v>36458.14085706999</v>
+        <v>131350.00665707</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4378,28 +4608,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="C106" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="D106" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="E106" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="F106" t="n">
-        <v>38716</v>
+        <v>336</v>
       </c>
       <c r="G106" t="n">
-        <v>-2257.859142930014</v>
+        <v>131014.00665707</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4426,10 +4656,10 @@
         <v>44.5</v>
       </c>
       <c r="F107" t="n">
-        <v>1419</v>
+        <v>12.6082</v>
       </c>
       <c r="G107" t="n">
-        <v>-2257.859142930014</v>
+        <v>131026.61485707</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4450,22 +4680,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="C108" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="D108" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="E108" t="n">
-        <v>44.5</v>
+        <v>44.35</v>
       </c>
       <c r="F108" t="n">
-        <v>2282</v>
+        <v>0.3462</v>
       </c>
       <c r="G108" t="n">
-        <v>-2257.859142930014</v>
+        <v>131026.26865707</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4486,22 +4716,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>44.5</v>
+        <v>43.95</v>
       </c>
       <c r="C109" t="n">
-        <v>44.5</v>
+        <v>44.25</v>
       </c>
       <c r="D109" t="n">
-        <v>44.5</v>
+        <v>44.25</v>
       </c>
       <c r="E109" t="n">
-        <v>44.5</v>
+        <v>43.7</v>
       </c>
       <c r="F109" t="n">
-        <v>3630</v>
+        <v>53108.3032</v>
       </c>
       <c r="G109" t="n">
-        <v>-2257.859142930014</v>
+        <v>77917.96545706998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4522,22 +4752,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>44.82</v>
+        <v>44.02</v>
       </c>
       <c r="C110" t="n">
-        <v>44.83</v>
+        <v>44.02</v>
       </c>
       <c r="D110" t="n">
-        <v>44.83</v>
+        <v>44.02</v>
       </c>
       <c r="E110" t="n">
-        <v>44.82</v>
+        <v>44.02</v>
       </c>
       <c r="F110" t="n">
-        <v>2500</v>
+        <v>251.002</v>
       </c>
       <c r="G110" t="n">
-        <v>242.1408570699859</v>
+        <v>77666.96345706999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4558,22 +4788,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>44.5</v>
+        <v>44.02</v>
       </c>
       <c r="C111" t="n">
-        <v>44.5</v>
+        <v>44.02</v>
       </c>
       <c r="D111" t="n">
-        <v>44.5</v>
+        <v>44.02</v>
       </c>
       <c r="E111" t="n">
-        <v>44.5</v>
+        <v>44.02</v>
       </c>
       <c r="F111" t="n">
-        <v>41556.3142</v>
+        <v>687.2061</v>
       </c>
       <c r="G111" t="n">
-        <v>-41314.17334293001</v>
+        <v>77666.96345706999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4594,22 +4824,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>44.85</v>
+        <v>44.02</v>
       </c>
       <c r="C112" t="n">
-        <v>44.85</v>
+        <v>44.02</v>
       </c>
       <c r="D112" t="n">
-        <v>44.85</v>
+        <v>44.02</v>
       </c>
       <c r="E112" t="n">
-        <v>44.85</v>
+        <v>44.02</v>
       </c>
       <c r="F112" t="n">
-        <v>11.7425</v>
+        <v>64.3986</v>
       </c>
       <c r="G112" t="n">
-        <v>-41302.43084293001</v>
+        <v>77666.96345706999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4630,22 +4860,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>44.85</v>
+        <v>44.11</v>
       </c>
       <c r="C113" t="n">
-        <v>44.85</v>
+        <v>44.35</v>
       </c>
       <c r="D113" t="n">
-        <v>44.85</v>
+        <v>44.35</v>
       </c>
       <c r="E113" t="n">
-        <v>44.85</v>
+        <v>44.11</v>
       </c>
       <c r="F113" t="n">
-        <v>784.2586</v>
+        <v>36.3652</v>
       </c>
       <c r="G113" t="n">
-        <v>-41302.43084293001</v>
+        <v>77703.32865706999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4666,22 +4896,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>44.9</v>
+        <v>44.11</v>
       </c>
       <c r="C114" t="n">
-        <v>44.9</v>
+        <v>44.31</v>
       </c>
       <c r="D114" t="n">
-        <v>44.9</v>
+        <v>44.31</v>
       </c>
       <c r="E114" t="n">
-        <v>44.9</v>
+        <v>43.91</v>
       </c>
       <c r="F114" t="n">
-        <v>11.9349</v>
+        <v>6617.3785</v>
       </c>
       <c r="G114" t="n">
-        <v>-41290.49594293001</v>
+        <v>71085.95015706998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4702,22 +4932,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>44.85</v>
+        <v>44.35</v>
       </c>
       <c r="C115" t="n">
-        <v>44.8</v>
+        <v>44.59</v>
       </c>
       <c r="D115" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="E115" t="n">
-        <v>44.8</v>
+        <v>44.35</v>
       </c>
       <c r="F115" t="n">
-        <v>4479.7733</v>
+        <v>2268.7024</v>
       </c>
       <c r="G115" t="n">
-        <v>-45770.26924293002</v>
+        <v>73354.65255706997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4738,22 +4968,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="C116" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="D116" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="E116" t="n">
-        <v>44.9</v>
+        <v>44.59</v>
       </c>
       <c r="F116" t="n">
-        <v>11.1456</v>
+        <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>-45759.12364293001</v>
+        <v>73354.65255706997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4774,22 +5004,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>44.89</v>
+        <v>44.7</v>
       </c>
       <c r="C117" t="n">
-        <v>44.98</v>
+        <v>44.7</v>
       </c>
       <c r="D117" t="n">
-        <v>44.98</v>
+        <v>44.7</v>
       </c>
       <c r="E117" t="n">
-        <v>44.89</v>
+        <v>44.7</v>
       </c>
       <c r="F117" t="n">
-        <v>26466.7949</v>
+        <v>945.3964</v>
       </c>
       <c r="G117" t="n">
-        <v>-19292.32874293001</v>
+        <v>74300.04895706997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4810,22 +5040,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>44.98</v>
+        <v>44.7</v>
       </c>
       <c r="C118" t="n">
-        <v>44.98</v>
+        <v>44.79</v>
       </c>
       <c r="D118" t="n">
-        <v>44.98</v>
+        <v>44.79</v>
       </c>
       <c r="E118" t="n">
-        <v>44.98</v>
+        <v>44.7</v>
       </c>
       <c r="F118" t="n">
-        <v>266.1677</v>
+        <v>11.9317</v>
       </c>
       <c r="G118" t="n">
-        <v>-19292.32874293001</v>
+        <v>74311.98065706997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4846,22 +5076,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>44.98</v>
+        <v>44.79</v>
       </c>
       <c r="C119" t="n">
-        <v>44.98</v>
+        <v>44.8</v>
       </c>
       <c r="D119" t="n">
-        <v>44.98</v>
+        <v>44.8</v>
       </c>
       <c r="E119" t="n">
-        <v>44.98</v>
+        <v>44.79</v>
       </c>
       <c r="F119" t="n">
-        <v>3399</v>
+        <v>11376.4129</v>
       </c>
       <c r="G119" t="n">
-        <v>-19292.32874293001</v>
+        <v>85688.39355706997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4882,28 +5112,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>44.99</v>
+        <v>44.78</v>
       </c>
       <c r="C120" t="n">
-        <v>45</v>
+        <v>44.78</v>
       </c>
       <c r="D120" t="n">
-        <v>45</v>
+        <v>44.78</v>
       </c>
       <c r="E120" t="n">
-        <v>44.99</v>
+        <v>44.78</v>
       </c>
       <c r="F120" t="n">
-        <v>174638.3288</v>
+        <v>21737.398</v>
       </c>
       <c r="G120" t="n">
-        <v>155346.00005707</v>
+        <v>63950.99555706997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4918,28 +5148,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="C121" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="D121" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="E121" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="F121" t="n">
-        <v>2619.9998</v>
+        <v>11.9925</v>
       </c>
       <c r="G121" t="n">
-        <v>155346.00005707</v>
+        <v>63962.98805706997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4954,22 +5184,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>45.02</v>
+        <v>44.8</v>
       </c>
       <c r="C122" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="D122" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="E122" t="n">
-        <v>45.02</v>
+        <v>44.8</v>
       </c>
       <c r="F122" t="n">
-        <v>40.853</v>
+        <v>2564.3488</v>
       </c>
       <c r="G122" t="n">
-        <v>155386.85305707</v>
+        <v>63962.98805706997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4990,22 +5220,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="C123" t="n">
-        <v>45.13</v>
+        <v>44.83</v>
       </c>
       <c r="D123" t="n">
-        <v>45.13</v>
+        <v>44.83</v>
       </c>
       <c r="E123" t="n">
-        <v>45.1</v>
+        <v>44.8</v>
       </c>
       <c r="F123" t="n">
-        <v>15.5719</v>
+        <v>12.1356</v>
       </c>
       <c r="G123" t="n">
-        <v>155402.42495707</v>
+        <v>63975.12365706997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5026,28 +5256,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>45.12</v>
+        <v>44.83</v>
       </c>
       <c r="C124" t="n">
-        <v>45.12</v>
+        <v>44.84</v>
       </c>
       <c r="D124" t="n">
-        <v>45.12</v>
+        <v>44.84</v>
       </c>
       <c r="E124" t="n">
-        <v>45.12</v>
+        <v>44.83</v>
       </c>
       <c r="F124" t="n">
-        <v>39.0576</v>
+        <v>1267.4686</v>
       </c>
       <c r="G124" t="n">
-        <v>155363.36735707</v>
+        <v>65242.59225706997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5062,22 +5292,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>45.12</v>
+        <v>44.84</v>
       </c>
       <c r="C125" t="n">
-        <v>45.12</v>
+        <v>44.85</v>
       </c>
       <c r="D125" t="n">
-        <v>45.12</v>
+        <v>44.85</v>
       </c>
       <c r="E125" t="n">
-        <v>45.12</v>
+        <v>44.84</v>
       </c>
       <c r="F125" t="n">
-        <v>512.811</v>
+        <v>2810.1696</v>
       </c>
       <c r="G125" t="n">
-        <v>155363.36735707</v>
+        <v>68052.76185706997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5098,22 +5328,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>45.12</v>
+        <v>44.85</v>
       </c>
       <c r="C126" t="n">
-        <v>45.08</v>
+        <v>44.93</v>
       </c>
       <c r="D126" t="n">
-        <v>45.12</v>
+        <v>44.93</v>
       </c>
       <c r="E126" t="n">
-        <v>45.08</v>
+        <v>44.85</v>
       </c>
       <c r="F126" t="n">
-        <v>1178.1314</v>
+        <v>2277.2789</v>
       </c>
       <c r="G126" t="n">
-        <v>154185.23595707</v>
+        <v>70330.04075706998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5134,22 +5364,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="C127" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="D127" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="E127" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="F127" t="n">
-        <v>486.4483</v>
+        <v>959.809</v>
       </c>
       <c r="G127" t="n">
-        <v>154671.68425707</v>
+        <v>69370.23175706998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5170,22 +5400,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>45.08</v>
+        <v>44.94</v>
       </c>
       <c r="C128" t="n">
-        <v>45.13</v>
+        <v>44.94</v>
       </c>
       <c r="D128" t="n">
-        <v>45.13</v>
+        <v>44.94</v>
       </c>
       <c r="E128" t="n">
-        <v>45.08</v>
+        <v>44.94</v>
       </c>
       <c r="F128" t="n">
-        <v>1089.7423</v>
+        <v>11.9021</v>
       </c>
       <c r="G128" t="n">
-        <v>154671.68425707</v>
+        <v>69382.13385706999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5206,22 +5436,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="C129" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="D129" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="E129" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="F129" t="n">
-        <v>264.8308</v>
+        <v>20631.1884</v>
       </c>
       <c r="G129" t="n">
-        <v>154671.68425707</v>
+        <v>48750.94545706999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5242,22 +5472,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="C130" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="D130" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="E130" t="n">
-        <v>45.13</v>
+        <v>44.93</v>
       </c>
       <c r="F130" t="n">
-        <v>78.0718</v>
+        <v>11.927</v>
       </c>
       <c r="G130" t="n">
-        <v>154671.68425707</v>
+        <v>48762.87245706999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5278,22 +5508,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>45</v>
+        <v>44.78</v>
       </c>
       <c r="C131" t="n">
-        <v>44.98</v>
+        <v>44.78</v>
       </c>
       <c r="D131" t="n">
-        <v>45</v>
+        <v>44.78</v>
       </c>
       <c r="E131" t="n">
-        <v>44.98</v>
+        <v>44.78</v>
       </c>
       <c r="F131" t="n">
-        <v>15500</v>
+        <v>11878.1474</v>
       </c>
       <c r="G131" t="n">
-        <v>139171.68425707</v>
+        <v>36884.72505706999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5314,22 +5544,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>45.12</v>
+        <v>44.67</v>
       </c>
       <c r="C132" t="n">
-        <v>45.12</v>
+        <v>44.67</v>
       </c>
       <c r="D132" t="n">
-        <v>45.12</v>
+        <v>44.67</v>
       </c>
       <c r="E132" t="n">
-        <v>45.12</v>
+        <v>44.67</v>
       </c>
       <c r="F132" t="n">
-        <v>74.1846</v>
+        <v>500</v>
       </c>
       <c r="G132" t="n">
-        <v>139245.86885707</v>
+        <v>36384.72505706999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5350,22 +5580,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>44.98</v>
+        <v>44.67</v>
       </c>
       <c r="C133" t="n">
-        <v>44.98</v>
+        <v>44.82</v>
       </c>
       <c r="D133" t="n">
-        <v>44.98</v>
+        <v>44.82</v>
       </c>
       <c r="E133" t="n">
-        <v>44.98</v>
+        <v>44.6</v>
       </c>
       <c r="F133" t="n">
-        <v>3409.9999</v>
+        <v>967.9571999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>135835.86895707</v>
+        <v>37352.68225706999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5386,22 +5616,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>45.12</v>
+        <v>44.6</v>
       </c>
       <c r="C134" t="n">
-        <v>45.12</v>
+        <v>44.6</v>
       </c>
       <c r="D134" t="n">
-        <v>45.12</v>
+        <v>44.6</v>
       </c>
       <c r="E134" t="n">
-        <v>45.12</v>
+        <v>44.6</v>
       </c>
       <c r="F134" t="n">
-        <v>60.2073</v>
+        <v>894.5414</v>
       </c>
       <c r="G134" t="n">
-        <v>135896.07625707</v>
+        <v>36458.14085706999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5422,22 +5652,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="C135" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="D135" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="E135" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="F135" t="n">
-        <v>57.197</v>
+        <v>38716</v>
       </c>
       <c r="G135" t="n">
-        <v>135896.07625707</v>
+        <v>-2257.859142930014</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5458,22 +5688,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="C136" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="D136" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="E136" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="F136" t="n">
-        <v>382.5957</v>
+        <v>1419</v>
       </c>
       <c r="G136" t="n">
-        <v>135896.07625707</v>
+        <v>-2257.859142930014</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5494,28 +5724,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="C137" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="D137" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="E137" t="n">
-        <v>45.12</v>
+        <v>44.5</v>
       </c>
       <c r="F137" t="n">
-        <v>33</v>
+        <v>2282</v>
       </c>
       <c r="G137" t="n">
-        <v>135896.07625707</v>
+        <v>-2257.859142930014</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5530,28 +5760,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="C138" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="D138" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="E138" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="F138" t="n">
-        <v>2215.82096166</v>
+        <v>3630</v>
       </c>
       <c r="G138" t="n">
-        <v>138111.89721873</v>
+        <v>-2257.859142930014</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5566,28 +5796,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>45.12</v>
+        <v>44.82</v>
       </c>
       <c r="C139" t="n">
-        <v>45.12</v>
+        <v>44.83</v>
       </c>
       <c r="D139" t="n">
-        <v>45.12</v>
+        <v>44.83</v>
       </c>
       <c r="E139" t="n">
-        <v>45.12</v>
+        <v>44.82</v>
       </c>
       <c r="F139" t="n">
-        <v>2411</v>
+        <v>2500</v>
       </c>
       <c r="G139" t="n">
-        <v>135700.89721873</v>
+        <v>242.1408570699859</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5602,28 +5832,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="C140" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="D140" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="E140" t="n">
-        <v>45.13</v>
+        <v>44.5</v>
       </c>
       <c r="F140" t="n">
-        <v>54.3251</v>
+        <v>41556.3142</v>
       </c>
       <c r="G140" t="n">
-        <v>135755.22231873</v>
+        <v>-41314.17334293001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5638,28 +5868,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="C141" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="D141" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="E141" t="n">
-        <v>45.13</v>
+        <v>44.85</v>
       </c>
       <c r="F141" t="n">
-        <v>1208.54768083</v>
+        <v>11.7425</v>
       </c>
       <c r="G141" t="n">
-        <v>135755.22231873</v>
+        <v>-41302.43084293001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5669,6 +5899,1050 @@
       </c>
       <c r="N141" t="inlineStr"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="C142" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="D142" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="E142" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="F142" t="n">
+        <v>784.2586</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-41302.43084293001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11.9349</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-41290.49594293001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="C144" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4479.7733</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-45770.26924293002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11.1456</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-45759.12364293001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="C146" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D146" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E146" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="F146" t="n">
+        <v>26466.7949</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-19292.32874293001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="C147" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D147" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E147" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F147" t="n">
+        <v>266.1677</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-19292.32874293001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="C148" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D148" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E148" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3399</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-19292.32874293001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="C149" t="n">
+        <v>45</v>
+      </c>
+      <c r="D149" t="n">
+        <v>45</v>
+      </c>
+      <c r="E149" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="F149" t="n">
+        <v>174638.3288</v>
+      </c>
+      <c r="G149" t="n">
+        <v>155346.00005707</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>45</v>
+      </c>
+      <c r="C150" t="n">
+        <v>45</v>
+      </c>
+      <c r="D150" t="n">
+        <v>45</v>
+      </c>
+      <c r="E150" t="n">
+        <v>45</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2619.9998</v>
+      </c>
+      <c r="G150" t="n">
+        <v>155346.00005707</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="C151" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="F151" t="n">
+        <v>40.853</v>
+      </c>
+      <c r="G151" t="n">
+        <v>155386.85305707</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D152" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E152" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15.5719</v>
+      </c>
+      <c r="G152" t="n">
+        <v>155402.42495707</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C153" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D153" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E153" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F153" t="n">
+        <v>39.0576</v>
+      </c>
+      <c r="G153" t="n">
+        <v>155363.36735707</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D154" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E154" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F154" t="n">
+        <v>512.811</v>
+      </c>
+      <c r="G154" t="n">
+        <v>155363.36735707</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C155" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="D155" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E155" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1178.1314</v>
+      </c>
+      <c r="G155" t="n">
+        <v>154185.23595707</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C156" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D156" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E156" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F156" t="n">
+        <v>486.4483</v>
+      </c>
+      <c r="G156" t="n">
+        <v>154671.68425707</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="C157" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D157" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E157" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1089.7423</v>
+      </c>
+      <c r="G157" t="n">
+        <v>154671.68425707</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C158" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D158" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E158" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F158" t="n">
+        <v>264.8308</v>
+      </c>
+      <c r="G158" t="n">
+        <v>154671.68425707</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C159" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D159" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E159" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F159" t="n">
+        <v>78.0718</v>
+      </c>
+      <c r="G159" t="n">
+        <v>154671.68425707</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>45</v>
+      </c>
+      <c r="C160" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D160" t="n">
+        <v>45</v>
+      </c>
+      <c r="E160" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F160" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G160" t="n">
+        <v>139171.68425707</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C161" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D161" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E161" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F161" t="n">
+        <v>74.1846</v>
+      </c>
+      <c r="G161" t="n">
+        <v>139245.86885707</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="C162" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D162" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="E162" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3409.9999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>135835.86895707</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C163" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D163" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E163" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F163" t="n">
+        <v>60.2073</v>
+      </c>
+      <c r="G163" t="n">
+        <v>135896.07625707</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C164" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D164" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E164" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F164" t="n">
+        <v>57.197</v>
+      </c>
+      <c r="G164" t="n">
+        <v>135896.07625707</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C165" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D165" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E165" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F165" t="n">
+        <v>382.5957</v>
+      </c>
+      <c r="G165" t="n">
+        <v>135896.07625707</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C166" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D166" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E166" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F166" t="n">
+        <v>33</v>
+      </c>
+      <c r="G166" t="n">
+        <v>135896.07625707</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C167" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D167" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E167" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2215.82096166</v>
+      </c>
+      <c r="G167" t="n">
+        <v>138111.89721873</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="C168" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="D168" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="E168" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2411</v>
+      </c>
+      <c r="G168" t="n">
+        <v>135700.89721873</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C169" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D169" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E169" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F169" t="n">
+        <v>54.3251</v>
+      </c>
+      <c r="G169" t="n">
+        <v>135755.22231873</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="C170" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="D170" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="E170" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1208.54768083</v>
+      </c>
+      <c r="G170" t="n">
+        <v>135755.22231873</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-152761.55760793</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-152761.55760793</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>42.87</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,19 @@
         <v>-148318.55760793</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42.87</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +560,19 @@
         <v>-167552.68940793</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>43.26</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +597,19 @@
         <v>-166376.60950793</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +634,19 @@
         <v>-165638.24408512</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>43.18</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +671,19 @@
         <v>-165638.24408512</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>43.27</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +708,19 @@
         <v>-172954.31411054</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>43.27</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +745,19 @@
         <v>-172954.31411054</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>43.26</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +782,19 @@
         <v>-172954.31411054</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>43.26</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +819,19 @@
         <v>-168221.31411054</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>43.26</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +856,19 @@
         <v>-168221.31411054</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>43.27</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +893,19 @@
         <v>-163939.31411054</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>43.27</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,20 +932,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,20 +969,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1078,20 +1006,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1118,20 +1043,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1158,20 +1080,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1198,20 +1117,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1238,20 +1154,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1278,20 +1191,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1318,20 +1228,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1358,20 +1265,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1396,22 +1300,21 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1436,22 +1339,21 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1476,22 +1378,21 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>43.35</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1516,22 +1417,21 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.35</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1556,24 +1456,21 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
         <v>43.35</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1598,22 +1495,21 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>43.49</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1640,20 +1536,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1680,20 +1573,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1720,20 +1610,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1760,20 +1647,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1800,20 +1684,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1840,20 +1721,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1880,20 +1758,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1920,20 +1795,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1960,20 +1832,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2000,20 +1869,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2040,20 +1906,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2080,20 +1943,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2120,20 +1980,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2160,20 +2017,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2200,20 +2054,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2240,20 +2091,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2280,20 +2128,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2320,20 +2165,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2360,20 +2202,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2398,24 +2237,19 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2442,20 +2276,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2482,20 +2313,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2522,20 +2350,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2562,20 +2387,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2602,20 +2424,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2642,20 +2461,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2682,20 +2498,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2722,20 +2535,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2762,20 +2572,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2802,20 +2609,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2842,20 +2646,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2882,20 +2683,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2922,20 +2720,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2962,20 +2757,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3002,20 +2794,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3042,20 +2831,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3082,20 +2868,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3122,20 +2905,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3162,20 +2942,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3202,20 +2979,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3242,20 +3016,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3282,20 +3053,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3322,20 +3090,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3362,20 +3127,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3402,20 +3164,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3442,20 +3201,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3482,20 +3238,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3522,20 +3275,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3562,20 +3312,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3602,20 +3349,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3642,20 +3386,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3682,20 +3423,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3722,20 +3460,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3762,20 +3497,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3802,20 +3534,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3842,20 +3571,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3882,20 +3608,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3922,20 +3645,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3962,20 +3682,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4002,20 +3719,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4042,20 +3756,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4082,20 +3793,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4122,20 +3830,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4162,20 +3867,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4202,20 +3904,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4242,20 +3941,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4282,20 +3978,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4322,20 +4015,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4362,20 +4052,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4402,20 +4089,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4442,20 +4126,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4482,18 +4163,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4520,16 +4200,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4556,16 +4237,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4592,16 +4274,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4628,16 +4311,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4664,16 +4348,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4700,16 +4385,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4736,16 +4422,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4772,16 +4459,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4808,16 +4496,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4844,16 +4533,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4878,18 +4568,19 @@
         <v>77703.32865706999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4914,18 +4605,19 @@
         <v>71085.95015706998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4952,16 +4644,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4988,16 +4681,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5022,18 +4716,19 @@
         <v>74300.04895706997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5060,16 +4755,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5094,18 +4790,17 @@
         <v>85688.39355706997</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5132,16 +4827,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5166,18 +4858,15 @@
         <v>63962.98805706997</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5204,16 +4893,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5240,16 +4926,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5276,16 +4959,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5312,16 +4992,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5346,18 +5023,15 @@
         <v>70330.04075706998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5384,16 +5058,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5420,16 +5091,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5456,16 +5124,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5492,16 +5157,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5528,16 +5190,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5564,16 +5223,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5600,16 +5256,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5634,18 +5287,15 @@
         <v>36458.14085706999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5672,16 +5322,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5708,16 +5355,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5742,18 +5386,15 @@
         <v>-2257.859142930014</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5778,18 +5419,15 @@
         <v>-2257.859142930014</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5816,16 +5454,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5852,16 +5487,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5888,16 +5520,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5922,18 +5551,15 @@
         <v>-41302.43084293001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5958,18 +5584,15 @@
         <v>-41290.49594293001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5996,16 +5619,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6032,16 +5652,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6068,16 +5685,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6104,16 +5718,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6140,16 +5751,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6176,16 +5784,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6210,18 +5815,15 @@
         <v>155346.00005707</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6246,18 +5848,15 @@
         <v>155386.85305707</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6282,18 +5881,15 @@
         <v>155402.42495707</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6320,16 +5916,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6356,16 +5949,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6392,16 +5982,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6428,16 +6015,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6464,16 +6048,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6500,16 +6081,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6536,16 +6114,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6572,16 +6147,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6608,16 +6180,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6644,16 +6213,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6678,18 +6244,15 @@
         <v>135896.07625707</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6714,18 +6277,15 @@
         <v>135896.07625707</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6750,18 +6310,15 @@
         <v>135896.07625707</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6786,18 +6343,15 @@
         <v>135896.07625707</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6822,18 +6376,15 @@
         <v>138111.89721873</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6858,18 +6409,15 @@
         <v>135700.89721873</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6894,18 +6442,15 @@
         <v>135755.22231873</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6932,18 +6477,15 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-152761.55760793</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-152761.55760793</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>42.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1300,17 +1210,11 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>43.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1339,17 +1243,11 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>43.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,17 +1276,11 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1417,17 +1309,11 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>43.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1456,17 +1342,11 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>43.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1495,17 +1375,11 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>43.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1538,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1575,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1612,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1649,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1686,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1723,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1760,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1797,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1834,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1871,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1908,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1945,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1982,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2019,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2056,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2093,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2130,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2163,15 +1969,15 @@
         <v>-109555.20818502</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2200,13 +2006,17 @@
         <v>-109795.67298502</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>43.5</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2237,13 +2047,17 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>43.5</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2274,15 +2088,15 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2311,13 +2125,17 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2348,13 +2166,17 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44</v>
+      </c>
+      <c r="J53" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2385,15 +2207,15 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>44</v>
+      </c>
+      <c r="J54" t="n">
+        <v>44</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2422,13 +2244,17 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>44</v>
+      </c>
+      <c r="J55" t="n">
+        <v>44</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2459,13 +2285,17 @@
         <v>-107767.11288502</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>44</v>
+      </c>
+      <c r="J56" t="n">
+        <v>44</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2496,13 +2326,17 @@
         <v>-102433.13628502</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>44.14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>44</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2533,10 +2367,14 @@
         <v>-60395.46748501998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>44.21</v>
+      </c>
+      <c r="J58" t="n">
+        <v>44</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,10 +2408,14 @@
         <v>-60395.46748501998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>44</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2610,7 +2452,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>44</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2647,7 +2491,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>44</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2684,7 +2530,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>44</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2721,7 +2569,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>44</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,7 +2608,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>44</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2795,7 +2647,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>44</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2832,7 +2686,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>44</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,7 +2725,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>44</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2906,7 +2764,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>44</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2943,7 +2803,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>44</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,7 +2842,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>44</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3017,7 +2881,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>44</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3054,7 +2920,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>44</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3091,7 +2959,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>44</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,7 +2998,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>44</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3165,7 +3037,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>44</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,7 +3076,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>44</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3239,7 +3115,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>44</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3276,7 +3154,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>44</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3313,7 +3193,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>44</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,7 +3232,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>44</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3387,7 +3271,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>44</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,7 +3310,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>44</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,7 +3349,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>44</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,7 +3388,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>44</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,7 +3427,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>44</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,7 +3466,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>44</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,7 +3505,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>44</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3646,7 +3544,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>44</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3683,7 +3583,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>44</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,7 +3622,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>44</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3757,7 +3661,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>44</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3794,7 +3700,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>44</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,7 +3739,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>44</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3868,7 +3778,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>44</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,7 +3817,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>44</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,7 +3856,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>44</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,7 +3895,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>44</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,7 +3934,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>44</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4053,7 +3973,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>44</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4090,7 +4012,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>44</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4127,7 +4051,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>44</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4164,7 +4090,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>44</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4201,7 +4129,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>44</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,7 +4168,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>44</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,7 +4207,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>44</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,7 +4246,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>44</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4349,7 +4285,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>44</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,7 +4324,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>44</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,7 +4363,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>44</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,7 +4402,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>44</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,7 +4441,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>44</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4534,7 +4480,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>44</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,10 +4516,12 @@
         <v>77703.32865706999</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>44</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,10 +4555,12 @@
         <v>71085.95015706998</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>44</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,7 +4597,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>44</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4682,7 +4636,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>44</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,10 +4672,12 @@
         <v>74300.04895706997</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>44</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4756,7 +4714,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>44</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,16 +4750,20 @@
         <v>85688.39355706997</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>44</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
       <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4828,8 +4792,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>44</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4858,11 +4828,17 @@
         <v>63962.98805706997</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>44</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4894,8 +4870,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>44</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4927,8 +4909,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>44</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +4948,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>44</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4993,8 +4987,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>44</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +5023,17 @@
         <v>70330.04075706998</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>44</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5065,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>44</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5089,13 +5101,19 @@
         <v>69382.13385706999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>44</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>1.016363636363636</v>
       </c>
       <c r="M128" t="inlineStr"/>
     </row>
@@ -5122,7 +5140,7 @@
         <v>48750.94545706999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5287,7 +5305,7 @@
         <v>36458.14085706999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5386,7 +5404,7 @@
         <v>-2257.859142930014</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5419,7 +5437,7 @@
         <v>-2257.859142930014</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5485,7 +5503,7 @@
         <v>-41314.17334293001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5518,7 +5536,7 @@
         <v>-41302.43084293001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5551,7 +5569,7 @@
         <v>-41302.43084293001</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5584,7 +5602,7 @@
         <v>-41290.49594293001</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5617,7 +5635,7 @@
         <v>-45770.26924293002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5650,7 +5668,7 @@
         <v>-45759.12364293001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5683,7 +5701,7 @@
         <v>-19292.32874293001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5716,7 +5734,7 @@
         <v>-19292.32874293001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5749,7 +5767,7 @@
         <v>-19292.32874293001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5782,7 +5800,7 @@
         <v>155346.00005707</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5815,7 +5833,7 @@
         <v>155346.00005707</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5848,7 +5866,7 @@
         <v>155386.85305707</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5881,7 +5899,7 @@
         <v>155402.42495707</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6244,7 +6262,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6277,7 +6295,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6310,7 +6328,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6343,7 +6361,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6376,7 +6394,7 @@
         <v>138111.89721873</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6409,7 +6427,7 @@
         <v>135700.89721873</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6442,7 +6460,7 @@
         <v>135755.22231873</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6475,7 +6493,7 @@
         <v>135755.22231873</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6486,6 +6504,6 @@
       <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,7 +1144,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-87375.78249777999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-87375.78249777999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-99628.01628501998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-92871.89588501999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-93348.03728501998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-115575.20818502</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-115575.20818502</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,14 +1969,10 @@
         <v>-109555.20818502</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>43.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2006,19 +2002,11 @@
         <v>-109795.67298502</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2047,19 +2035,11 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,14 +2068,10 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>43.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2125,19 +2101,11 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2166,19 +2134,11 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>44</v>
-      </c>
-      <c r="J53" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2326,19 +2286,11 @@
         <v>-102433.13628502</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>44.14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>44</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2372,12 +2324,10 @@
       <c r="I58" t="n">
         <v>44.21</v>
       </c>
-      <c r="J58" t="n">
-        <v>44</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2408,14 +2358,10 @@
         <v>-60395.46748501998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2452,9 +2398,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>44</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2491,9 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>44</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2530,9 +2472,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>44</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2569,9 +2509,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>44</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2608,9 +2546,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>44</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2647,9 +2583,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>44</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,9 +2620,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>44</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2725,9 +2657,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>44</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2764,9 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>44</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2803,9 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>44</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,9 +2768,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>44</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,9 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>44</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,9 +2842,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>44</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2959,9 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>44</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,9 +2916,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>44</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3037,9 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>44</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3076,9 +2990,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>44</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3115,9 +3027,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>44</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,9 +3064,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>44</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3193,9 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>44</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3232,9 +3138,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>44</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3271,9 +3175,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>44</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,9 +3212,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>44</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3349,9 +3249,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>44</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,9 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>44</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,9 +3323,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>44</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,9 +3360,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>44</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,9 +3397,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>44</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,9 +3434,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>44</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,9 +3471,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>44</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3622,9 +3508,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>44</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,9 +3545,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>44</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,9 +3582,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>44</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3739,9 +3619,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>44</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,9 +3656,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>44</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3817,9 +3693,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>44</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,9 +3730,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>44</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,9 +3767,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>44</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,9 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>44</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3973,9 +3841,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>44</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,9 +3878,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>44</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4051,9 +3915,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>44</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4090,9 +3952,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>44</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4129,9 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>44</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4168,9 +4026,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>44</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4207,9 +4063,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>44</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,9 +4100,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>44</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4285,9 +4137,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>44</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,9 +4174,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>44</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4363,9 +4211,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>44</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4402,9 +4248,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>44</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4441,9 +4285,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>44</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,9 +4322,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>44</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4519,9 +4359,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>44</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4558,9 +4396,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>44</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,9 +4433,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>44</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,9 +4470,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>44</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4675,9 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>44</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,9 +4544,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>44</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,9 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>44</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4792,9 +4618,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>44</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4831,9 +4655,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>44</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,9 +4692,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>44</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,9 +4729,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>44</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4948,9 +4766,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>44</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4987,9 +4803,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>44</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5026,9 +4840,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>44</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5065,9 +4877,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>44</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5101,19 +4911,17 @@
         <v>69382.13385706999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>44</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.016363636363636</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
     </row>
@@ -5140,11 +4948,15 @@
         <v>48750.94545706999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5177,7 +4989,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5210,7 +5026,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5243,7 +5063,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5276,7 +5100,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5309,7 +5137,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5342,7 +5174,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5375,7 +5211,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5408,7 +5248,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5441,7 +5285,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5474,7 +5322,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +5355,15 @@
         <v>-41314.17334293001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +5392,15 @@
         <v>-41302.43084293001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +5429,15 @@
         <v>-41302.43084293001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5602,11 +5466,15 @@
         <v>-41290.49594293001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +5503,15 @@
         <v>-45770.26924293002</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5668,11 +5540,15 @@
         <v>-45759.12364293001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5701,11 +5577,15 @@
         <v>-19292.32874293001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5734,11 +5614,15 @@
         <v>-19292.32874293001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5767,11 +5651,15 @@
         <v>-19292.32874293001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5800,11 +5688,15 @@
         <v>155346.00005707</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5833,11 +5725,15 @@
         <v>155346.00005707</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5866,11 +5762,15 @@
         <v>155386.85305707</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5899,11 +5799,15 @@
         <v>155402.42495707</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5936,7 +5840,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5969,7 +5877,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6002,7 +5914,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6035,7 +5951,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6068,7 +5988,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6101,7 +6025,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6134,7 +6062,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6167,7 +6099,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6200,7 +6136,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6173,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6266,7 +6210,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6299,7 +6247,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6332,7 +6284,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6361,11 +6317,15 @@
         <v>135896.07625707</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +6354,15 @@
         <v>138111.89721873</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6427,11 +6391,15 @@
         <v>135700.89721873</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6460,11 +6428,15 @@
         <v>135755.22231873</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6493,17 +6465,21 @@
         <v>135755.22231873</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
       <c r="M170" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -1144,7 +1144,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-87375.78249777999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-87375.78249777999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-99628.01628501998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-92871.89588501999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-93348.03728501998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-115575.20818502</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-115575.20818502</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,10 +1969,14 @@
         <v>-109555.20818502</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>43.5</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2002,11 +2006,19 @@
         <v>-109795.67298502</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2047,19 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,10 +2088,14 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>43.9</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2101,11 +2125,19 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2166,19 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44</v>
+      </c>
+      <c r="J53" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2326,19 @@
         <v>-102433.13628502</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>44.14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>44</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2324,10 +2372,12 @@
       <c r="I58" t="n">
         <v>44.21</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>44</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2361,7 +2411,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>44</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,7 +2450,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>44</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2435,7 +2489,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>44</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,7 +2528,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>44</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2509,7 +2567,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>44</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2546,7 +2606,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>44</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,7 +2645,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>44</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,7 +2684,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>44</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,7 +2723,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>44</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2694,7 +2762,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>44</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2731,7 +2801,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>44</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,7 +2840,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>44</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,7 +2879,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>44</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,7 +2918,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>44</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2879,7 +2957,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>44</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,7 +2996,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>44</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2953,7 +3035,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>44</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,7 +3074,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>44</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3027,7 +3113,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>44</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,7 +3152,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>44</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3101,7 +3191,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>44</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,7 +3230,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>44</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,7 +3269,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>44</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,7 +3308,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>44</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,7 +3347,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>44</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,7 +3386,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>44</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3323,7 +3425,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>44</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,7 +3464,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>44</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,7 +3503,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>44</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,7 +3542,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>44</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,7 +3581,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>44</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,7 +3620,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>44</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3545,7 +3659,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>44</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,7 +3698,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>44</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3619,7 +3737,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>44</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,7 +3776,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>44</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3693,7 +3815,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>44</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,7 +3854,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>44</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3767,7 +3893,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>44</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,7 +3932,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>44</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3841,7 +3971,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>44</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,7 +4010,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>44</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3915,7 +4049,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>44</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,7 +4088,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>44</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,7 +4127,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>44</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4026,7 +4166,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>44</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,7 +4205,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>44</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4097,17 +4241,19 @@
         <v>131014.00665707</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>44</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>1.002954545454546</v>
       </c>
       <c r="M106" t="inlineStr"/>
     </row>
@@ -4138,11 +4284,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +4317,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4212,11 +4350,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4383,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4286,11 +4416,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4323,11 +4449,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4360,11 +4482,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4397,11 +4515,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4434,11 +4548,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4471,11 +4581,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4614,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4545,11 +4647,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4680,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4713,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4656,11 +4746,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +4779,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4726,15 +4808,11 @@
         <v>63975.12365706997</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4763,15 +4841,11 @@
         <v>65242.59225706997</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4800,15 +4874,11 @@
         <v>68052.76185706997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4837,15 +4907,11 @@
         <v>70330.04075706998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4874,15 +4940,11 @@
         <v>69370.23175706998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4911,15 +4973,11 @@
         <v>69382.13385706999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4948,15 +5006,11 @@
         <v>48750.94545706999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4985,15 +5039,11 @@
         <v>48762.87245706999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5022,15 +5072,11 @@
         <v>36884.72505706999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +5109,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +5142,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5175,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5174,11 +5208,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5211,11 +5241,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +5274,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5307,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5322,11 +5340,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +5373,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5406,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5439,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5472,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +5505,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +5538,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +5571,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5604,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5637,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5670,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5725,15 +5699,11 @@
         <v>155346.00005707</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5762,15 +5732,11 @@
         <v>155386.85305707</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5799,15 +5765,11 @@
         <v>155402.42495707</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5836,15 +5798,11 @@
         <v>155363.36735707</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5873,15 +5831,11 @@
         <v>155363.36735707</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5910,15 +5864,11 @@
         <v>154185.23595707</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5947,15 +5897,11 @@
         <v>154671.68425707</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5984,15 +5930,11 @@
         <v>154671.68425707</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6021,15 +5963,11 @@
         <v>154671.68425707</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6058,15 +5996,11 @@
         <v>154671.68425707</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6095,15 +6029,11 @@
         <v>139171.68425707</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6132,15 +6062,11 @@
         <v>139245.86885707</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6169,15 +6095,11 @@
         <v>135835.86895707</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6206,15 +6128,11 @@
         <v>135896.07625707</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6243,15 +6161,11 @@
         <v>135896.07625707</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6280,15 +6194,11 @@
         <v>135896.07625707</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6317,15 +6227,11 @@
         <v>135896.07625707</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6354,15 +6260,11 @@
         <v>138111.89721873</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6391,15 +6293,11 @@
         <v>135700.89721873</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6428,15 +6326,11 @@
         <v>135755.22231873</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6465,15 +6359,11 @@
         <v>135755.22231873</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest POWR.xlsx
+++ b/BackTest/2020-01-16 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>32328.588</v>
       </c>
       <c r="G2" t="n">
-        <v>-152761.55760793</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4200</v>
       </c>
       <c r="G3" t="n">
-        <v>-152761.55760793</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>4443</v>
       </c>
       <c r="G4" t="n">
-        <v>-148318.55760793</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>42.87</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42.87</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,23 @@
         <v>19234.1318</v>
       </c>
       <c r="G5" t="n">
-        <v>-167552.68940793</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>43.26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,23 @@
         <v>1176.0799</v>
       </c>
       <c r="G6" t="n">
-        <v>-166376.60950793</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>42.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +613,19 @@
         <v>738.36542281</v>
       </c>
       <c r="G7" t="n">
-        <v>-165638.24408512</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>43.18</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43.18</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +647,21 @@
         <v>244.3176</v>
       </c>
       <c r="G8" t="n">
-        <v>-165638.24408512</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +683,21 @@
         <v>7316.07002542</v>
       </c>
       <c r="G9" t="n">
-        <v>-172954.31411054</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,15 @@
         <v>3389</v>
       </c>
       <c r="G10" t="n">
-        <v>-172954.31411054</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +749,15 @@
         <v>1395</v>
       </c>
       <c r="G11" t="n">
-        <v>-172954.31411054</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +779,15 @@
         <v>4733</v>
       </c>
       <c r="G12" t="n">
-        <v>-168221.31411054</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +809,15 @@
         <v>2317.13045177</v>
       </c>
       <c r="G13" t="n">
-        <v>-168221.31411054</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +839,15 @@
         <v>4282</v>
       </c>
       <c r="G14" t="n">
-        <v>-163939.31411054</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +869,15 @@
         <v>68827.1822</v>
       </c>
       <c r="G15" t="n">
-        <v>-163939.31411054</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +899,15 @@
         <v>7200</v>
       </c>
       <c r="G16" t="n">
-        <v>-156739.31411054</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +929,15 @@
         <v>1200</v>
       </c>
       <c r="G17" t="n">
-        <v>-156739.31411054</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +959,15 @@
         <v>26134.0978</v>
       </c>
       <c r="G18" t="n">
-        <v>-130605.21631054</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +989,15 @@
         <v>5848.2967</v>
       </c>
       <c r="G19" t="n">
-        <v>-136453.51301054</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1019,15 @@
         <v>9242.3524</v>
       </c>
       <c r="G20" t="n">
-        <v>-136453.51301054</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1049,15 @@
         <v>64580.7211</v>
       </c>
       <c r="G21" t="n">
-        <v>-136453.51301054</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1079,15 @@
         <v>51640.65</v>
       </c>
       <c r="G22" t="n">
-        <v>-136453.51301054</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1109,19 @@
         <v>108969.6922</v>
       </c>
       <c r="G23" t="n">
-        <v>-136453.51301054</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>43.4</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1143,23 @@
         <v>41545</v>
       </c>
       <c r="G24" t="n">
-        <v>-136453.51301054</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1181,23 @@
         <v>803.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>-136453.51301054</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1219,23 @@
         <v>794</v>
       </c>
       <c r="G26" t="n">
-        <v>-137247.51301054</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1257,23 @@
         <v>1200</v>
       </c>
       <c r="G27" t="n">
-        <v>-137247.51301054</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>43.35</v>
+      </c>
+      <c r="I27" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1295,23 @@
         <v>709</v>
       </c>
       <c r="G28" t="n">
-        <v>-137247.51301054</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>43.35</v>
+      </c>
+      <c r="I28" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1333,23 @@
         <v>127.73051276</v>
       </c>
       <c r="G29" t="n">
-        <v>-137119.78249778</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>43.35</v>
+      </c>
+      <c r="I29" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1371,23 @@
         <v>196.2432</v>
       </c>
       <c r="G30" t="n">
-        <v>-137119.78249778</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>43.49</v>
+      </c>
+      <c r="I30" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1409,23 @@
         <v>49744</v>
       </c>
       <c r="G31" t="n">
-        <v>-87375.78249777999</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>43.49</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1447,23 @@
         <v>2476.1494</v>
       </c>
       <c r="G32" t="n">
-        <v>-87375.78249777999</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>43.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1485,21 @@
         <v>12252.23378724</v>
       </c>
       <c r="G33" t="n">
-        <v>-99628.01628501998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1521,21 @@
         <v>6756.1204</v>
       </c>
       <c r="G34" t="n">
-        <v>-92871.89588501999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1557,21 @@
         <v>2930</v>
       </c>
       <c r="G35" t="n">
-        <v>-89941.89588501999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1593,21 @@
         <v>482.3305</v>
       </c>
       <c r="G36" t="n">
-        <v>-89941.89588501999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1629,21 @@
         <v>25564.6568</v>
       </c>
       <c r="G37" t="n">
-        <v>-89941.89588501999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1665,21 @@
         <v>14903.6188</v>
       </c>
       <c r="G38" t="n">
-        <v>-89941.89588501999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1701,21 @@
         <v>3406.1414</v>
       </c>
       <c r="G39" t="n">
-        <v>-93348.03728501998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1737,23 @@
         <v>1310</v>
       </c>
       <c r="G40" t="n">
-        <v>-92038.03728501998</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>43.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1775,23 @@
         <v>550</v>
       </c>
       <c r="G41" t="n">
-        <v>-92038.03728501998</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>43.6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1813,23 @@
         <v>2668.168</v>
       </c>
       <c r="G42" t="n">
-        <v>-92038.03728501998</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>43.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1851,23 @@
         <v>2402.4</v>
       </c>
       <c r="G43" t="n">
-        <v>-92038.03728501998</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>43.6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1889,23 @@
         <v>5744.3218</v>
       </c>
       <c r="G44" t="n">
-        <v>-92038.03728501998</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>43.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1927,23 @@
         <v>1427</v>
       </c>
       <c r="G45" t="n">
-        <v>-92038.03728501998</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>43.6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1965,21 @@
         <v>23537.1709</v>
       </c>
       <c r="G46" t="n">
-        <v>-115575.20818502</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2001,23 @@
         <v>14424</v>
       </c>
       <c r="G47" t="n">
-        <v>-115575.20818502</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>43.5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,22 +2039,23 @@
         <v>6020</v>
       </c>
       <c r="G48" t="n">
-        <v>-109555.20818502</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>43.5</v>
       </c>
       <c r="I48" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2003,26 +2077,23 @@
         <v>240.4648</v>
       </c>
       <c r="G49" t="n">
-        <v>-109795.67298502</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>43.9</v>
       </c>
       <c r="I49" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2044,26 +2115,23 @@
         <v>1043.3129</v>
       </c>
       <c r="G50" t="n">
-        <v>-108752.36008502</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>43.6</v>
       </c>
       <c r="I50" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2085,22 +2153,21 @@
         <v>624.3268</v>
       </c>
       <c r="G51" t="n">
-        <v>-108752.36008502</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2122,26 +2189,23 @@
         <v>824.2472</v>
       </c>
       <c r="G52" t="n">
-        <v>-107928.11288502</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>43.9</v>
       </c>
       <c r="I52" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2163,26 +2227,21 @@
         <v>9130.8585</v>
       </c>
       <c r="G53" t="n">
-        <v>-107928.11288502</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>44</v>
-      </c>
-      <c r="J53" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2204,22 +2263,21 @@
         <v>373.9803</v>
       </c>
       <c r="G54" t="n">
-        <v>-107928.11288502</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>44</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2241,26 +2299,21 @@
         <v>2854.8231</v>
       </c>
       <c r="G55" t="n">
-        <v>-107928.11288502</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>44</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2282,26 +2335,21 @@
         <v>161</v>
       </c>
       <c r="G56" t="n">
-        <v>-107767.11288502</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>44</v>
-      </c>
-      <c r="J56" t="n">
-        <v>44</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2323,26 +2371,21 @@
         <v>5333.9766</v>
       </c>
       <c r="G57" t="n">
-        <v>-102433.13628502</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>44.14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>44</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2364,26 +2407,21 @@
         <v>42037.6688</v>
       </c>
       <c r="G58" t="n">
-        <v>-60395.46748501998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>44.21</v>
-      </c>
-      <c r="J58" t="n">
-        <v>44</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>43.4</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2405,24 +2443,21 @@
         <v>1664.1594</v>
       </c>
       <c r="G59" t="n">
-        <v>-60395.46748501998</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>44</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2444,24 +2479,21 @@
         <v>3384.7152</v>
       </c>
       <c r="G60" t="n">
-        <v>-60395.46748501998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>44</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2483,24 +2515,21 @@
         <v>1090.1174</v>
       </c>
       <c r="G61" t="n">
-        <v>-60395.46748501998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>44</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2522,24 +2551,21 @@
         <v>2365.6389</v>
       </c>
       <c r="G62" t="n">
-        <v>-58029.82858501998</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>44</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2561,24 +2587,21 @@
         <v>865.2595</v>
       </c>
       <c r="G63" t="n">
-        <v>-57164.56908501998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>44</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2600,24 +2623,21 @@
         <v>709</v>
       </c>
       <c r="G64" t="n">
-        <v>-57873.56908501998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>44</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2639,24 +2659,21 @@
         <v>89.4563</v>
       </c>
       <c r="G65" t="n">
-        <v>-57873.56908501998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>44</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2678,24 +2695,21 @@
         <v>415.2134</v>
       </c>
       <c r="G66" t="n">
-        <v>-58288.78248501998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>44</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2717,24 +2731,21 @@
         <v>13962.4336</v>
       </c>
       <c r="G67" t="n">
-        <v>-58288.78248501998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>44</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2756,24 +2767,21 @@
         <v>12.329</v>
       </c>
       <c r="G68" t="n">
-        <v>-58276.45348501999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>44</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2795,24 +2803,21 @@
         <v>17503</v>
       </c>
       <c r="G69" t="n">
-        <v>-75779.45348501999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>44</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2834,24 +2839,21 @@
         <v>108742.7897</v>
       </c>
       <c r="G70" t="n">
-        <v>32963.33621498001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>44</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2873,24 +2875,21 @@
         <v>589.5</v>
       </c>
       <c r="G71" t="n">
-        <v>32963.33621498001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>44</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,24 +2911,21 @@
         <v>202.895</v>
       </c>
       <c r="G72" t="n">
-        <v>33166.23121498001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>44</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2951,24 +2947,21 @@
         <v>131</v>
       </c>
       <c r="G73" t="n">
-        <v>33035.23121498001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>44</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2990,24 +2983,21 @@
         <v>70.89</v>
       </c>
       <c r="G74" t="n">
-        <v>33035.23121498001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>44</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3029,24 +3019,21 @@
         <v>701.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>32333.23131498001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>44</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3068,24 +3055,21 @@
         <v>5897.2477</v>
       </c>
       <c r="G76" t="n">
-        <v>26435.98361498001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>44</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3107,24 +3091,21 @@
         <v>12.357</v>
       </c>
       <c r="G77" t="n">
-        <v>26448.34061498001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>44</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3146,24 +3127,21 @@
         <v>8088</v>
       </c>
       <c r="G78" t="n">
-        <v>18360.34061498001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>44</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3185,24 +3163,21 @@
         <v>2818.90497737</v>
       </c>
       <c r="G79" t="n">
-        <v>15541.43563761001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>44</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3224,24 +3199,21 @@
         <v>19139.9507</v>
       </c>
       <c r="G80" t="n">
-        <v>-3598.515062389994</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>44</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3263,24 +3235,21 @@
         <v>4833.265</v>
       </c>
       <c r="G81" t="n">
-        <v>-3598.515062389994</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>44</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3302,24 +3271,21 @@
         <v>1309.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>-2288.515162389994</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>44</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3341,24 +3307,21 @@
         <v>13923.5584</v>
       </c>
       <c r="G83" t="n">
-        <v>-16212.07356238999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>44</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3380,24 +3343,21 @@
         <v>37.0584</v>
       </c>
       <c r="G84" t="n">
-        <v>-16175.01516238999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>44</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3419,24 +3379,21 @@
         <v>6963.3588</v>
       </c>
       <c r="G85" t="n">
-        <v>-9211.656362389993</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>44</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3458,24 +3415,21 @@
         <v>49.316</v>
       </c>
       <c r="G86" t="n">
-        <v>-9162.340362389992</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>44</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3497,24 +3451,21 @@
         <v>1788.5416</v>
       </c>
       <c r="G87" t="n">
-        <v>-9162.340362389992</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>44</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3536,24 +3487,21 @@
         <v>3875.8965</v>
       </c>
       <c r="G88" t="n">
-        <v>-5286.443862389992</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>44</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3575,24 +3523,21 @@
         <v>4309.2627</v>
       </c>
       <c r="G89" t="n">
-        <v>-5286.443862389992</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>44</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3614,24 +3559,21 @@
         <v>4672.0128</v>
       </c>
       <c r="G90" t="n">
-        <v>-5286.443862389992</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>44</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3653,24 +3595,21 @@
         <v>2682</v>
       </c>
       <c r="G91" t="n">
-        <v>-7968.443862389992</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>44</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3692,24 +3631,21 @@
         <v>57897.9713</v>
       </c>
       <c r="G92" t="n">
-        <v>49929.52743761001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>44</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3731,24 +3667,21 @@
         <v>29178.8638</v>
       </c>
       <c r="G93" t="n">
-        <v>20750.66363761001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>44</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,24 +3703,21 @@
         <v>3934.7786</v>
       </c>
       <c r="G94" t="n">
-        <v>16815.88503761001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>44</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3809,24 +3739,21 @@
         <v>3247.161</v>
       </c>
       <c r="G95" t="n">
-        <v>20063.04603761001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>44</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3848,24 +3775,21 @@
         <v>1394.6624</v>
       </c>
       <c r="G96" t="n">
-        <v>20063.04603761001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>44</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3887,24 +3811,21 @@
         <v>950.7661000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>19112.27993761</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>44</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3926,24 +3847,21 @@
         <v>1246.3739</v>
       </c>
       <c r="G98" t="n">
-        <v>20358.65383761</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>44</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3965,24 +3883,21 @@
         <v>1339.2467</v>
       </c>
       <c r="G99" t="n">
-        <v>20358.65383761</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>44</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4004,24 +3919,21 @@
         <v>121761.8574</v>
       </c>
       <c r="G100" t="n">
-        <v>142120.51123761</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>44</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4043,24 +3955,21 @@
         <v>459</v>
       </c>
       <c r="G101" t="n">
-        <v>141661.51123761</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>44</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4082,24 +3991,21 @@
         <v>12.5576</v>
       </c>
       <c r="G102" t="n">
-        <v>141674.06883761</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>44</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4121,24 +4027,21 @@
         <v>7100</v>
       </c>
       <c r="G103" t="n">
-        <v>134574.06883761</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>44</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4160,24 +4063,21 @@
         <v>124.02321946</v>
       </c>
       <c r="G104" t="n">
-        <v>134698.09205707</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>44</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4199,24 +4099,21 @@
         <v>3348.0854</v>
       </c>
       <c r="G105" t="n">
-        <v>131350.00665707</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>44</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4238,24 +4135,21 @@
         <v>336</v>
       </c>
       <c r="G106" t="n">
-        <v>131014.00665707</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>44</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1.002954545454546</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4277,18 +4171,21 @@
         <v>12.6082</v>
       </c>
       <c r="G107" t="n">
-        <v>131026.61485707</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4310,18 +4207,21 @@
         <v>0.3462</v>
       </c>
       <c r="G108" t="n">
-        <v>131026.26865707</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4343,18 +4243,21 @@
         <v>53108.3032</v>
       </c>
       <c r="G109" t="n">
-        <v>77917.96545706998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4376,18 +4279,21 @@
         <v>251.002</v>
       </c>
       <c r="G110" t="n">
-        <v>77666.96345706999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4409,18 +4315,21 @@
         <v>687.2061</v>
       </c>
       <c r="G111" t="n">
-        <v>77666.96345706999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4442,18 +4351,21 @@
         <v>64.3986</v>
       </c>
       <c r="G112" t="n">
-        <v>77666.96345706999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4475,18 +4387,21 @@
         <v>36.3652</v>
       </c>
       <c r="G113" t="n">
-        <v>77703.32865706999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4508,18 +4423,21 @@
         <v>6617.3785</v>
       </c>
       <c r="G114" t="n">
-        <v>71085.95015706998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4541,18 +4459,21 @@
         <v>2268.7024</v>
       </c>
       <c r="G115" t="n">
-        <v>73354.65255706997</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4574,18 +4495,21 @@
         <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>73354.65255706997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4607,18 +4531,21 @@
         <v>945.3964</v>
       </c>
       <c r="G117" t="n">
-        <v>74300.04895706997</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4640,18 +4567,21 @@
         <v>11.9317</v>
       </c>
       <c r="G118" t="n">
-        <v>74311.98065706997</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4673,18 +4603,21 @@
         <v>11376.4129</v>
       </c>
       <c r="G119" t="n">
-        <v>85688.39355706997</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,18 +4639,21 @@
         <v>21737.398</v>
       </c>
       <c r="G120" t="n">
-        <v>63950.99555706997</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4739,18 +4675,21 @@
         <v>11.9925</v>
       </c>
       <c r="G121" t="n">
-        <v>63962.98805706997</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4772,18 +4711,21 @@
         <v>2564.3488</v>
       </c>
       <c r="G122" t="n">
-        <v>63962.98805706997</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4805,18 +4747,21 @@
         <v>12.1356</v>
       </c>
       <c r="G123" t="n">
-        <v>63975.12365706997</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4838,18 +4783,21 @@
         <v>1267.4686</v>
       </c>
       <c r="G124" t="n">
-        <v>65242.59225706997</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4871,18 +4819,21 @@
         <v>2810.1696</v>
       </c>
       <c r="G125" t="n">
-        <v>68052.76185706997</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4904,18 +4855,21 @@
         <v>2277.2789</v>
       </c>
       <c r="G126" t="n">
-        <v>70330.04075706998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4937,18 +4891,21 @@
         <v>959.809</v>
       </c>
       <c r="G127" t="n">
-        <v>69370.23175706998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4970,18 +4927,21 @@
         <v>11.9021</v>
       </c>
       <c r="G128" t="n">
-        <v>69382.13385706999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5003,18 +4963,21 @@
         <v>20631.1884</v>
       </c>
       <c r="G129" t="n">
-        <v>48750.94545706999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5036,18 +4999,21 @@
         <v>11.927</v>
       </c>
       <c r="G130" t="n">
-        <v>48762.87245706999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5069,18 +5035,21 @@
         <v>11878.1474</v>
       </c>
       <c r="G131" t="n">
-        <v>36884.72505706999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5102,18 +5071,21 @@
         <v>500</v>
       </c>
       <c r="G132" t="n">
-        <v>36384.72505706999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5135,18 +5107,21 @@
         <v>967.9571999999999</v>
       </c>
       <c r="G133" t="n">
-        <v>37352.68225706999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5168,18 +5143,21 @@
         <v>894.5414</v>
       </c>
       <c r="G134" t="n">
-        <v>36458.14085706999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5201,18 +5179,21 @@
         <v>38716</v>
       </c>
       <c r="G135" t="n">
-        <v>-2257.859142930014</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5234,18 +5215,21 @@
         <v>1419</v>
       </c>
       <c r="G136" t="n">
-        <v>-2257.859142930014</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5267,18 +5251,21 @@
         <v>2282</v>
       </c>
       <c r="G137" t="n">
-        <v>-2257.859142930014</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5300,18 +5287,21 @@
         <v>3630</v>
       </c>
       <c r="G138" t="n">
-        <v>-2257.859142930014</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5333,18 +5323,21 @@
         <v>2500</v>
       </c>
       <c r="G139" t="n">
-        <v>242.1408570699859</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5366,18 +5359,21 @@
         <v>41556.3142</v>
       </c>
       <c r="G140" t="n">
-        <v>-41314.17334293001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5399,18 +5395,21 @@
         <v>11.7425</v>
       </c>
       <c r="G141" t="n">
-        <v>-41302.43084293001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5432,18 +5431,21 @@
         <v>784.2586</v>
       </c>
       <c r="G142" t="n">
-        <v>-41302.43084293001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5465,18 +5467,21 @@
         <v>11.9349</v>
       </c>
       <c r="G143" t="n">
-        <v>-41290.49594293001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5498,18 +5503,21 @@
         <v>4479.7733</v>
       </c>
       <c r="G144" t="n">
-        <v>-45770.26924293002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5531,18 +5539,21 @@
         <v>11.1456</v>
       </c>
       <c r="G145" t="n">
-        <v>-45759.12364293001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5564,18 +5575,21 @@
         <v>26466.7949</v>
       </c>
       <c r="G146" t="n">
-        <v>-19292.32874293001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5597,18 +5611,21 @@
         <v>266.1677</v>
       </c>
       <c r="G147" t="n">
-        <v>-19292.32874293001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5630,18 +5647,21 @@
         <v>3399</v>
       </c>
       <c r="G148" t="n">
-        <v>-19292.32874293001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5663,18 +5683,21 @@
         <v>174638.3288</v>
       </c>
       <c r="G149" t="n">
-        <v>155346.00005707</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5696,18 +5719,21 @@
         <v>2619.9998</v>
       </c>
       <c r="G150" t="n">
-        <v>155346.00005707</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5729,18 +5755,21 @@
         <v>40.853</v>
       </c>
       <c r="G151" t="n">
-        <v>155386.85305707</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5762,18 +5791,21 @@
         <v>15.5719</v>
       </c>
       <c r="G152" t="n">
-        <v>155402.42495707</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5795,18 +5827,21 @@
         <v>39.0576</v>
       </c>
       <c r="G153" t="n">
-        <v>155363.36735707</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1.03463133640553</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5828,18 +5863,15 @@
         <v>512.811</v>
       </c>
       <c r="G154" t="n">
-        <v>155363.36735707</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5861,18 +5893,15 @@
         <v>1178.1314</v>
       </c>
       <c r="G155" t="n">
-        <v>154185.23595707</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5894,18 +5923,15 @@
         <v>486.4483</v>
       </c>
       <c r="G156" t="n">
-        <v>154671.68425707</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5927,18 +5953,15 @@
         <v>1089.7423</v>
       </c>
       <c r="G157" t="n">
-        <v>154671.68425707</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5960,18 +5983,15 @@
         <v>264.8308</v>
       </c>
       <c r="G158" t="n">
-        <v>154671.68425707</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5993,18 +6013,15 @@
         <v>78.0718</v>
       </c>
       <c r="G159" t="n">
-        <v>154671.68425707</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6026,18 +6043,15 @@
         <v>15500</v>
       </c>
       <c r="G160" t="n">
-        <v>139171.68425707</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6059,18 +6073,15 @@
         <v>74.1846</v>
       </c>
       <c r="G161" t="n">
-        <v>139245.86885707</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6092,18 +6103,15 @@
         <v>3409.9999</v>
       </c>
       <c r="G162" t="n">
-        <v>135835.86895707</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6125,18 +6133,15 @@
         <v>60.2073</v>
       </c>
       <c r="G163" t="n">
-        <v>135896.07625707</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6158,18 +6163,15 @@
         <v>57.197</v>
       </c>
       <c r="G164" t="n">
-        <v>135896.07625707</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6191,18 +6193,15 @@
         <v>382.5957</v>
       </c>
       <c r="G165" t="n">
-        <v>135896.07625707</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6224,18 +6223,15 @@
         <v>33</v>
       </c>
       <c r="G166" t="n">
-        <v>135896.07625707</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6257,18 +6253,15 @@
         <v>2215.82096166</v>
       </c>
       <c r="G167" t="n">
-        <v>138111.89721873</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6290,18 +6283,15 @@
         <v>2411</v>
       </c>
       <c r="G168" t="n">
-        <v>135700.89721873</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6323,18 +6313,15 @@
         <v>54.3251</v>
       </c>
       <c r="G169" t="n">
-        <v>135755.22231873</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6356,18 +6343,15 @@
         <v>1208.54768083</v>
       </c>
       <c r="G170" t="n">
-        <v>135755.22231873</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
